--- a/converter/data/xlsx/12.9.B_SMJENA (6).XLSX
+++ b/converter/data/xlsx/12.9.B_SMJENA (6).XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dar0/projects/OBSKC-Raspored-Sati/converter/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2ABD9-5239-4F22-8C2D-901EB360E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9662C-D61A-114D-A000-D57D74F6B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="41060" windowHeight="30220" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -1902,7 +1902,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,15 +1946,11 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1962,8 +1958,7 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1972,7 +1967,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1992,9 +1986,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2352,12 +2343,12 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2391,9 +2382,8 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2619,14 +2609,8 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2713,37 +2697,25 @@
     <xf numFmtId="0" fontId="12" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2759,15 +2731,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2777,34 +2740,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2822,55 +2773,7 @@
     <xf numFmtId="0" fontId="37" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2933,7 +2836,7 @@
     <xf numFmtId="0" fontId="37" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2953,11 +2856,56 @@
     <xf numFmtId="0" fontId="35" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normalno 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normalno 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -3585,7 +3533,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3908,138 +3856,138 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AN60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:L58"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.54296875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.26953125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="6.26953125" style="6" customWidth="1"/>
-    <col min="17" max="18" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.54296875" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.7265625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.26953125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="6.7265625" style="6" customWidth="1"/>
-    <col min="24" max="25" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="5.54296875" style="6" customWidth="1"/>
-    <col min="29" max="30" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.7265625" style="6" customWidth="1"/>
-    <col min="32" max="33" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="5.54296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="16" width="6.33203125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" style="6" customWidth="1"/>
+    <col min="24" max="25" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="5.5" style="6" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.6640625" style="6" customWidth="1"/>
+    <col min="32" max="33" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="5.5" style="6" customWidth="1"/>
     <col min="36" max="36" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.7265625" style="6" customWidth="1"/>
-    <col min="38" max="38" width="6.54296875" style="6" customWidth="1"/>
-    <col min="39" max="39" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.26953125" style="1"/>
+    <col min="37" max="37" width="5.6640625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="6.5" style="6" customWidth="1"/>
+    <col min="39" max="39" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="373" t="s">
+    <row r="1" spans="1:38" ht="26" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="383" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="373"/>
-      <c r="C1" s="373"/>
-      <c r="D1" s="373"/>
-      <c r="E1" s="373"/>
-      <c r="F1" s="373"/>
-      <c r="G1" s="373"/>
-      <c r="H1" s="373"/>
-      <c r="I1" s="373"/>
-      <c r="J1" s="373"/>
-      <c r="K1" s="373"/>
-      <c r="L1" s="373"/>
-      <c r="M1" s="373"/>
-      <c r="N1" s="373"/>
-      <c r="O1" s="373"/>
-      <c r="P1" s="373"/>
-      <c r="Q1" s="373"/>
-      <c r="R1" s="373"/>
-      <c r="S1" s="373"/>
-      <c r="T1" s="373"/>
-      <c r="U1" s="373"/>
-      <c r="V1" s="373"/>
-      <c r="W1" s="373"/>
-      <c r="X1" s="373"/>
-      <c r="Y1" s="373"/>
-      <c r="Z1" s="373"/>
-      <c r="AA1" s="373"/>
-      <c r="AB1" s="373"/>
-      <c r="AC1" s="373"/>
-      <c r="AD1" s="373"/>
-      <c r="AE1" s="373"/>
-      <c r="AF1" s="373"/>
-      <c r="AG1" s="373"/>
-      <c r="AH1" s="373"/>
-      <c r="AI1" s="373"/>
-      <c r="AJ1" s="373"/>
-      <c r="AK1" s="373"/>
-      <c r="AL1" s="373"/>
-    </row>
-    <row r="2" spans="1:39" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
+      <c r="H1" s="383"/>
+      <c r="I1" s="383"/>
+      <c r="J1" s="383"/>
+      <c r="K1" s="383"/>
+      <c r="L1" s="383"/>
+      <c r="M1" s="383"/>
+      <c r="N1" s="383"/>
+      <c r="O1" s="383"/>
+      <c r="P1" s="383"/>
+      <c r="Q1" s="383"/>
+      <c r="R1" s="383"/>
+      <c r="S1" s="383"/>
+      <c r="T1" s="383"/>
+      <c r="U1" s="383"/>
+      <c r="V1" s="383"/>
+      <c r="W1" s="383"/>
+      <c r="X1" s="383"/>
+      <c r="Y1" s="383"/>
+      <c r="Z1" s="383"/>
+      <c r="AA1" s="383"/>
+      <c r="AB1" s="383"/>
+      <c r="AC1" s="383"/>
+      <c r="AD1" s="383"/>
+      <c r="AE1" s="383"/>
+      <c r="AF1" s="383"/>
+      <c r="AG1" s="383"/>
+      <c r="AH1" s="383"/>
+      <c r="AI1" s="383"/>
+      <c r="AJ1" s="383"/>
+      <c r="AK1" s="383"/>
+      <c r="AL1" s="383"/>
+    </row>
+    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="384" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="375"/>
-      <c r="D2" s="375"/>
-      <c r="E2" s="375"/>
-      <c r="F2" s="375"/>
-      <c r="G2" s="375"/>
-      <c r="H2" s="376"/>
-      <c r="I2" s="380" t="s">
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="386"/>
+      <c r="I2" s="390" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="381"/>
-      <c r="O2" s="381"/>
-      <c r="P2" s="382"/>
-      <c r="Q2" s="374" t="s">
+      <c r="J2" s="391"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
+      <c r="N2" s="391"/>
+      <c r="O2" s="391"/>
+      <c r="P2" s="392"/>
+      <c r="Q2" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="375"/>
-      <c r="S2" s="375"/>
-      <c r="T2" s="375"/>
-      <c r="U2" s="375"/>
-      <c r="V2" s="375"/>
-      <c r="W2" s="376"/>
-      <c r="X2" s="380" t="s">
+      <c r="R2" s="385"/>
+      <c r="S2" s="385"/>
+      <c r="T2" s="385"/>
+      <c r="U2" s="385"/>
+      <c r="V2" s="385"/>
+      <c r="W2" s="386"/>
+      <c r="X2" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="381"/>
-      <c r="Z2" s="381"/>
-      <c r="AA2" s="381"/>
-      <c r="AB2" s="381"/>
-      <c r="AC2" s="381"/>
-      <c r="AD2" s="381"/>
-      <c r="AE2" s="382"/>
-      <c r="AF2" s="377" t="s">
+      <c r="Y2" s="391"/>
+      <c r="Z2" s="391"/>
+      <c r="AA2" s="391"/>
+      <c r="AB2" s="391"/>
+      <c r="AC2" s="391"/>
+      <c r="AD2" s="391"/>
+      <c r="AE2" s="392"/>
+      <c r="AF2" s="387" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="378"/>
-      <c r="AH2" s="378"/>
-      <c r="AI2" s="378"/>
-      <c r="AJ2" s="378"/>
-      <c r="AK2" s="378"/>
-      <c r="AL2" s="379"/>
-    </row>
-    <row r="3" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG2" s="388"/>
+      <c r="AH2" s="388"/>
+      <c r="AI2" s="388"/>
+      <c r="AJ2" s="388"/>
+      <c r="AK2" s="388"/>
+      <c r="AL2" s="389"/>
+    </row>
+    <row r="3" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -4085,7 +4033,7 @@
       <c r="O3" s="4">
         <v>7</v>
       </c>
-      <c r="P3" s="351">
+      <c r="P3" s="336">
         <v>8</v>
       </c>
       <c r="Q3" s="5">
@@ -4130,7 +4078,9 @@
       <c r="AD3" s="4">
         <v>7</v>
       </c>
-      <c r="AE3" s="351"/>
+      <c r="AE3" s="336">
+        <v>8</v>
+      </c>
       <c r="AF3" s="5">
         <v>1</v>
       </c>
@@ -4153,3991 +4103,3935 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="151" t="s">
+      <c r="G4" s="112"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="142" t="s">
+      <c r="J4" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="124" t="s">
+      <c r="L4" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="124" t="s">
+      <c r="M4" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="124"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="341"/>
-      <c r="Q4" s="151" t="s">
+      <c r="N4" s="119"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="329"/>
+      <c r="Q4" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="R4" s="142" t="s">
+      <c r="R4" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124" t="s">
+      <c r="S4" s="119"/>
+      <c r="T4" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="124" t="s">
+      <c r="U4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="172"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="124" t="s">
+      <c r="V4" s="119"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="124" t="s">
+      <c r="AA4" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="172"/>
-      <c r="AE4" s="341"/>
-      <c r="AF4" s="151" t="s">
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="329"/>
+      <c r="AF4" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="AG4" s="142" t="s">
+      <c r="AG4" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="AH4" s="124" t="s">
+      <c r="AH4" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="AI4" s="124" t="s">
+      <c r="AI4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="AJ4" s="124" t="s">
+      <c r="AJ4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="142"/>
-    </row>
-    <row r="5" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="137"/>
+    </row>
+    <row r="5" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="143" t="s">
+      <c r="I5" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="K5" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="125" t="s">
+      <c r="L5" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="125" t="s">
+      <c r="M5" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="125"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="342"/>
-      <c r="Q5" s="152" t="s">
+      <c r="N5" s="120"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="330"/>
+      <c r="Q5" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="R5" s="147" t="s">
+      <c r="R5" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="130" t="s">
+      <c r="S5" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="99" t="s">
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="147" t="s">
+      <c r="Y5" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="Z5" s="130" t="s">
+      <c r="Z5" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="130" t="s">
+      <c r="AA5" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="AB5" s="130" t="s">
+      <c r="AB5" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="AC5" s="130" t="s">
+      <c r="AC5" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="AD5" s="121" t="s">
+      <c r="AD5" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="AE5" s="342"/>
-      <c r="AF5" s="152" t="s">
+      <c r="AE5" s="330"/>
+      <c r="AF5" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="AG5" s="147" t="s">
+      <c r="AG5" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="130"/>
-      <c r="AK5" s="130"/>
-      <c r="AL5" s="147"/>
-    </row>
-    <row r="6" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="51" t="s">
+      <c r="AH5" s="125"/>
+      <c r="AI5" s="125"/>
+      <c r="AJ5" s="125"/>
+      <c r="AK5" s="125"/>
+      <c r="AL5" s="142"/>
+    </row>
+    <row r="6" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="110" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="144"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="343"/>
-      <c r="Q6" s="144" t="s">
+      <c r="I6" s="139"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="331"/>
+      <c r="Q6" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="73" t="s">
+      <c r="R6" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="S6" s="87"/>
-      <c r="T6" s="321" t="s">
+      <c r="S6" s="82"/>
+      <c r="T6" s="313" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="87">
+      <c r="U6" s="82">
         <v>22</v>
       </c>
-      <c r="V6" s="87"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="119" t="s">
+      <c r="V6" s="82"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="177"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="AE6" s="343"/>
-      <c r="AF6" s="144"/>
-      <c r="AG6" s="73">
+      <c r="AE6" s="331"/>
+      <c r="AF6" s="139"/>
+      <c r="AG6" s="68">
         <v>22</v>
       </c>
-      <c r="AH6" s="321" t="s">
+      <c r="AH6" s="313" t="s">
         <v>72</v>
       </c>
-      <c r="AI6" s="87" t="s">
+      <c r="AI6" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="AJ6" s="87" t="s">
+      <c r="AJ6" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="AK6" s="87" t="s">
+      <c r="AK6" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="AL6" s="73" t="s">
+      <c r="AL6" s="68" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="288" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="282" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="288" t="s">
+      <c r="N7" s="282" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="118" t="s">
+      <c r="O7" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="362" t="s">
+      <c r="P7" s="340" t="s">
         <v>75</v>
       </c>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="137" t="s">
+      <c r="Q7" s="138"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="137" t="s">
+      <c r="Y7" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="Z7" s="125" t="s">
+      <c r="Z7" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="125" t="s">
+      <c r="AA7" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="AB7" s="125" t="s">
+      <c r="AB7" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="AC7" s="125" t="s">
+      <c r="AC7" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" s="118" t="s">
+      <c r="AD7" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="362" t="s">
+      <c r="AE7" s="340" t="s">
         <v>69</v>
       </c>
-      <c r="AF7" s="143"/>
-      <c r="AG7" s="137"/>
-      <c r="AH7" s="288" t="s">
+      <c r="AF7" s="138"/>
+      <c r="AG7" s="132"/>
+      <c r="AH7" s="282" t="s">
         <v>75</v>
       </c>
-      <c r="AI7" s="322" t="s">
+      <c r="AI7" s="314" t="s">
         <v>72</v>
       </c>
-      <c r="AJ7" s="125">
+      <c r="AJ7" s="120">
         <v>22</v>
       </c>
-      <c r="AK7" s="125" t="s">
+      <c r="AK7" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="AL7" s="137" t="s">
+      <c r="AL7" s="132" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="143" t="s">
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="125" t="s">
+      <c r="K8" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="125" t="s">
+      <c r="L8" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="125" t="s">
+      <c r="M8" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="125" t="s">
+      <c r="N8" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="118" t="s">
+      <c r="O8" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="362"/>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="137"/>
-      <c r="Y8" s="137"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="125" t="s">
+      <c r="P8" s="340"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="AC8" s="125" t="s">
+      <c r="AC8" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="AD8" s="118" t="s">
+      <c r="AD8" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="AE8" s="362"/>
-      <c r="AF8" s="143" t="s">
+      <c r="AE8" s="340"/>
+      <c r="AF8" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="137"/>
-      <c r="AH8" s="125" t="s">
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="AI8" s="125" t="s">
+      <c r="AI8" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="AJ8" s="125" t="s">
+      <c r="AJ8" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="AK8" s="125" t="s">
+      <c r="AK8" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="AL8" s="137" t="s">
+      <c r="AL8" s="132" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="278" t="s">
+      <c r="B9" s="272" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="273" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="280" t="s">
+      <c r="D9" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="280" t="s">
+      <c r="E9" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="281" t="s">
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="275" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="282" t="s">
+      <c r="L9" s="276" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="126"/>
-      <c r="N9" s="114" t="s">
+      <c r="M9" s="121"/>
+      <c r="N9" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="283" t="s">
+      <c r="O9" s="277" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="363" t="s">
+      <c r="P9" s="344" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="284" t="s">
+      <c r="Q9" s="148"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="278" t="s">
         <v>70</v>
       </c>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="285" t="s">
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="AB9" s="285" t="s">
+      <c r="AB9" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="AC9" s="285" t="s">
+      <c r="AC9" s="279" t="s">
         <v>82</v>
       </c>
-      <c r="AD9" s="286" t="s">
+      <c r="AD9" s="280" t="s">
         <v>82</v>
       </c>
-      <c r="AE9" s="363" t="s">
+      <c r="AE9" s="344" t="s">
         <v>71</v>
       </c>
-      <c r="AF9" s="153"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="285" t="s">
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="140"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="AJ9" s="285" t="s">
+      <c r="AJ9" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="AK9" s="285" t="s">
+      <c r="AK9" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="AL9" s="284" t="s">
+      <c r="AL9" s="278" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="350"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="350"/>
-      <c r="AF10" s="205" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="331"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="331"/>
+      <c r="AF10" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="AG10" s="303" t="s">
+      <c r="AG10" s="295" t="s">
         <v>68</v>
       </c>
-      <c r="AH10" s="304" t="s">
+      <c r="AH10" s="296" t="s">
         <v>68</v>
       </c>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="73"/>
-    </row>
-    <row r="11" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52" t="s">
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="68"/>
+    </row>
+    <row r="11" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="173" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="349"/>
-      <c r="Q11" s="143" t="s">
+      <c r="P11" s="134"/>
+      <c r="Q11" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="137" t="s">
+      <c r="R11" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="125" t="s">
+      <c r="S11" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125" t="s">
+      <c r="T11" s="120"/>
+      <c r="U11" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="V11" s="125" t="s">
+      <c r="V11" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="118"/>
-      <c r="X11" s="325" t="s">
+      <c r="W11" s="113"/>
+      <c r="X11" s="317" t="s">
         <v>109</v>
       </c>
-      <c r="Y11" s="325" t="s">
+      <c r="Y11" s="317" t="s">
         <v>109</v>
       </c>
-      <c r="Z11" s="328" t="s">
+      <c r="Z11" s="320" t="s">
         <v>109</v>
       </c>
-      <c r="AA11" s="125" t="s">
+      <c r="AA11" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="AB11" s="125" t="s">
+      <c r="AB11" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="AC11" s="125" t="s">
+      <c r="AC11" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="AD11" s="118" t="s">
+      <c r="AD11" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="AE11" s="349"/>
-      <c r="AF11" s="143"/>
-      <c r="AG11" s="137"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="125"/>
-      <c r="AJ11" s="125"/>
-      <c r="AK11" s="125"/>
-      <c r="AL11" s="137"/>
-    </row>
-    <row r="12" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="52" t="s">
+      <c r="AE11" s="134"/>
+      <c r="AF11" s="138"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="120"/>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="120"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="132"/>
+    </row>
+    <row r="12" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="95" t="s">
+      <c r="H12" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="152"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="349"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="137"/>
-      <c r="S12" s="125"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="125"/>
-      <c r="AA12" s="125"/>
-      <c r="AB12" s="125"/>
-      <c r="AC12" s="125"/>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="349"/>
-      <c r="AF12" s="143"/>
-      <c r="AG12" s="137"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="125"/>
-      <c r="AJ12" s="125"/>
-      <c r="AK12" s="137"/>
-      <c r="AL12" s="137"/>
-    </row>
-    <row r="13" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="52" t="s">
+      <c r="I12" s="147"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="138"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="132"/>
+      <c r="AL12" s="132"/>
+    </row>
+    <row r="13" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="289" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="283" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="290" t="s">
+      <c r="F13" s="284" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="290" t="s">
+      <c r="G13" s="284" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="291" t="s">
+      <c r="H13" s="285" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="153"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="292" t="s">
+      <c r="I13" s="148"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="286" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="349"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="287" t="s">
+      <c r="P13" s="134"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="281" t="s">
         <v>76</v>
       </c>
-      <c r="T13" s="287" t="s">
+      <c r="T13" s="281" t="s">
         <v>71</v>
       </c>
-      <c r="U13" s="287" t="s">
+      <c r="U13" s="281" t="s">
         <v>69</v>
       </c>
-      <c r="V13" s="287" t="s">
+      <c r="V13" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="W13" s="283" t="s">
+      <c r="W13" s="277" t="s">
         <v>78</v>
       </c>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="125"/>
-      <c r="AA13" s="125"/>
-      <c r="AB13" s="125"/>
-      <c r="AC13" s="293" t="s">
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="120"/>
+      <c r="AC13" s="287" t="s">
         <v>77</v>
       </c>
-      <c r="AD13" s="292" t="s">
+      <c r="AD13" s="286" t="s">
         <v>70</v>
       </c>
-      <c r="AE13" s="349"/>
-      <c r="AF13" s="143"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="125"/>
-      <c r="AJ13" s="125"/>
-      <c r="AK13" s="137"/>
-      <c r="AL13" s="126"/>
-      <c r="AM13" s="25"/>
-    </row>
-    <row r="14" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="53" t="s">
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="138"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="120"/>
+      <c r="AI13" s="120"/>
+      <c r="AJ13" s="120"/>
+      <c r="AK13" s="132"/>
+      <c r="AL13" s="121"/>
+    </row>
+    <row r="14" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="125" t="s">
+      <c r="I14" s="66"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="T14" s="125" t="s">
+      <c r="T14" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="U14" s="125" t="s">
+      <c r="U14" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="V14" s="125" t="s">
+      <c r="V14" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="W14" s="120" t="s">
+      <c r="W14" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="125"/>
-      <c r="AC14" s="125" t="s">
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="AD14" s="118" t="s">
+      <c r="AD14" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="AE14" s="349"/>
-      <c r="AF14" s="143"/>
-      <c r="AG14" s="137"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="125"/>
-      <c r="AJ14" s="125"/>
-      <c r="AK14" s="137"/>
-      <c r="AL14" s="137"/>
-      <c r="AM14" s="25"/>
-    </row>
-    <row r="15" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="53" t="s">
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="138"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="120"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="132"/>
+      <c r="AL14" s="132"/>
+    </row>
+    <row r="15" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="95" t="s">
+      <c r="H15" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="118" t="s">
+      <c r="I15" s="66"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="125"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="125"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="125"/>
-      <c r="AA15" s="125"/>
-      <c r="AB15" s="125"/>
-      <c r="AC15" s="114"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="349"/>
-      <c r="AF15" s="143"/>
-      <c r="AG15" s="137"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="125"/>
-      <c r="AJ15" s="125"/>
-      <c r="AK15" s="137"/>
-      <c r="AL15" s="137"/>
-      <c r="AM15" s="25"/>
-    </row>
-    <row r="16" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="53" t="s">
+      <c r="P15" s="134"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="120"/>
+      <c r="AC15" s="109"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="134"/>
+      <c r="AF15" s="138"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="120"/>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="132"/>
+      <c r="AL15" s="132"/>
+    </row>
+    <row r="16" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="118" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="322" t="s">
+      <c r="P16" s="134"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="314" t="s">
         <v>72</v>
       </c>
-      <c r="T16" s="125" t="s">
+      <c r="T16" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="U16" s="125" t="s">
+      <c r="U16" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="V16" s="125" t="s">
+      <c r="V16" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="W16" s="120" t="s">
+      <c r="W16" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="X16" s="137" t="s">
+      <c r="X16" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="Y16" s="137" t="s">
+      <c r="Y16" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="125" t="s">
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" s="125" t="s">
+      <c r="AB16" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="AC16" s="326" t="s">
+      <c r="AC16" s="318" t="s">
         <v>109</v>
       </c>
-      <c r="AD16" s="327" t="s">
+      <c r="AD16" s="319" t="s">
         <v>109</v>
       </c>
-      <c r="AE16" s="354"/>
-      <c r="AF16" s="143"/>
-      <c r="AG16" s="137"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="125"/>
-      <c r="AJ16" s="322" t="s">
+      <c r="AE16" s="339"/>
+      <c r="AF16" s="138"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="120"/>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="314" t="s">
         <v>72</v>
       </c>
-      <c r="AK16" s="137" t="s">
+      <c r="AK16" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="AL16" s="137" t="s">
+      <c r="AL16" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="AM16" s="25"/>
-    </row>
-    <row r="17" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="50" t="s">
+    </row>
+    <row r="17" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="95" t="s">
+      <c r="H17" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114" t="s">
+      <c r="I17" s="66"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="120"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="324" t="s">
+      <c r="O17" s="115"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="316" t="s">
         <v>68</v>
       </c>
-      <c r="Y17" s="324" t="s">
+      <c r="Y17" s="316" t="s">
         <v>68</v>
       </c>
-      <c r="Z17" s="114" t="s">
+      <c r="Z17" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="AA17" s="114"/>
-      <c r="AB17" s="114" t="s">
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="AC17" s="114" t="s">
+      <c r="AC17" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="AD17" s="120"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="126"/>
-      <c r="AH17" s="114"/>
-      <c r="AI17" s="114"/>
-      <c r="AJ17" s="114">
+      <c r="AD17" s="115"/>
+      <c r="AE17" s="135"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="109"/>
+      <c r="AI17" s="109"/>
+      <c r="AJ17" s="109">
         <v>22</v>
       </c>
-      <c r="AK17" s="126"/>
-      <c r="AL17" s="126"/>
-      <c r="AM17" s="25"/>
-    </row>
-    <row r="18" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AK17" s="121"/>
+      <c r="AL17" s="121"/>
+    </row>
+    <row r="18" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="O18" s="119"/>
-      <c r="P18" s="343"/>
-      <c r="Q18" s="319" t="s">
+      <c r="O18" s="114"/>
+      <c r="P18" s="331"/>
+      <c r="Q18" s="311" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="320" t="s">
+      <c r="R18" s="312" t="s">
         <v>72</v>
       </c>
-      <c r="S18" s="87">
+      <c r="S18" s="82">
         <v>22</v>
       </c>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="119" t="s">
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="AE18" s="343"/>
-      <c r="AF18" s="319" t="s">
+      <c r="AE18" s="331"/>
+      <c r="AF18" s="311" t="s">
         <v>72</v>
       </c>
-      <c r="AG18" s="320" t="s">
+      <c r="AG18" s="312" t="s">
         <v>72</v>
       </c>
-      <c r="AH18" s="87">
+      <c r="AH18" s="82">
         <v>22</v>
       </c>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="25"/>
-    </row>
-    <row r="19" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="50" t="s">
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="68"/>
+    </row>
+    <row r="19" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="317" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="309" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="191" t="s">
+      <c r="J19" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="318" t="s">
+      <c r="K19" s="310" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="85">
+      <c r="L19" s="80">
         <v>22</v>
       </c>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="344"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="132"/>
-      <c r="AD19" s="188"/>
-      <c r="AE19" s="352"/>
-      <c r="AF19" s="153"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="85"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="145"/>
-      <c r="AO19" s="25"/>
-    </row>
-    <row r="20" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="50" t="s">
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="332"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="183"/>
+      <c r="AE19" s="337"/>
+      <c r="AF19" s="148"/>
+      <c r="AG19" s="140"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="80"/>
+      <c r="AL19" s="140"/>
+    </row>
+    <row r="20" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="344"/>
-      <c r="Q20" s="153" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="332"/>
+      <c r="Q20" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="145" t="s">
+      <c r="R20" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="S20" s="302" t="s">
+      <c r="S20" s="294" t="s">
         <v>68</v>
       </c>
-      <c r="T20" s="302" t="s">
+      <c r="T20" s="294" t="s">
         <v>68</v>
       </c>
-      <c r="U20" s="85" t="s">
+      <c r="U20" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="85"/>
-      <c r="W20" s="122" t="s">
+      <c r="V20" s="80"/>
+      <c r="W20" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="X20" s="145" t="s">
+      <c r="X20" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="Y20" s="145" t="s">
+      <c r="Y20" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="344"/>
-      <c r="AF20" s="153" t="s">
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="332"/>
+      <c r="AF20" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="AG20" s="145" t="s">
+      <c r="AG20" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="AH20" s="85" t="s">
+      <c r="AH20" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="AI20" s="85" t="s">
+      <c r="AI20" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="AJ20" s="85" t="s">
+      <c r="AJ20" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="AK20" s="85" t="s">
+      <c r="AK20" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="AL20" s="145" t="s">
+      <c r="AL20" s="140" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="82" t="s">
+      <c r="F21" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="82" t="s">
+      <c r="G21" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="109"/>
-      <c r="I21" s="153" t="s">
+      <c r="H21" s="104"/>
+      <c r="I21" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="145" t="s">
+      <c r="J21" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="85" t="s">
+      <c r="K21" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="M21" s="85" t="s">
+      <c r="M21" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="85"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="344"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="145"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85" t="s">
+      <c r="N21" s="80"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="332"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="140"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="W21" s="122" t="s">
+      <c r="W21" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="X21" s="126" t="s">
+      <c r="X21" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="Y21" s="145" t="s">
+      <c r="Y21" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="85" t="s">
+      <c r="Z21" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="AA21" s="85" t="s">
+      <c r="AA21" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="122"/>
-      <c r="AE21" s="344"/>
-      <c r="AF21" s="153"/>
-      <c r="AG21" s="145" t="s">
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="332"/>
+      <c r="AF21" s="148"/>
+      <c r="AG21" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="AH21" s="85" t="s">
+      <c r="AH21" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="AI21" s="85"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="145"/>
-      <c r="AM21" s="199" t="s">
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="80"/>
+      <c r="AL21" s="140"/>
+      <c r="AM21" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="AN21" s="25"/>
-    </row>
-    <row r="22" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="51" t="s">
+    </row>
+    <row r="22" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="343"/>
-      <c r="Q22" s="144" t="s">
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="331"/>
+      <c r="Q22" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="73" t="s">
+      <c r="R22" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="S22" s="87" t="s">
+      <c r="S22" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="T22" s="255" t="s">
+      <c r="T22" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="U22" s="255" t="s">
+      <c r="U22" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="V22" s="255" t="s">
+      <c r="V22" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="W22" s="256" t="s">
+      <c r="W22" s="250" t="s">
         <v>75</v>
       </c>
-      <c r="X22" s="257" t="s">
+      <c r="X22" s="251" t="s">
         <v>76</v>
       </c>
-      <c r="Y22" s="258" t="s">
+      <c r="Y22" s="252" t="s">
         <v>76</v>
       </c>
-      <c r="Z22" s="255" t="s">
+      <c r="Z22" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="AA22" s="255" t="s">
+      <c r="AA22" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="AB22" s="87" t="s">
+      <c r="AB22" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="343"/>
-      <c r="AF22" s="144"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="87" t="s">
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="331"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AK22" s="87" t="s">
+      <c r="AK22" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="AL22" s="73" t="s">
+      <c r="AL22" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="AM22" s="60" t="s">
+      <c r="AM22" s="56" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="208" t="s">
+      <c r="B23" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="209" t="s">
+      <c r="C23" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="123"/>
-      <c r="X23" s="137" t="s">
+      <c r="E23" s="71"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="Y23" s="136" t="s">
+      <c r="Y23" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="Z23" s="136"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="123"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="212" t="s">
+      <c r="Z23" s="131"/>
+      <c r="AA23" s="122"/>
+      <c r="AB23" s="122"/>
+      <c r="AC23" s="122"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="133"/>
+      <c r="AF23" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="AG23" s="213" t="s">
+      <c r="AG23" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="AH23" s="214" t="s">
+      <c r="AH23" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="AI23" s="329" t="s">
+      <c r="AI23" s="321" t="s">
         <v>73</v>
       </c>
-      <c r="AJ23" s="329" t="s">
+      <c r="AJ23" s="321" t="s">
         <v>73</v>
       </c>
-      <c r="AK23" s="329" t="s">
+      <c r="AK23" s="321" t="s">
         <v>73</v>
       </c>
-      <c r="AL23" s="330" t="s">
+      <c r="AL23" s="322" t="s">
         <v>73</v>
       </c>
-      <c r="AM23" s="196" t="s">
+      <c r="AM23" s="191" t="s">
         <v>94</v>
       </c>
-      <c r="AN23" s="39"/>
-    </row>
-    <row r="24" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="52" t="s">
+      <c r="AN23" s="37"/>
+    </row>
+    <row r="24" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="116" t="s">
+      <c r="H24" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="143"/>
-      <c r="J24" s="178" t="s">
+      <c r="I24" s="138"/>
+      <c r="J24" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="125" t="s">
+      <c r="K24" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="170" t="s">
+      <c r="L24" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="178" t="s">
+      <c r="M24" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="N24" s="178" t="s">
+      <c r="N24" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="O24" s="118"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="187" t="s">
+      <c r="O24" s="113"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="W24" s="194" t="s">
+      <c r="W24" s="189" t="s">
         <v>70</v>
       </c>
-      <c r="X24" s="170" t="s">
+      <c r="X24" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="Y24" s="170" t="s">
+      <c r="Y24" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="Z24" s="170" t="s">
+      <c r="Z24" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="AA24" s="125"/>
-      <c r="AB24" s="125"/>
-      <c r="AC24" s="125"/>
-      <c r="AD24" s="118"/>
-      <c r="AE24" s="139"/>
-      <c r="AF24" s="143"/>
-      <c r="AG24" s="137"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="193"/>
-      <c r="AJ24" s="206"/>
-      <c r="AK24" s="178"/>
-      <c r="AL24" s="207" t="s">
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="134"/>
+      <c r="AF24" s="138"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="188"/>
+      <c r="AJ24" s="201"/>
+      <c r="AK24" s="173"/>
+      <c r="AL24" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="AM24" s="197" t="s">
+      <c r="AM24" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="AN24" s="40"/>
-    </row>
-    <row r="25" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="48" t="s">
+      <c r="AN24" s="28"/>
+    </row>
+    <row r="25" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="71" t="s">
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="203" t="s">
+      <c r="J25" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="210" t="s">
+      <c r="K25" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="211" t="s">
+      <c r="L25" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="M25" s="203" t="s">
+      <c r="M25" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="N25" s="203" t="s">
+      <c r="N25" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="120" t="s">
+      <c r="O25" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="71" t="s">
+      <c r="P25" s="135"/>
+      <c r="Q25" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="R25" s="126" t="s">
+      <c r="R25" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="S25" s="114" t="s">
+      <c r="S25" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="204" t="s">
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="Y25" s="204" t="s">
+      <c r="Y25" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="Z25" s="204" t="s">
+      <c r="Z25" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="AA25" s="114"/>
-      <c r="AB25" s="114"/>
-      <c r="AC25" s="114"/>
-      <c r="AD25" s="120"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="71" t="s">
+      <c r="AA25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="109"/>
+      <c r="AD25" s="115"/>
+      <c r="AE25" s="135"/>
+      <c r="AF25" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="AG25" s="126" t="s">
+      <c r="AG25" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="AH25" s="114"/>
-      <c r="AI25" s="215" t="s">
+      <c r="AH25" s="109"/>
+      <c r="AI25" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="AJ25" s="215" t="s">
+      <c r="AJ25" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="AK25" s="215" t="s">
+      <c r="AK25" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="AL25" s="331" t="s">
+      <c r="AL25" s="323" t="s">
         <v>73</v>
       </c>
-      <c r="AM25" s="198" t="s">
+      <c r="AM25" s="193" t="s">
         <v>96</v>
       </c>
-      <c r="AN25" s="40"/>
-    </row>
-    <row r="26" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="59" t="s">
+      <c r="AN25" s="28"/>
+    </row>
+    <row r="26" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="G26" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="96"/>
-      <c r="I26" s="146" t="s">
+      <c r="H26" s="91"/>
+      <c r="I26" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="156"/>
-      <c r="K26" s="202" t="s">
+      <c r="J26" s="151"/>
+      <c r="K26" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="202" t="s">
+      <c r="L26" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="345"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="133"/>
-      <c r="T26" s="133"/>
-      <c r="U26" s="133"/>
-      <c r="V26" s="133"/>
-      <c r="W26" s="157"/>
-      <c r="X26" s="156"/>
-      <c r="Y26" s="156"/>
-      <c r="Z26" s="156"/>
-      <c r="AA26" s="133"/>
-      <c r="AB26" s="133"/>
-      <c r="AC26" s="133"/>
-      <c r="AD26" s="157"/>
-      <c r="AE26" s="345"/>
-      <c r="AF26" s="190"/>
-      <c r="AG26" s="189"/>
-      <c r="AH26" s="186" t="s">
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="333"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="151"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="152"/>
+      <c r="X26" s="151"/>
+      <c r="Y26" s="151"/>
+      <c r="Z26" s="151"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="333"/>
+      <c r="AF26" s="185"/>
+      <c r="AG26" s="184"/>
+      <c r="AH26" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="AI26" s="133" t="s">
+      <c r="AI26" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="AJ26" s="133" t="s">
+      <c r="AJ26" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="AK26" s="87" t="s">
+      <c r="AK26" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="AL26" s="156" t="s">
+      <c r="AL26" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="AM26" s="31" t="s">
+      <c r="AM26" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="52" t="s">
+    <row r="27" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="332" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="324" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="333" t="s">
+      <c r="H27" s="325" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="143"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="139"/>
-      <c r="Q27" s="216" t="s">
+      <c r="I27" s="138"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="R27" s="217" t="s">
+      <c r="R27" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="S27" s="218" t="s">
+      <c r="S27" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="T27" s="218" t="s">
+      <c r="T27" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="U27" s="125"/>
-      <c r="V27" s="125"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="125"/>
-      <c r="AA27" s="125"/>
-      <c r="AB27" s="125"/>
-      <c r="AC27" s="219" t="s">
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="120"/>
+      <c r="AC27" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="AD27" s="220" t="s">
+      <c r="AD27" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="AE27" s="355"/>
-      <c r="AF27" s="143" t="s">
+      <c r="AE27" s="340"/>
+      <c r="AF27" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="AG27" s="137" t="s">
+      <c r="AG27" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="AH27" s="130" t="s">
+      <c r="AH27" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="AI27" s="221" t="s">
+      <c r="AI27" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="AJ27" s="222" t="s">
+      <c r="AJ27" s="216" t="s">
         <v>78</v>
       </c>
-      <c r="AK27" s="219" t="s">
+      <c r="AK27" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="AL27" s="223" t="s">
+      <c r="AL27" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="AM27" s="28" t="s">
+      <c r="AM27" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="53" t="s">
+    <row r="28" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="236" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="235" t="s">
+      <c r="G28" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="109" t="s">
+      <c r="H28" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="71"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114" t="s">
+      <c r="I28" s="66"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="N28" s="114" t="s">
+      <c r="N28" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="120"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="241" t="s">
+      <c r="O28" s="115"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="235" t="s">
         <v>71</v>
       </c>
-      <c r="W28" s="254" t="s">
+      <c r="W28" s="248" t="s">
         <v>71</v>
       </c>
-      <c r="X28" s="252" t="s">
+      <c r="X28" s="246" t="s">
         <v>69</v>
       </c>
-      <c r="Y28" s="252" t="s">
+      <c r="Y28" s="246" t="s">
         <v>69</v>
       </c>
-      <c r="Z28" s="253" t="s">
+      <c r="Z28" s="247" t="s">
         <v>69</v>
       </c>
-      <c r="AA28" s="253" t="s">
+      <c r="AA28" s="247" t="s">
         <v>69</v>
       </c>
-      <c r="AB28" s="114"/>
-      <c r="AC28" s="164" t="s">
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="AD28" s="160" t="s">
+      <c r="AD28" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="AE28" s="356"/>
-      <c r="AF28" s="338" t="s">
+      <c r="AE28" s="341"/>
+      <c r="AF28" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AG28" s="339" t="s">
+      <c r="AG28" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="AH28" s="340" t="s">
+      <c r="AH28" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="AI28" s="164" t="s">
+      <c r="AI28" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="AJ28" s="164" t="s">
+      <c r="AJ28" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="AK28" s="135" t="s">
+      <c r="AK28" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="AL28" s="129" t="s">
+      <c r="AL28" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="AM28" s="29" t="s">
+      <c r="AM28" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="50" t="s">
+    <row r="29" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="274" t="s">
+      <c r="F29" s="268" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="274" t="s">
+      <c r="G29" s="268" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="95"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="275" t="s">
+      <c r="H29" s="90"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="269" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="275" t="s">
+      <c r="L29" s="269" t="s">
         <v>76</v>
       </c>
-      <c r="M29" s="275" t="s">
+      <c r="M29" s="269" t="s">
         <v>76</v>
       </c>
-      <c r="N29" s="275" t="s">
+      <c r="N29" s="269" t="s">
         <v>76</v>
       </c>
-      <c r="O29" s="122"/>
-      <c r="P29" s="344"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="145"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="273" t="s">
+      <c r="O29" s="117"/>
+      <c r="P29" s="332"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="140"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="267" t="s">
         <v>71</v>
       </c>
-      <c r="W29" s="276" t="s">
+      <c r="W29" s="270" t="s">
         <v>71</v>
       </c>
-      <c r="X29" s="145"/>
-      <c r="Y29" s="145"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="348"/>
-      <c r="AF29" s="153"/>
-      <c r="AG29" s="126"/>
-      <c r="AH29" s="145"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="85"/>
-      <c r="AK29" s="85"/>
-      <c r="AL29" s="145" t="s">
+      <c r="X29" s="140"/>
+      <c r="Y29" s="140"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="80"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="332"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="121"/>
+      <c r="AH29" s="140"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="AM29" s="30"/>
-    </row>
-    <row r="30" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="50" t="s">
+      <c r="AM29" s="28"/>
+    </row>
+    <row r="30" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="344"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="145"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="277" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="332"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="140"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="271" t="s">
         <v>69</v>
       </c>
-      <c r="Y30" s="277" t="s">
+      <c r="Y30" s="271" t="s">
         <v>69</v>
       </c>
-      <c r="Z30" s="273" t="s">
+      <c r="Z30" s="267" t="s">
         <v>69</v>
       </c>
-      <c r="AA30" s="273" t="s">
+      <c r="AA30" s="267" t="s">
         <v>69</v>
       </c>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="122"/>
-      <c r="AE30" s="348"/>
-      <c r="AF30" s="153"/>
-      <c r="AG30" s="126"/>
-      <c r="AH30" s="145"/>
-      <c r="AI30" s="85"/>
-      <c r="AJ30" s="85"/>
-      <c r="AK30" s="85"/>
-      <c r="AL30" s="145"/>
-      <c r="AM30" s="37" t="s">
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="332"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="140"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="80"/>
+      <c r="AL30" s="140"/>
+      <c r="AM30" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="344"/>
-      <c r="Q31" s="154" t="s">
+      <c r="B31" s="63"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="332"/>
+      <c r="Q31" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="R31" s="176" t="s">
+      <c r="R31" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="S31" s="161" t="s">
+      <c r="S31" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="T31" s="161" t="s">
+      <c r="T31" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="145"/>
-      <c r="Y31" s="145"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="85"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="85"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="348"/>
-      <c r="AF31" s="153"/>
-      <c r="AG31" s="145"/>
-      <c r="AH31" s="85"/>
-      <c r="AI31" s="85"/>
-      <c r="AJ31" s="85"/>
-      <c r="AK31" s="85"/>
-      <c r="AL31" s="145"/>
-      <c r="AM31" s="28" t="s">
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="140"/>
+      <c r="Y31" s="140"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="80"/>
+      <c r="AD31" s="117"/>
+      <c r="AE31" s="332"/>
+      <c r="AF31" s="148"/>
+      <c r="AG31" s="140"/>
+      <c r="AH31" s="80"/>
+      <c r="AI31" s="80"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="80"/>
+      <c r="AL31" s="140"/>
+      <c r="AM31" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="386" t="s">
+      <c r="B32" s="351" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="387" t="s">
+      <c r="C32" s="352" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="388" t="s">
+      <c r="D32" s="353" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="388" t="s">
+      <c r="E32" s="353" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="388" t="s">
+      <c r="F32" s="353" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="388" t="s">
+      <c r="G32" s="353" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="389" t="s">
+      <c r="H32" s="354" t="s">
         <v>70</v>
       </c>
-      <c r="I32" s="390" t="s">
+      <c r="I32" s="355" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="391" t="s">
+      <c r="J32" s="356" t="s">
         <v>70</v>
       </c>
-      <c r="K32" s="391" t="s">
+      <c r="K32" s="356" t="s">
         <v>70</v>
       </c>
-      <c r="L32" s="232" t="s">
+      <c r="L32" s="226" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="344"/>
-      <c r="Q32" s="390" t="s">
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="332"/>
+      <c r="Q32" s="355" t="s">
         <v>70</v>
       </c>
-      <c r="R32" s="392" t="s">
+      <c r="R32" s="357" t="s">
         <v>70</v>
       </c>
-      <c r="S32" s="393" t="s">
+      <c r="S32" s="358" t="s">
         <v>70</v>
       </c>
-      <c r="T32" s="393" t="s">
+      <c r="T32" s="358" t="s">
         <v>70</v>
       </c>
-      <c r="U32" s="393" t="s">
+      <c r="U32" s="358" t="s">
         <v>70</v>
       </c>
-      <c r="V32" s="393" t="s">
+      <c r="V32" s="358" t="s">
         <v>70</v>
       </c>
-      <c r="W32" s="394" t="s">
+      <c r="W32" s="359" t="s">
         <v>70</v>
       </c>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="85"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="348"/>
-      <c r="AF32" s="153"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="85"/>
-      <c r="AI32" s="85" t="s">
+      <c r="X32" s="140"/>
+      <c r="Y32" s="140"/>
+      <c r="Z32" s="140"/>
+      <c r="AA32" s="140"/>
+      <c r="AB32" s="140"/>
+      <c r="AC32" s="80"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="332"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="80"/>
+      <c r="AI32" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AJ32" s="85" t="s">
+      <c r="AJ32" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AK32" s="85" t="s">
+      <c r="AK32" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AL32" s="395" t="s">
+      <c r="AL32" s="360" t="s">
         <v>70</v>
       </c>
-      <c r="AM32" s="30" t="s">
+      <c r="AM32" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="50" t="s">
+    <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="233" t="s">
+      <c r="B33" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="234" t="s">
+      <c r="C33" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="235" t="s">
+      <c r="D33" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="236" t="s">
+      <c r="E33" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="334" t="s">
+      <c r="F33" s="326" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="82"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="245" t="s">
+      <c r="G33" s="77"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="246" t="s">
+      <c r="J33" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="247" t="s">
+      <c r="K33" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="240" t="s">
+      <c r="L33" s="234" t="s">
         <v>69</v>
       </c>
-      <c r="M33" s="241" t="s">
+      <c r="M33" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="N33" s="241" t="s">
+      <c r="N33" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="O33" s="242" t="s">
+      <c r="O33" s="236" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="348"/>
-      <c r="Q33" s="245" t="s">
+      <c r="P33" s="332"/>
+      <c r="Q33" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="R33" s="246" t="s">
+      <c r="R33" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="S33" s="247" t="s">
+      <c r="S33" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="T33" s="247" t="s">
+      <c r="T33" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="U33" s="247" t="s">
+      <c r="U33" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="V33" s="384"/>
-      <c r="W33" s="385"/>
-      <c r="X33" s="126"/>
-      <c r="Y33" s="145"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="145"/>
-      <c r="AB33" s="126"/>
-      <c r="AC33" s="247" t="s">
+      <c r="V33" s="156"/>
+      <c r="W33" s="350"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="140"/>
+      <c r="Z33" s="140"/>
+      <c r="AA33" s="140"/>
+      <c r="AB33" s="121"/>
+      <c r="AC33" s="241" t="s">
         <v>78</v>
       </c>
-      <c r="AD33" s="248" t="s">
+      <c r="AD33" s="242" t="s">
         <v>78</v>
       </c>
-      <c r="AE33" s="357"/>
-      <c r="AF33" s="153"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="126"/>
-      <c r="AK33" s="135"/>
-      <c r="AL33" s="129"/>
-      <c r="AM33" s="29" t="s">
+      <c r="AE33" s="342"/>
+      <c r="AF33" s="148"/>
+      <c r="AG33" s="140"/>
+      <c r="AH33" s="140"/>
+      <c r="AI33" s="140"/>
+      <c r="AJ33" s="121"/>
+      <c r="AK33" s="130"/>
+      <c r="AL33" s="124"/>
+      <c r="AM33" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="51" t="s">
+    <row r="34" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="237" t="s">
+      <c r="B34" s="231" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="238" t="s">
+      <c r="C34" s="232" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="239" t="s">
+      <c r="D34" s="233" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="239" t="s">
+      <c r="E34" s="233" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="243" t="s">
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="237" t="s">
         <v>69</v>
       </c>
-      <c r="M34" s="243" t="s">
+      <c r="M34" s="237" t="s">
         <v>69</v>
       </c>
-      <c r="N34" s="243" t="s">
+      <c r="N34" s="237" t="s">
         <v>69</v>
       </c>
-      <c r="O34" s="244" t="s">
+      <c r="O34" s="238" t="s">
         <v>69</v>
       </c>
-      <c r="P34" s="350"/>
-      <c r="Q34" s="177" t="s">
+      <c r="P34" s="331"/>
+      <c r="Q34" s="172" t="s">
         <v>78</v>
       </c>
-      <c r="R34" s="158" t="s">
+      <c r="R34" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="S34" s="162" t="s">
+      <c r="S34" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="T34" s="162" t="s">
+      <c r="T34" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="119"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73" t="s">
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="169"/>
-      <c r="AD34" s="183"/>
-      <c r="AE34" s="358"/>
-      <c r="AF34" s="144"/>
-      <c r="AG34" s="73"/>
-      <c r="AH34" s="73"/>
-      <c r="AI34" s="249" t="s">
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="164"/>
+      <c r="AD34" s="178"/>
+      <c r="AE34" s="343"/>
+      <c r="AF34" s="139"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="243" t="s">
         <v>78</v>
       </c>
-      <c r="AJ34" s="249" t="s">
+      <c r="AJ34" s="243" t="s">
         <v>78</v>
       </c>
-      <c r="AK34" s="250" t="s">
+      <c r="AK34" s="244" t="s">
         <v>78</v>
       </c>
-      <c r="AL34" s="251" t="s">
+      <c r="AL34" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="AM34" s="37" t="s">
+      <c r="AM34" s="35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="49" t="s">
+    <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="259" t="s">
+      <c r="B35" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="260" t="s">
+      <c r="C35" s="254" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="261" t="s">
+      <c r="D35" s="255" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="261" t="s">
+      <c r="E35" s="255" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="261" t="s">
+      <c r="F35" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="261" t="s">
+      <c r="G35" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="111" t="s">
+      <c r="H35" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="149" t="s">
+      <c r="I35" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="136" t="s">
+      <c r="J35" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="138"/>
-      <c r="Q35" s="149" t="s">
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="133"/>
+      <c r="Q35" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="R35" s="136" t="s">
+      <c r="R35" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="S35" s="262" t="s">
+      <c r="S35" s="256" t="s">
         <v>75</v>
       </c>
-      <c r="T35" s="335" t="s">
+      <c r="T35" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="U35" s="127"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="123"/>
-      <c r="X35" s="136"/>
-      <c r="Y35" s="136"/>
-      <c r="Z35" s="127"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="127"/>
-      <c r="AC35" s="127"/>
-      <c r="AD35" s="123"/>
-      <c r="AE35" s="359"/>
-      <c r="AF35" s="149"/>
-      <c r="AG35" s="136" t="s">
+      <c r="U35" s="122"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="118"/>
+      <c r="X35" s="131"/>
+      <c r="Y35" s="131"/>
+      <c r="Z35" s="122"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="122"/>
+      <c r="AC35" s="122"/>
+      <c r="AD35" s="118"/>
+      <c r="AE35" s="133"/>
+      <c r="AF35" s="144"/>
+      <c r="AG35" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="AH35" s="127"/>
-      <c r="AI35" s="127" t="s">
+      <c r="AH35" s="122"/>
+      <c r="AI35" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="AJ35" s="127"/>
-      <c r="AK35" s="127"/>
-      <c r="AL35" s="136"/>
-      <c r="AM35" s="28" t="s">
+      <c r="AJ35" s="122"/>
+      <c r="AK35" s="122"/>
+      <c r="AL35" s="131"/>
+      <c r="AM35" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="58" t="s">
+    <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="263" t="s">
+      <c r="B36" s="60"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="257" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="263" t="s">
+      <c r="G36" s="257" t="s">
         <v>75</v>
       </c>
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="152"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="342"/>
-      <c r="Q36" s="143"/>
-      <c r="R36" s="137"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="130"/>
-      <c r="U36" s="130"/>
-      <c r="V36" s="130"/>
-      <c r="W36" s="121"/>
-      <c r="X36" s="137"/>
-      <c r="Y36" s="137"/>
-      <c r="Z36" s="130"/>
-      <c r="AA36" s="125"/>
-      <c r="AB36" s="125"/>
-      <c r="AC36" s="125"/>
-      <c r="AD36" s="118"/>
-      <c r="AE36" s="360"/>
-      <c r="AF36" s="152"/>
-      <c r="AG36" s="147"/>
-      <c r="AH36" s="147"/>
-      <c r="AI36" s="147"/>
-      <c r="AJ36" s="130"/>
-      <c r="AK36" s="147"/>
-      <c r="AL36" s="147"/>
-      <c r="AM36" s="30" t="s">
+      <c r="I36" s="147"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="125"/>
+      <c r="N36" s="125"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="330"/>
+      <c r="Q36" s="138"/>
+      <c r="R36" s="132"/>
+      <c r="S36" s="142"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="125"/>
+      <c r="V36" s="125"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="132"/>
+      <c r="Y36" s="132"/>
+      <c r="Z36" s="125"/>
+      <c r="AA36" s="120"/>
+      <c r="AB36" s="120"/>
+      <c r="AC36" s="120"/>
+      <c r="AD36" s="113"/>
+      <c r="AE36" s="330"/>
+      <c r="AF36" s="147"/>
+      <c r="AG36" s="142"/>
+      <c r="AH36" s="142"/>
+      <c r="AI36" s="142"/>
+      <c r="AJ36" s="125"/>
+      <c r="AK36" s="142"/>
+      <c r="AL36" s="142"/>
+      <c r="AM36" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="145" t="s">
+      <c r="B37" s="60"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="K37" s="264" t="s">
+      <c r="K37" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="L37" s="264" t="s">
+      <c r="L37" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="M37" s="264" t="s">
+      <c r="M37" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="N37" s="264" t="s">
+      <c r="N37" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="O37" s="122"/>
-      <c r="P37" s="344"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="268" t="s">
+      <c r="O37" s="117"/>
+      <c r="P37" s="332"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="262" t="s">
         <v>75</v>
       </c>
-      <c r="T37" s="264" t="s">
+      <c r="T37" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="U37" s="264" t="s">
+      <c r="U37" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="V37" s="264" t="s">
+      <c r="V37" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="W37" s="265" t="s">
+      <c r="W37" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="X37" s="266" t="s">
+      <c r="X37" s="260" t="s">
         <v>76</v>
       </c>
-      <c r="Y37" s="266" t="s">
+      <c r="Y37" s="260" t="s">
         <v>76</v>
       </c>
-      <c r="Z37" s="267" t="s">
+      <c r="Z37" s="261" t="s">
         <v>76</v>
       </c>
-      <c r="AA37" s="267" t="s">
+      <c r="AA37" s="261" t="s">
         <v>76</v>
       </c>
-      <c r="AB37" s="125" t="s">
+      <c r="AB37" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="AC37" s="336" t="s">
+      <c r="AC37" s="327" t="s">
         <v>75</v>
       </c>
-      <c r="AD37" s="337" t="s">
+      <c r="AD37" s="328" t="s">
         <v>75</v>
       </c>
-      <c r="AE37" s="348"/>
-      <c r="AF37" s="153"/>
-      <c r="AG37" s="145"/>
-      <c r="AH37" s="145"/>
-      <c r="AI37" s="145"/>
-      <c r="AJ37" s="85"/>
-      <c r="AK37" s="145"/>
-      <c r="AL37" s="145"/>
-      <c r="AM37" s="29" t="s">
+      <c r="AE37" s="332"/>
+      <c r="AF37" s="148"/>
+      <c r="AG37" s="140"/>
+      <c r="AH37" s="140"/>
+      <c r="AI37" s="140"/>
+      <c r="AJ37" s="80"/>
+      <c r="AK37" s="140"/>
+      <c r="AL37" s="140"/>
+      <c r="AM37" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="50" t="s">
+    <row r="38" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="366" t="s">
+      <c r="B38" s="347" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="367" t="s">
+      <c r="C38" s="348" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="269" t="s">
+      <c r="D38" s="263" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="269" t="s">
+      <c r="E38" s="263" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="269" t="s">
+      <c r="F38" s="263" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="269" t="s">
+      <c r="G38" s="263" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="301"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="344"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="145"/>
-      <c r="S38" s="145"/>
-      <c r="T38" s="145"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="145"/>
-      <c r="Y38" s="145"/>
-      <c r="Z38" s="145"/>
-      <c r="AA38" s="85"/>
-      <c r="AB38" s="114"/>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="120"/>
-      <c r="AE38" s="344"/>
-      <c r="AF38" s="153"/>
-      <c r="AG38" s="145"/>
-      <c r="AH38" s="145"/>
-      <c r="AI38" s="145"/>
-      <c r="AJ38" s="85"/>
-      <c r="AK38" s="145"/>
-      <c r="AL38" s="191"/>
-      <c r="AM38" s="60" t="s">
+      <c r="H38" s="293"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="332"/>
+      <c r="Q38" s="148"/>
+      <c r="R38" s="140"/>
+      <c r="S38" s="140"/>
+      <c r="T38" s="140"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="140"/>
+      <c r="Y38" s="140"/>
+      <c r="Z38" s="140"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="80"/>
+      <c r="AD38" s="115"/>
+      <c r="AE38" s="332"/>
+      <c r="AF38" s="148"/>
+      <c r="AG38" s="140"/>
+      <c r="AH38" s="140"/>
+      <c r="AI38" s="140"/>
+      <c r="AJ38" s="80"/>
+      <c r="AK38" s="140"/>
+      <c r="AL38" s="186"/>
+      <c r="AM38" s="56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="50" t="s">
+    <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="368" t="s">
+      <c r="B39" s="63"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="349" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="368" t="s">
+      <c r="E39" s="349" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="145"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="122"/>
-      <c r="P39" s="344"/>
-      <c r="Q39" s="153"/>
-      <c r="R39" s="145"/>
-      <c r="S39" s="145"/>
-      <c r="T39" s="145"/>
-      <c r="U39" s="85"/>
-      <c r="V39" s="85"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="145"/>
-      <c r="Y39" s="145"/>
-      <c r="Z39" s="145"/>
-      <c r="AA39" s="85"/>
-      <c r="AB39" s="114"/>
-      <c r="AC39" s="85"/>
-      <c r="AD39" s="120"/>
-      <c r="AE39" s="344"/>
-      <c r="AF39" s="153"/>
-      <c r="AG39" s="145"/>
-      <c r="AH39" s="145"/>
-      <c r="AI39" s="145"/>
-      <c r="AJ39" s="85"/>
-      <c r="AK39" s="145"/>
-      <c r="AL39" s="191"/>
-    </row>
-    <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="50" t="s">
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="332"/>
+      <c r="Q39" s="148"/>
+      <c r="R39" s="140"/>
+      <c r="S39" s="140"/>
+      <c r="T39" s="140"/>
+      <c r="U39" s="80"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="117"/>
+      <c r="X39" s="140"/>
+      <c r="Y39" s="140"/>
+      <c r="Z39" s="140"/>
+      <c r="AA39" s="80"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="80"/>
+      <c r="AD39" s="115"/>
+      <c r="AE39" s="332"/>
+      <c r="AF39" s="148"/>
+      <c r="AG39" s="140"/>
+      <c r="AH39" s="140"/>
+      <c r="AI39" s="140"/>
+      <c r="AJ39" s="80"/>
+      <c r="AK39" s="140"/>
+      <c r="AL39" s="186"/>
+    </row>
+    <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="364"/>
-      <c r="G40" s="365"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="145"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="344"/>
-      <c r="Q40" s="153"/>
-      <c r="R40" s="145"/>
-      <c r="S40" s="145"/>
-      <c r="T40" s="145"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="85"/>
-      <c r="W40" s="122"/>
-      <c r="X40" s="145"/>
-      <c r="Y40" s="145"/>
-      <c r="Z40" s="145"/>
-      <c r="AA40" s="85"/>
-      <c r="AB40" s="130"/>
-      <c r="AC40" s="298"/>
-      <c r="AD40" s="299"/>
-      <c r="AE40" s="348"/>
-      <c r="AF40" s="153"/>
-      <c r="AG40" s="145"/>
-      <c r="AH40" s="145"/>
-      <c r="AI40" s="145"/>
-      <c r="AJ40" s="85"/>
-      <c r="AK40" s="145"/>
-      <c r="AL40" s="145"/>
-    </row>
-    <row r="41" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="51" t="s">
+      <c r="B40" s="98"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="345"/>
+      <c r="G40" s="346"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="332"/>
+      <c r="Q40" s="148"/>
+      <c r="R40" s="140"/>
+      <c r="S40" s="140"/>
+      <c r="T40" s="140"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="117"/>
+      <c r="X40" s="140"/>
+      <c r="Y40" s="140"/>
+      <c r="Z40" s="140"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="125"/>
+      <c r="AC40" s="80"/>
+      <c r="AD40" s="115"/>
+      <c r="AE40" s="332"/>
+      <c r="AF40" s="148"/>
+      <c r="AG40" s="140"/>
+      <c r="AH40" s="140"/>
+      <c r="AI40" s="140"/>
+      <c r="AJ40" s="80"/>
+      <c r="AK40" s="140"/>
+      <c r="AL40" s="140"/>
+    </row>
+    <row r="41" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="131"/>
-      <c r="N41" s="131"/>
-      <c r="O41" s="174" t="s">
+      <c r="B41" s="64"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="126"/>
+      <c r="M41" s="126"/>
+      <c r="N41" s="126"/>
+      <c r="O41" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="P41" s="346"/>
-      <c r="Q41" s="144"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="165"/>
-      <c r="U41" s="169"/>
-      <c r="V41" s="169"/>
-      <c r="W41" s="183"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="270" t="s">
+      <c r="P41" s="334"/>
+      <c r="Q41" s="139"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="160"/>
+      <c r="U41" s="164"/>
+      <c r="V41" s="164"/>
+      <c r="W41" s="178"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="AA41" s="271" t="s">
+      <c r="AA41" s="265" t="s">
         <v>75</v>
       </c>
-      <c r="AB41" s="87"/>
-      <c r="AC41" s="271" t="s">
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="265" t="s">
         <v>75</v>
       </c>
-      <c r="AD41" s="272" t="s">
+      <c r="AD41" s="266" t="s">
         <v>75</v>
       </c>
-      <c r="AE41" s="361"/>
-      <c r="AF41" s="144"/>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="87"/>
-      <c r="AI41" s="73"/>
-      <c r="AJ41" s="87"/>
-      <c r="AK41" s="87"/>
-      <c r="AL41" s="73"/>
-    </row>
-    <row r="42" spans="1:39" ht="22.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="53" t="s">
+      <c r="AE41" s="333"/>
+      <c r="AF41" s="139"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="82"/>
+      <c r="AK41" s="82"/>
+      <c r="AL41" s="68"/>
+    </row>
+    <row r="42" spans="1:39" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="140"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="308" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="109"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="135"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="121"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="109"/>
+      <c r="U42" s="300" t="s">
         <v>72</v>
       </c>
-      <c r="V42" s="309" t="s">
+      <c r="V42" s="301" t="s">
         <v>72</v>
       </c>
-      <c r="W42" s="310" t="s">
+      <c r="W42" s="302" t="s">
         <v>72</v>
       </c>
-      <c r="X42" s="126"/>
-      <c r="Y42" s="126"/>
-      <c r="Z42" s="323" t="s">
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="Z42" s="315" t="s">
         <v>68</v>
       </c>
-      <c r="AA42" s="323" t="s">
+      <c r="AA42" s="315" t="s">
         <v>68</v>
       </c>
-      <c r="AB42" s="323" t="s">
+      <c r="AB42" s="315" t="s">
         <v>68</v>
       </c>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="120"/>
-      <c r="AE42" s="140"/>
-      <c r="AF42" s="71"/>
-      <c r="AG42" s="126"/>
-      <c r="AH42" s="114"/>
-      <c r="AI42" s="114"/>
-      <c r="AJ42" s="323" t="s">
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="115"/>
+      <c r="AE42" s="135"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="121"/>
+      <c r="AH42" s="109"/>
+      <c r="AI42" s="109"/>
+      <c r="AJ42" s="315" t="s">
         <v>77</v>
       </c>
-      <c r="AK42" s="323" t="s">
+      <c r="AK42" s="315" t="s">
         <v>77</v>
       </c>
-      <c r="AL42" s="324" t="s">
+      <c r="AL42" s="316" t="s">
         <v>77</v>
       </c>
       <c r="AM42" s="24"/>
     </row>
-    <row r="43" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="50" t="s">
+    <row r="43" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="305" t="s">
+      <c r="B43" s="99"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="297" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="305" t="s">
+      <c r="E43" s="297" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="305" t="s">
+      <c r="F43" s="297" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="305" t="s">
+      <c r="G43" s="297" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="306" t="s">
+      <c r="H43" s="104"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="298" t="s">
         <v>68</v>
       </c>
-      <c r="O43" s="307" t="s">
+      <c r="O43" s="299" t="s">
         <v>68</v>
       </c>
-      <c r="P43" s="348"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="145"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="166"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="145"/>
-      <c r="Y43" s="145"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="85"/>
-      <c r="AC43" s="85"/>
-      <c r="AD43" s="122"/>
-      <c r="AE43" s="344"/>
-      <c r="AF43" s="71"/>
-      <c r="AG43" s="126"/>
-      <c r="AH43" s="114"/>
-      <c r="AI43" s="85"/>
-      <c r="AJ43" s="85"/>
-      <c r="AK43" s="85"/>
-      <c r="AL43" s="145"/>
+      <c r="P43" s="332"/>
+      <c r="Q43" s="148"/>
+      <c r="R43" s="140"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="161"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="109"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="140"/>
+      <c r="Y43" s="140"/>
+      <c r="Z43" s="80"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="80"/>
+      <c r="AC43" s="80"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="332"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="121"/>
+      <c r="AH43" s="109"/>
+      <c r="AI43" s="80"/>
+      <c r="AJ43" s="80"/>
+      <c r="AK43" s="80"/>
+      <c r="AL43" s="140"/>
       <c r="AM43" s="24"/>
     </row>
-    <row r="44" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="50" t="s">
+    <row r="44" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="82" t="s">
+      <c r="F44" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="82" t="s">
+      <c r="G44" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="109"/>
-      <c r="I44" s="153" t="s">
+      <c r="H44" s="104"/>
+      <c r="I44" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="145" t="s">
+      <c r="J44" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="K44" s="85" t="s">
+      <c r="K44" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="L44" s="85" t="s">
+      <c r="L44" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="M44" s="85" t="s">
+      <c r="M44" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="N44" s="85" t="s">
+      <c r="N44" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="O44" s="122" t="s">
+      <c r="O44" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="P44" s="344"/>
-      <c r="Q44" s="153"/>
-      <c r="R44" s="145"/>
-      <c r="S44" s="85" t="s">
+      <c r="P44" s="332"/>
+      <c r="Q44" s="148"/>
+      <c r="R44" s="140"/>
+      <c r="S44" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="T44" s="85" t="s">
+      <c r="T44" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="U44" s="306" t="s">
+      <c r="U44" s="298" t="s">
         <v>72</v>
       </c>
-      <c r="V44" s="311" t="s">
+      <c r="V44" s="303" t="s">
         <v>72</v>
       </c>
-      <c r="W44" s="307" t="s">
+      <c r="W44" s="299" t="s">
         <v>72</v>
       </c>
-      <c r="X44" s="145" t="s">
+      <c r="X44" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="Y44" s="145" t="s">
+      <c r="Y44" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="Z44" s="85" t="s">
+      <c r="Z44" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="AA44" s="85" t="s">
+      <c r="AA44" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="AB44" s="85" t="s">
+      <c r="AB44" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="AC44" s="85"/>
-      <c r="AD44" s="122"/>
-      <c r="AE44" s="344"/>
-      <c r="AF44" s="71"/>
-      <c r="AG44" s="126"/>
-      <c r="AH44" s="114"/>
-      <c r="AI44" s="85"/>
-      <c r="AJ44" s="85"/>
-      <c r="AK44" s="85"/>
-      <c r="AL44" s="145"/>
+      <c r="AC44" s="80"/>
+      <c r="AD44" s="117"/>
+      <c r="AE44" s="332"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="121"/>
+      <c r="AH44" s="109"/>
+      <c r="AI44" s="80"/>
+      <c r="AJ44" s="80"/>
+      <c r="AK44" s="80"/>
+      <c r="AL44" s="140"/>
       <c r="AM44" s="24"/>
     </row>
-    <row r="45" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="51" t="s">
+    <row r="45" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="315" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="307" t="s">
         <v>77</v>
       </c>
-      <c r="J45" s="316" t="s">
+      <c r="J45" s="308" t="s">
         <v>77</v>
       </c>
-      <c r="K45" s="306" t="s">
+      <c r="K45" s="298" t="s">
         <v>77</v>
       </c>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="122"/>
-      <c r="P45" s="344"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="145"/>
-      <c r="S45" s="85"/>
-      <c r="T45" s="166"/>
-      <c r="U45" s="85"/>
-      <c r="V45" s="130"/>
-      <c r="W45" s="122"/>
-      <c r="X45" s="145"/>
-      <c r="Y45" s="145"/>
-      <c r="Z45" s="85"/>
-      <c r="AA45" s="85"/>
-      <c r="AB45" s="166"/>
-      <c r="AC45" s="85"/>
-      <c r="AD45" s="122"/>
-      <c r="AE45" s="342"/>
-      <c r="AF45" s="152"/>
-      <c r="AG45" s="147"/>
-      <c r="AH45" s="130"/>
-      <c r="AI45" s="85"/>
-      <c r="AJ45" s="85"/>
-      <c r="AK45" s="85"/>
-      <c r="AL45" s="145"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="332"/>
+      <c r="Q45" s="148"/>
+      <c r="R45" s="140"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="161"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="125"/>
+      <c r="W45" s="117"/>
+      <c r="X45" s="140"/>
+      <c r="Y45" s="140"/>
+      <c r="Z45" s="80"/>
+      <c r="AA45" s="80"/>
+      <c r="AB45" s="161"/>
+      <c r="AC45" s="80"/>
+      <c r="AD45" s="117"/>
+      <c r="AE45" s="330"/>
+      <c r="AF45" s="147"/>
+      <c r="AG45" s="142"/>
+      <c r="AH45" s="125"/>
+      <c r="AI45" s="80"/>
+      <c r="AJ45" s="80"/>
+      <c r="AK45" s="80"/>
+      <c r="AL45" s="140"/>
       <c r="AM45" s="24"/>
     </row>
-    <row r="46" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="52" t="s">
+    <row r="46" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="76" t="s">
+      <c r="B46" s="60"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="76" t="s">
+      <c r="E46" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="76" t="s">
+      <c r="F46" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="76"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="127"/>
-      <c r="L46" s="127" t="s">
+      <c r="G46" s="71"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="M46" s="127" t="s">
+      <c r="M46" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="N46" s="127" t="s">
+      <c r="N46" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="O46" s="123" t="s">
+      <c r="O46" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="P46" s="138"/>
-      <c r="Q46" s="149"/>
-      <c r="R46" s="136"/>
-      <c r="S46" s="127"/>
-      <c r="T46" s="127" t="s">
+      <c r="P46" s="133"/>
+      <c r="Q46" s="144"/>
+      <c r="R46" s="131"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="U46" s="127" t="s">
+      <c r="U46" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="127" t="s">
+      <c r="V46" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="W46" s="123" t="s">
+      <c r="W46" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="X46" s="136"/>
-      <c r="Y46" s="181"/>
-      <c r="Z46" s="127" t="s">
+      <c r="X46" s="131"/>
+      <c r="Y46" s="176"/>
+      <c r="Z46" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="AA46" s="127" t="s">
+      <c r="AA46" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="AB46" s="127" t="s">
+      <c r="AB46" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="AC46" s="127" t="s">
+      <c r="AC46" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="AD46" s="123" t="s">
+      <c r="AD46" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="AE46" s="138"/>
-      <c r="AF46" s="149"/>
-      <c r="AG46" s="136"/>
-      <c r="AH46" s="127" t="s">
+      <c r="AE46" s="133"/>
+      <c r="AF46" s="144"/>
+      <c r="AG46" s="131"/>
+      <c r="AH46" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="AI46" s="127" t="s">
+      <c r="AI46" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="AJ46" s="127" t="s">
+      <c r="AJ46" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="AK46" s="127" t="s">
+      <c r="AK46" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="AL46" s="136"/>
-    </row>
-    <row r="47" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="48" t="s">
+      <c r="AL46" s="131"/>
+    </row>
+    <row r="47" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="140"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="114"/>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114" t="s">
+      <c r="B47" s="63"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="121"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="109"/>
+      <c r="M47" s="109"/>
+      <c r="N47" s="109"/>
+      <c r="O47" s="115"/>
+      <c r="P47" s="135"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="121"/>
+      <c r="S47" s="109"/>
+      <c r="T47" s="109"/>
+      <c r="U47" s="109"/>
+      <c r="V47" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="W47" s="120" t="s">
+      <c r="W47" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="X47" s="126"/>
-      <c r="Y47" s="126"/>
-      <c r="Z47" s="114"/>
-      <c r="AA47" s="114"/>
-      <c r="AB47" s="114"/>
-      <c r="AC47" s="114"/>
-      <c r="AD47" s="120"/>
-      <c r="AE47" s="140"/>
-      <c r="AF47" s="71"/>
-      <c r="AG47" s="126"/>
-      <c r="AH47" s="114"/>
-      <c r="AI47" s="114"/>
-      <c r="AJ47" s="114"/>
-      <c r="AK47" s="114"/>
-      <c r="AL47" s="126"/>
-    </row>
-    <row r="48" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X47" s="121"/>
+      <c r="Y47" s="121"/>
+      <c r="Z47" s="109"/>
+      <c r="AA47" s="109"/>
+      <c r="AB47" s="109"/>
+      <c r="AC47" s="109"/>
+      <c r="AD47" s="115"/>
+      <c r="AE47" s="135"/>
+      <c r="AF47" s="66"/>
+      <c r="AG47" s="121"/>
+      <c r="AH47" s="109"/>
+      <c r="AI47" s="109"/>
+      <c r="AJ47" s="109"/>
+      <c r="AK47" s="109"/>
+      <c r="AL47" s="121"/>
+    </row>
+    <row r="48" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="90" t="s">
+      <c r="B48" s="99"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="87" t="s">
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="139"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="L48" s="87" t="s">
+      <c r="L48" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="M48" s="87" t="s">
+      <c r="M48" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="N48" s="87" t="s">
+      <c r="N48" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="O48" s="119" t="s">
+      <c r="O48" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="P48" s="343"/>
-      <c r="Q48" s="144"/>
-      <c r="R48" s="73"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="87" t="s">
+      <c r="P48" s="331"/>
+      <c r="Q48" s="139"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="V48" s="87" t="s">
+      <c r="V48" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="W48" s="119" t="s">
+      <c r="W48" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
-      <c r="Z48" s="87"/>
-      <c r="AA48" s="87"/>
-      <c r="AB48" s="87"/>
-      <c r="AC48" s="87"/>
-      <c r="AD48" s="119"/>
-      <c r="AE48" s="343"/>
-      <c r="AF48" s="144"/>
-      <c r="AG48" s="73"/>
-      <c r="AH48" s="87"/>
-      <c r="AI48" s="87"/>
-      <c r="AJ48" s="87"/>
-      <c r="AK48" s="87"/>
-      <c r="AL48" s="73"/>
-    </row>
-    <row r="49" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="41" t="s">
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="82"/>
+      <c r="AB48" s="82"/>
+      <c r="AC48" s="82"/>
+      <c r="AD48" s="114"/>
+      <c r="AE48" s="331"/>
+      <c r="AF48" s="139"/>
+      <c r="AG48" s="68"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="82"/>
+      <c r="AJ48" s="82"/>
+      <c r="AK48" s="82"/>
+      <c r="AL48" s="68"/>
+    </row>
+    <row r="49" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="101" t="s">
+      <c r="C49" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="91" t="s">
+      <c r="D49" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="76" t="s">
+      <c r="E49" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="91" t="s">
+      <c r="F49" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="76" t="s">
+      <c r="G49" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="94"/>
-      <c r="I49" s="149" t="s">
+      <c r="H49" s="89"/>
+      <c r="I49" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="J49" s="138" t="s">
+      <c r="J49" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="K49" s="127" t="s">
+      <c r="K49" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="L49" s="138" t="s">
+      <c r="L49" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="M49" s="127" t="s">
+      <c r="M49" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="N49" s="127" t="s">
+      <c r="N49" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="O49" s="123" t="s">
+      <c r="O49" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="P49" s="139"/>
-      <c r="Q49" s="294" t="s">
+      <c r="P49" s="134"/>
+      <c r="Q49" s="288" t="s">
         <v>109</v>
       </c>
-      <c r="R49" s="192" t="s">
+      <c r="R49" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="S49" s="295" t="s">
+      <c r="S49" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="T49" s="296" t="s">
+      <c r="T49" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="U49" s="295" t="s">
+      <c r="U49" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="V49" s="296" t="s">
+      <c r="V49" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="W49" s="297" t="s">
+      <c r="W49" s="291" t="s">
         <v>109</v>
       </c>
-      <c r="X49" s="134"/>
-      <c r="Y49" s="134"/>
-      <c r="Z49" s="167"/>
-      <c r="AA49" s="296" t="s">
+      <c r="X49" s="129"/>
+      <c r="Y49" s="129"/>
+      <c r="Z49" s="162"/>
+      <c r="AA49" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="AB49" s="296" t="s">
+      <c r="AB49" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="AC49" s="167" t="s">
+      <c r="AC49" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="AD49" s="184" t="s">
+      <c r="AD49" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="AE49" s="163"/>
-      <c r="AF49" s="294" t="s">
+      <c r="AE49" s="158"/>
+      <c r="AF49" s="288" t="s">
         <v>109</v>
       </c>
-      <c r="AG49" s="192" t="s">
+      <c r="AG49" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="AH49" s="296" t="s">
+      <c r="AH49" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="AI49" s="296" t="s">
+      <c r="AI49" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="AJ49" s="296" t="s">
+      <c r="AJ49" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="AK49" s="296" t="s">
+      <c r="AK49" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="AL49" s="300" t="s">
+      <c r="AL49" s="292" t="s">
         <v>109</v>
       </c>
-      <c r="AM49" s="25"/>
-    </row>
-    <row r="50" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="44" t="s">
+    </row>
+    <row r="50" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="143" t="s">
+      <c r="D50" s="87"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="J50" s="139" t="s">
+      <c r="J50" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K50" s="125" t="s">
+      <c r="K50" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="L50" s="139" t="s">
+      <c r="L50" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="M50" s="125" t="s">
+      <c r="M50" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="N50" s="125"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="139"/>
-      <c r="Q50" s="155"/>
-      <c r="R50" s="134"/>
-      <c r="S50" s="171" t="s">
+      <c r="N50" s="120"/>
+      <c r="O50" s="113"/>
+      <c r="P50" s="134"/>
+      <c r="Q50" s="150"/>
+      <c r="R50" s="129"/>
+      <c r="S50" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="T50" s="168" t="s">
+      <c r="T50" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="U50" s="128"/>
-      <c r="V50" s="171"/>
-      <c r="W50" s="185"/>
-      <c r="X50" s="134" t="s">
+      <c r="U50" s="123"/>
+      <c r="V50" s="166"/>
+      <c r="W50" s="180"/>
+      <c r="X50" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="Y50" s="134" t="s">
+      <c r="Y50" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="Z50" s="171" t="s">
+      <c r="Z50" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="AA50" s="171" t="s">
+      <c r="AA50" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="AB50" s="171" t="s">
+      <c r="AB50" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="AC50" s="171"/>
-      <c r="AD50" s="185"/>
-      <c r="AE50" s="163"/>
-      <c r="AF50" s="155"/>
-      <c r="AG50" s="134"/>
-      <c r="AH50" s="163"/>
-      <c r="AI50" s="171"/>
-      <c r="AJ50" s="171"/>
-      <c r="AK50" s="171"/>
-      <c r="AL50" s="168"/>
-      <c r="AM50" s="45"/>
-    </row>
-    <row r="51" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="56" t="s">
+      <c r="AC50" s="166"/>
+      <c r="AD50" s="180"/>
+      <c r="AE50" s="158"/>
+      <c r="AF50" s="150"/>
+      <c r="AG50" s="129"/>
+      <c r="AH50" s="158"/>
+      <c r="AI50" s="166"/>
+      <c r="AJ50" s="166"/>
+      <c r="AK50" s="166"/>
+      <c r="AL50" s="163"/>
+      <c r="AM50" s="37"/>
+    </row>
+    <row r="51" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="143"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="139"/>
-      <c r="M51" s="125"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="118"/>
-      <c r="P51" s="139"/>
-      <c r="Q51" s="155"/>
-      <c r="R51" s="134"/>
-      <c r="S51" s="171"/>
-      <c r="T51" s="168">
+      <c r="B51" s="101"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="120"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="134"/>
+      <c r="Q51" s="150"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="166"/>
+      <c r="T51" s="163">
         <v>22</v>
       </c>
-      <c r="U51" s="312" t="s">
+      <c r="U51" s="304" t="s">
         <v>72</v>
       </c>
-      <c r="V51" s="313" t="s">
+      <c r="V51" s="305" t="s">
         <v>72</v>
       </c>
-      <c r="W51" s="314" t="s">
+      <c r="W51" s="306" t="s">
         <v>72</v>
       </c>
-      <c r="X51" s="134"/>
-      <c r="Y51" s="134"/>
-      <c r="Z51" s="171"/>
-      <c r="AA51" s="171"/>
-      <c r="AB51" s="171"/>
-      <c r="AC51" s="171"/>
-      <c r="AD51" s="185"/>
-      <c r="AE51" s="163"/>
-      <c r="AF51" s="155"/>
-      <c r="AG51" s="134"/>
-      <c r="AH51" s="163"/>
-      <c r="AI51" s="171"/>
-      <c r="AJ51" s="171" t="s">
+      <c r="X51" s="129"/>
+      <c r="Y51" s="129"/>
+      <c r="Z51" s="166"/>
+      <c r="AA51" s="166"/>
+      <c r="AB51" s="166"/>
+      <c r="AC51" s="166"/>
+      <c r="AD51" s="180"/>
+      <c r="AE51" s="158"/>
+      <c r="AF51" s="150"/>
+      <c r="AG51" s="129"/>
+      <c r="AH51" s="158"/>
+      <c r="AI51" s="166"/>
+      <c r="AJ51" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="AK51" s="171" t="s">
+      <c r="AK51" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="AL51" s="168" t="s">
+      <c r="AL51" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="AM51" s="45"/>
-    </row>
-    <row r="52" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="44" t="s">
+      <c r="AM51" s="37"/>
+    </row>
+    <row r="52" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="106" t="s">
+      <c r="B52" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="92" t="s">
+      <c r="D52" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="76" t="s">
+      <c r="E52" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="76" t="s">
+      <c r="F52" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="76" t="s">
+      <c r="G52" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="94" t="s">
+      <c r="H52" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="143" t="s">
+      <c r="I52" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="J52" s="139" t="s">
+      <c r="J52" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="K52" s="125" t="s">
+      <c r="K52" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="L52" s="139" t="s">
+      <c r="L52" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="139"/>
-      <c r="Q52" s="155" t="s">
+      <c r="M52" s="120"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="134"/>
+      <c r="Q52" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="R52" s="134" t="s">
+      <c r="R52" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="S52" s="171" t="s">
+      <c r="S52" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="T52" s="168" t="s">
+      <c r="T52" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="U52" s="128" t="s">
+      <c r="U52" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="V52" s="171" t="s">
+      <c r="V52" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="W52" s="185" t="s">
+      <c r="W52" s="180" t="s">
         <v>77</v>
       </c>
-      <c r="X52" s="134" t="s">
+      <c r="X52" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="Y52" s="134" t="s">
+      <c r="Y52" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="Z52" s="171" t="s">
+      <c r="Z52" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="AA52" s="171" t="s">
+      <c r="AA52" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="AB52" s="171" t="s">
+      <c r="AB52" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="AC52" s="171" t="s">
+      <c r="AC52" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="AD52" s="185" t="s">
+      <c r="AD52" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="AE52" s="163"/>
-      <c r="AF52" s="155" t="s">
+      <c r="AE52" s="158"/>
+      <c r="AF52" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="AG52" s="134" t="s">
+      <c r="AG52" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="AH52" s="163" t="s">
+      <c r="AH52" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="AI52" s="171" t="s">
+      <c r="AI52" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="AJ52" s="171"/>
-      <c r="AK52" s="171"/>
-      <c r="AL52" s="168"/>
-      <c r="AM52" s="46"/>
-    </row>
-    <row r="53" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ52" s="166"/>
+      <c r="AK52" s="166"/>
+      <c r="AL52" s="163"/>
+      <c r="AM52" s="42"/>
+    </row>
+    <row r="53" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="75" t="s">
+      <c r="D53" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="81" t="s">
+      <c r="E53" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="81" t="s">
+      <c r="F53" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="G53" s="81" t="s">
+      <c r="G53" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="95" t="s">
+      <c r="H53" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="I53" s="71"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="114"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="155"/>
-      <c r="R53" s="134"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="134"/>
-      <c r="U53" s="128"/>
-      <c r="V53" s="128"/>
-      <c r="W53" s="179"/>
-      <c r="X53" s="134" t="s">
+      <c r="I53" s="66"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="109"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="109"/>
+      <c r="N53" s="109"/>
+      <c r="O53" s="115"/>
+      <c r="P53" s="135"/>
+      <c r="Q53" s="150"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="123"/>
+      <c r="T53" s="129"/>
+      <c r="U53" s="123"/>
+      <c r="V53" s="123"/>
+      <c r="W53" s="174"/>
+      <c r="X53" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="Y53" s="134" t="s">
+      <c r="Y53" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="Z53" s="128" t="s">
+      <c r="Z53" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="AA53" s="128" t="s">
+      <c r="AA53" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="AB53" s="128" t="s">
+      <c r="AB53" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="AC53" s="128" t="s">
+      <c r="AC53" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="AD53" s="179" t="s">
+      <c r="AD53" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="AE53" s="159"/>
-      <c r="AF53" s="71"/>
-      <c r="AG53" s="126"/>
-      <c r="AH53" s="159"/>
-      <c r="AI53" s="128"/>
-      <c r="AJ53" s="128"/>
-      <c r="AK53" s="128"/>
-      <c r="AL53" s="134"/>
-      <c r="AM53" s="46"/>
-      <c r="AN53" s="25"/>
-    </row>
-    <row r="54" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AE53" s="154"/>
+      <c r="AF53" s="66"/>
+      <c r="AG53" s="121"/>
+      <c r="AH53" s="154"/>
+      <c r="AI53" s="123"/>
+      <c r="AJ53" s="123"/>
+      <c r="AK53" s="123"/>
+      <c r="AL53" s="129"/>
+      <c r="AM53" s="42"/>
+    </row>
+    <row r="54" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="75" t="s">
+      <c r="D54" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="81" t="s">
+      <c r="E54" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="81" t="s">
+      <c r="F54" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="G54" s="81" t="s">
+      <c r="G54" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="H54" s="95" t="s">
+      <c r="H54" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="I54" s="71" t="s">
+      <c r="I54" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="126" t="s">
+      <c r="J54" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="114" t="s">
+      <c r="K54" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="L54" s="114"/>
-      <c r="M54" s="126"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="120"/>
-      <c r="P54" s="140"/>
-      <c r="Q54" s="155" t="s">
+      <c r="L54" s="109"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="109"/>
+      <c r="O54" s="115"/>
+      <c r="P54" s="135"/>
+      <c r="Q54" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="R54" s="126" t="s">
+      <c r="R54" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="S54" s="134" t="s">
+      <c r="S54" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="T54" s="134" t="s">
+      <c r="T54" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="U54" s="134" t="s">
+      <c r="U54" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="V54" s="128" t="s">
+      <c r="V54" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="W54" s="179" t="s">
+      <c r="W54" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="X54" s="134" t="s">
+      <c r="X54" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="Y54" s="134" t="s">
+      <c r="Y54" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="Z54" s="134" t="s">
+      <c r="Z54" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="AA54" s="128" t="s">
+      <c r="AA54" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="AB54" s="128" t="s">
+      <c r="AB54" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="AC54" s="128" t="s">
+      <c r="AC54" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="AD54" s="179" t="s">
+      <c r="AD54" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="AE54" s="159"/>
-      <c r="AF54" s="155" t="s">
+      <c r="AE54" s="154"/>
+      <c r="AF54" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="AG54" s="134" t="s">
+      <c r="AG54" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="AH54" s="159" t="s">
+      <c r="AH54" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="AI54" s="128" t="s">
+      <c r="AI54" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="AJ54" s="128"/>
-      <c r="AK54" s="134"/>
-      <c r="AL54" s="134"/>
-      <c r="AM54" s="47"/>
-    </row>
-    <row r="55" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="57" t="s">
+      <c r="AJ54" s="123"/>
+      <c r="AK54" s="129"/>
+      <c r="AL54" s="129"/>
+      <c r="AM54" s="43"/>
+    </row>
+    <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="155"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
-      <c r="N55" s="128"/>
-      <c r="O55" s="175"/>
-      <c r="P55" s="347"/>
-      <c r="Q55" s="155"/>
-      <c r="R55" s="134"/>
-      <c r="S55" s="134"/>
-      <c r="T55" s="128"/>
-      <c r="U55" s="134" t="s">
+      <c r="B55" s="63"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="129"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="170"/>
+      <c r="P55" s="335"/>
+      <c r="Q55" s="150"/>
+      <c r="R55" s="129"/>
+      <c r="S55" s="129"/>
+      <c r="T55" s="123"/>
+      <c r="U55" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="V55" s="128" t="s">
+      <c r="V55" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="W55" s="179" t="s">
+      <c r="W55" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="X55" s="134" t="s">
+      <c r="X55" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="Y55" s="134" t="s">
+      <c r="Y55" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="Z55" s="134" t="s">
+      <c r="Z55" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="AA55" s="134" t="s">
+      <c r="AA55" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="AB55" s="81" t="s">
+      <c r="AB55" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="AC55" s="81" t="s">
+      <c r="AC55" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="AD55" s="93"/>
-      <c r="AE55" s="74"/>
-      <c r="AF55" s="155" t="s">
+      <c r="AD55" s="88"/>
+      <c r="AE55" s="69"/>
+      <c r="AF55" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="AG55" s="134" t="s">
+      <c r="AG55" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="AH55" s="128" t="s">
+      <c r="AH55" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="AI55" s="128" t="s">
+      <c r="AI55" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="AJ55" s="128" t="s">
+      <c r="AJ55" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="AK55" s="128"/>
-      <c r="AL55" s="134"/>
-      <c r="AM55" s="25"/>
-    </row>
-    <row r="56" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AK55" s="123"/>
+      <c r="AL55" s="129"/>
+    </row>
+    <row r="56" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="155" t="s">
+      <c r="B56" s="63"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="J56" s="134" t="s">
+      <c r="J56" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="K56" s="200" t="s">
+      <c r="K56" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="L56" s="201" t="s">
+      <c r="L56" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="M56" s="128" t="s">
+      <c r="M56" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="N56" s="128" t="s">
+      <c r="N56" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="O56" s="175" t="s">
+      <c r="O56" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="P56" s="347"/>
-      <c r="Q56" s="155"/>
-      <c r="R56" s="134"/>
-      <c r="S56" s="134" t="s">
+      <c r="P56" s="335"/>
+      <c r="Q56" s="150"/>
+      <c r="R56" s="129"/>
+      <c r="S56" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="T56" s="128" t="s">
+      <c r="T56" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="U56" s="134" t="s">
+      <c r="U56" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="V56" s="128" t="s">
+      <c r="V56" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="W56" s="179" t="s">
+      <c r="W56" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="X56" s="134" t="s">
+      <c r="X56" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="Y56" s="134" t="s">
+      <c r="Y56" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="Z56" s="134" t="s">
+      <c r="Z56" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="AA56" s="134" t="s">
+      <c r="AA56" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="AB56" s="81" t="s">
+      <c r="AB56" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="AC56" s="81" t="s">
+      <c r="AC56" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="AD56" s="93"/>
-      <c r="AE56" s="353"/>
-      <c r="AF56" s="180" t="s">
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="338"/>
+      <c r="AF56" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="AG56" s="134" t="s">
+      <c r="AG56" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="AH56" s="134" t="s">
+      <c r="AH56" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="AI56" s="168" t="s">
+      <c r="AI56" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="AJ56" s="168" t="s">
+      <c r="AJ56" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="AK56" s="168" t="s">
+      <c r="AK56" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="AL56" s="168"/>
-      <c r="AM56" s="25"/>
-    </row>
-    <row r="57" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL56" s="163"/>
+    </row>
+    <row r="57" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="128"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="141"/>
-      <c r="N57" s="128"/>
-      <c r="O57" s="175"/>
-      <c r="P57" s="347"/>
-      <c r="Q57" s="155" t="s">
+      <c r="B57" s="63"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="123"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="123"/>
+      <c r="O57" s="170"/>
+      <c r="P57" s="335"/>
+      <c r="Q57" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="R57" s="134" t="s">
+      <c r="R57" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="S57" s="134" t="s">
+      <c r="S57" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="T57" s="128" t="s">
+      <c r="T57" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="U57" s="134" t="s">
+      <c r="U57" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="V57" s="128" t="s">
+      <c r="V57" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="W57" s="179" t="s">
+      <c r="W57" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="X57" s="134"/>
-      <c r="Y57" s="134"/>
-      <c r="Z57" s="134"/>
-      <c r="AA57" s="134"/>
-      <c r="AB57" s="81"/>
-      <c r="AC57" s="81"/>
-      <c r="AD57" s="93"/>
-      <c r="AE57" s="353"/>
-      <c r="AF57" s="180" t="s">
+      <c r="X57" s="129"/>
+      <c r="Y57" s="129"/>
+      <c r="Z57" s="129"/>
+      <c r="AA57" s="129"/>
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="76"/>
+      <c r="AD57" s="88"/>
+      <c r="AE57" s="338"/>
+      <c r="AF57" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="AG57" s="134" t="s">
+      <c r="AG57" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="AH57" s="134" t="s">
+      <c r="AH57" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="AI57" s="168" t="s">
+      <c r="AI57" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="AJ57" s="168" t="s">
+      <c r="AJ57" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="AK57" s="168" t="s">
+      <c r="AK57" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="AL57" s="168" t="s">
+      <c r="AL57" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="AM57" s="25"/>
-    </row>
-    <row r="58" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="409" t="s">
+      <c r="B58" s="374" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="410" t="s">
+      <c r="C58" s="375" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="411" t="s">
+      <c r="D58" s="376" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="412" t="s">
+      <c r="E58" s="377" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="413" t="s">
+      <c r="F58" s="378" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="412" t="s">
+      <c r="G58" s="377" t="s">
         <v>70</v>
       </c>
-      <c r="H58" s="414"/>
-      <c r="I58" s="415" t="s">
+      <c r="H58" s="379"/>
+      <c r="I58" s="380" t="s">
         <v>70</v>
       </c>
-      <c r="J58" s="416" t="s">
+      <c r="J58" s="381" t="s">
         <v>70</v>
       </c>
-      <c r="K58" s="412" t="s">
+      <c r="K58" s="377" t="s">
         <v>70</v>
       </c>
-      <c r="L58" s="417" t="s">
+      <c r="L58" s="382" t="s">
         <v>70</v>
       </c>
-      <c r="M58" s="141"/>
-      <c r="N58" s="128"/>
-      <c r="O58" s="120"/>
-      <c r="P58" s="140"/>
-      <c r="Q58" s="396" t="s">
+      <c r="M58" s="136"/>
+      <c r="N58" s="123"/>
+      <c r="O58" s="115"/>
+      <c r="P58" s="135"/>
+      <c r="Q58" s="361" t="s">
         <v>70</v>
       </c>
-      <c r="R58" s="397" t="s">
+      <c r="R58" s="362" t="s">
         <v>70</v>
       </c>
-      <c r="S58" s="398" t="s">
+      <c r="S58" s="363" t="s">
         <v>70</v>
       </c>
-      <c r="T58" s="398" t="s">
+      <c r="T58" s="363" t="s">
         <v>70</v>
       </c>
-      <c r="U58" s="398" t="s">
+      <c r="U58" s="363" t="s">
         <v>70</v>
       </c>
-      <c r="V58" s="398" t="s">
+      <c r="V58" s="363" t="s">
         <v>70</v>
       </c>
-      <c r="W58" s="399" t="s">
+      <c r="W58" s="364" t="s">
         <v>70</v>
       </c>
-      <c r="X58" s="400" t="s">
+      <c r="X58" s="365" t="s">
         <v>85</v>
       </c>
-      <c r="Y58" s="400" t="s">
+      <c r="Y58" s="365" t="s">
         <v>85</v>
       </c>
-      <c r="Z58" s="401" t="s">
+      <c r="Z58" s="366" t="s">
         <v>85</v>
       </c>
-      <c r="AA58" s="401" t="s">
+      <c r="AA58" s="366" t="s">
         <v>85</v>
       </c>
-      <c r="AB58" s="401" t="s">
+      <c r="AB58" s="366" t="s">
         <v>85</v>
       </c>
-      <c r="AC58" s="401" t="s">
+      <c r="AC58" s="366" t="s">
         <v>85</v>
       </c>
-      <c r="AD58" s="402" t="s">
+      <c r="AD58" s="367" t="s">
         <v>85</v>
       </c>
-      <c r="AE58" s="403"/>
-      <c r="AF58" s="404" t="s">
+      <c r="AE58" s="368"/>
+      <c r="AF58" s="369" t="s">
         <v>85</v>
       </c>
-      <c r="AG58" s="405" t="s">
+      <c r="AG58" s="370" t="s">
         <v>85</v>
       </c>
-      <c r="AH58" s="406" t="s">
+      <c r="AH58" s="371" t="s">
         <v>85</v>
       </c>
-      <c r="AI58" s="407" t="s">
+      <c r="AI58" s="372" t="s">
         <v>85</v>
       </c>
-      <c r="AJ58" s="407" t="s">
+      <c r="AJ58" s="372" t="s">
         <v>85</v>
       </c>
-      <c r="AK58" s="407" t="s">
+      <c r="AK58" s="372" t="s">
         <v>85</v>
       </c>
-      <c r="AL58" s="408" t="s">
+      <c r="AL58" s="373" t="s">
         <v>85</v>
       </c>
-      <c r="AM58" s="26"/>
-    </row>
-    <row r="59" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="61"/>
-      <c r="AB59" s="61"/>
-      <c r="AC59" s="61"/>
-      <c r="AD59" s="61"/>
-      <c r="AE59" s="61"/>
-      <c r="AF59" s="61"/>
-      <c r="AG59" s="61"/>
-      <c r="AH59" s="61"/>
-      <c r="AI59" s="61"/>
-      <c r="AJ59" s="61"/>
-      <c r="AK59" s="61"/>
-      <c r="AL59" s="61"/>
-    </row>
-    <row r="60" spans="1:40" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AM58" s="25"/>
+    </row>
+    <row r="59" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:39" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="369" t="s">
+      <c r="B60" s="393" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="370"/>
-      <c r="D60" s="370"/>
-      <c r="E60" s="370"/>
-      <c r="F60" s="370"/>
-      <c r="G60" s="370"/>
-      <c r="H60" s="372"/>
-      <c r="I60" s="369" t="s">
+      <c r="C60" s="394"/>
+      <c r="D60" s="394"/>
+      <c r="E60" s="394"/>
+      <c r="F60" s="394"/>
+      <c r="G60" s="394"/>
+      <c r="H60" s="396"/>
+      <c r="I60" s="393" t="s">
         <v>90</v>
       </c>
-      <c r="J60" s="370"/>
-      <c r="K60" s="370"/>
-      <c r="L60" s="370"/>
-      <c r="M60" s="370"/>
-      <c r="N60" s="370"/>
-      <c r="O60" s="372"/>
-      <c r="P60" s="195"/>
-      <c r="Q60" s="369" t="s">
+      <c r="J60" s="394"/>
+      <c r="K60" s="394"/>
+      <c r="L60" s="394"/>
+      <c r="M60" s="394"/>
+      <c r="N60" s="394"/>
+      <c r="O60" s="396"/>
+      <c r="P60" s="190"/>
+      <c r="Q60" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="R60" s="370"/>
-      <c r="S60" s="370"/>
-      <c r="T60" s="370"/>
-      <c r="U60" s="370"/>
-      <c r="V60" s="370"/>
-      <c r="W60" s="372"/>
-      <c r="X60" s="369" t="s">
+      <c r="R60" s="394"/>
+      <c r="S60" s="394"/>
+      <c r="T60" s="394"/>
+      <c r="U60" s="394"/>
+      <c r="V60" s="394"/>
+      <c r="W60" s="396"/>
+      <c r="X60" s="393" t="s">
         <v>92</v>
       </c>
-      <c r="Y60" s="370"/>
-      <c r="Z60" s="370"/>
-      <c r="AA60" s="370"/>
-      <c r="AB60" s="370"/>
-      <c r="AC60" s="370"/>
-      <c r="AD60" s="372"/>
-      <c r="AE60" s="195"/>
-      <c r="AF60" s="369" t="s">
+      <c r="Y60" s="394"/>
+      <c r="Z60" s="394"/>
+      <c r="AA60" s="394"/>
+      <c r="AB60" s="394"/>
+      <c r="AC60" s="394"/>
+      <c r="AD60" s="396"/>
+      <c r="AE60" s="190"/>
+      <c r="AF60" s="393" t="s">
         <v>93</v>
       </c>
-      <c r="AG60" s="370"/>
-      <c r="AH60" s="370"/>
-      <c r="AI60" s="370"/>
-      <c r="AJ60" s="370"/>
-      <c r="AK60" s="370"/>
-      <c r="AL60" s="371"/>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
+      <c r="AG60" s="394"/>
+      <c r="AH60" s="394"/>
+      <c r="AI60" s="394"/>
+      <c r="AJ60" s="394"/>
+      <c r="AK60" s="394"/>
+      <c r="AL60" s="395"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AF60:AL60"/>
+    <mergeCell ref="X60:AD60"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I60:O60"/>
+    <mergeCell ref="Q60:W60"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="Q2:W2"/>
     <mergeCell ref="AF2:AL2"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="AF60:AL60"/>
-    <mergeCell ref="X60:AD60"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I60:O60"/>
-    <mergeCell ref="Q60:W60"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8156,29 +8050,29 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="54"/>
-    <col min="2" max="2" width="16.453125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" style="54" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="54"/>
+    <col min="1" max="1" width="8.6640625" style="50"/>
+    <col min="2" max="2" width="16.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="50" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="383" t="s">
+    <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="397" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-    </row>
-    <row r="2" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="224"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+    </row>
+    <row r="2" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="218"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="42"/>
+    <row r="3" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="39"/>
       <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
@@ -8186,13 +8080,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="226"/>
+    <row r="4" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="220"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="227"/>
+    <row r="5" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="221"/>
       <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
@@ -8200,13 +8094,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="224"/>
+    <row r="6" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="218"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="32"/>
+    <row r="7" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="30"/>
       <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
@@ -8214,26 +8108,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="224"/>
+    <row r="8" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="218"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="33"/>
-      <c r="C9" s="228" t="s">
+    <row r="9" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="31"/>
+      <c r="C9" s="222" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="224"/>
+    <row r="10" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="218"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
         <v>19</v>
@@ -8242,13 +8136,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="229"/>
-      <c r="C12" s="230"/>
+    <row r="12" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="223"/>
+      <c r="C12" s="224"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="55"/>
+    <row r="13" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="51"/>
       <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
@@ -8256,13 +8150,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="225"/>
+    <row r="14" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="219"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="34"/>
+    <row r="15" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
       <c r="C15" s="16" t="s">
         <v>19</v>
       </c>
@@ -8270,13 +8164,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="224"/>
+    <row r="16" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="218"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="43"/>
+    <row r="17" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="40"/>
       <c r="C17" s="16" t="s">
         <v>19</v>
       </c>
@@ -8284,12 +8178,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="224"/>
+    <row r="18" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="218"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="16" t="s">
         <v>19</v>
@@ -8298,13 +8192,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="224"/>
+    <row r="20" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="218"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="38"/>
+    <row r="21" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
       <c r="C21" s="16" t="s">
         <v>19</v>
       </c>
@@ -8312,12 +8206,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="224"/>
+    <row r="22" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="218"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
       <c r="C23" s="16" t="s">
         <v>19</v>
@@ -8326,12 +8220,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="224"/>
+    <row r="24" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="218"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="16" t="s">
         <v>19</v>
@@ -8340,12 +8234,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="224"/>
-      <c r="C26" s="224"/>
+    <row r="26" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="16" t="s">
         <v>19</v>
@@ -8354,13 +8248,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="224"/>
-      <c r="C28" s="224"/>
-      <c r="D28" s="224"/>
-    </row>
-    <row r="29" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="35"/>
+    <row r="28" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="218"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+    </row>
+    <row r="29" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
       <c r="C29" s="16" t="s">
         <v>19</v>
       </c>
@@ -8368,12 +8262,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="224"/>
-      <c r="C30" s="224"/>
+    <row r="30" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="218"/>
+      <c r="C30" s="218"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="16" t="s">
         <v>19</v>
@@ -8382,13 +8276,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
-    </row>
-    <row r="33" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="36"/>
+    <row r="32" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="218"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+    </row>
+    <row r="33" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="34"/>
       <c r="C33" s="16" t="s">
         <v>19</v>
       </c>
@@ -8396,13 +8290,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="224"/>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
-    </row>
-    <row r="35" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="231"/>
+    <row r="34" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="218"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+    </row>
+    <row r="35" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="225"/>
       <c r="C35" s="16" t="s">
         <v>19</v>
       </c>

--- a/converter/data/xlsx/12.9.B_SMJENA (6).XLSX
+++ b/converter/data/xlsx/12.9.B_SMJENA (6).XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dar0/projects/OBSKC-Raspored-Sati/converter/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9662C-D61A-114D-A000-D57D74F6B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2ABD9-5239-4F22-8C2D-901EB360E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="41060" windowHeight="30220" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -1902,7 +1902,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,11 +1946,15 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1958,7 +1962,8 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1967,6 +1972,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1986,6 +1992,9 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2343,12 +2352,12 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2382,8 +2391,9 @@
     <xf numFmtId="0" fontId="36" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2609,8 +2619,14 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2697,25 +2713,37 @@
     <xf numFmtId="0" fontId="12" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2731,6 +2759,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2740,22 +2777,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2773,7 +2822,55 @@
     <xf numFmtId="0" fontId="37" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2836,7 +2933,7 @@
     <xf numFmtId="0" fontId="37" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2856,56 +2953,11 @@
     <xf numFmtId="0" fontId="35" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normalno 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normalno 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -3533,7 +3585,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3856,138 +3908,138 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:L58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="6.33203125" style="6" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.6640625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" style="6" customWidth="1"/>
-    <col min="24" max="25" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="5.5" style="6" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.6640625" style="6" customWidth="1"/>
-    <col min="32" max="33" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="5.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.54296875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.7265625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" style="6" customWidth="1"/>
+    <col min="15" max="16" width="6.26953125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.54296875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.7265625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.26953125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="6.7265625" style="6" customWidth="1"/>
+    <col min="24" max="25" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="5.54296875" style="6" customWidth="1"/>
+    <col min="29" max="30" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.7265625" style="6" customWidth="1"/>
+    <col min="32" max="33" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="5.54296875" style="6" customWidth="1"/>
     <col min="36" max="36" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.6640625" style="6" customWidth="1"/>
-    <col min="38" max="38" width="6.5" style="6" customWidth="1"/>
-    <col min="39" max="39" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.33203125" style="1"/>
+    <col min="37" max="37" width="5.7265625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="6.54296875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="26" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="383" t="s">
+    <row r="1" spans="1:39" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="373" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
-      <c r="H1" s="383"/>
-      <c r="I1" s="383"/>
-      <c r="J1" s="383"/>
-      <c r="K1" s="383"/>
-      <c r="L1" s="383"/>
-      <c r="M1" s="383"/>
-      <c r="N1" s="383"/>
-      <c r="O1" s="383"/>
-      <c r="P1" s="383"/>
-      <c r="Q1" s="383"/>
-      <c r="R1" s="383"/>
-      <c r="S1" s="383"/>
-      <c r="T1" s="383"/>
-      <c r="U1" s="383"/>
-      <c r="V1" s="383"/>
-      <c r="W1" s="383"/>
-      <c r="X1" s="383"/>
-      <c r="Y1" s="383"/>
-      <c r="Z1" s="383"/>
-      <c r="AA1" s="383"/>
-      <c r="AB1" s="383"/>
-      <c r="AC1" s="383"/>
-      <c r="AD1" s="383"/>
-      <c r="AE1" s="383"/>
-      <c r="AF1" s="383"/>
-      <c r="AG1" s="383"/>
-      <c r="AH1" s="383"/>
-      <c r="AI1" s="383"/>
-      <c r="AJ1" s="383"/>
-      <c r="AK1" s="383"/>
-      <c r="AL1" s="383"/>
-    </row>
-    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="373"/>
+      <c r="C1" s="373"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373"/>
+      <c r="F1" s="373"/>
+      <c r="G1" s="373"/>
+      <c r="H1" s="373"/>
+      <c r="I1" s="373"/>
+      <c r="J1" s="373"/>
+      <c r="K1" s="373"/>
+      <c r="L1" s="373"/>
+      <c r="M1" s="373"/>
+      <c r="N1" s="373"/>
+      <c r="O1" s="373"/>
+      <c r="P1" s="373"/>
+      <c r="Q1" s="373"/>
+      <c r="R1" s="373"/>
+      <c r="S1" s="373"/>
+      <c r="T1" s="373"/>
+      <c r="U1" s="373"/>
+      <c r="V1" s="373"/>
+      <c r="W1" s="373"/>
+      <c r="X1" s="373"/>
+      <c r="Y1" s="373"/>
+      <c r="Z1" s="373"/>
+      <c r="AA1" s="373"/>
+      <c r="AB1" s="373"/>
+      <c r="AC1" s="373"/>
+      <c r="AD1" s="373"/>
+      <c r="AE1" s="373"/>
+      <c r="AF1" s="373"/>
+      <c r="AG1" s="373"/>
+      <c r="AH1" s="373"/>
+      <c r="AI1" s="373"/>
+      <c r="AJ1" s="373"/>
+      <c r="AK1" s="373"/>
+      <c r="AL1" s="373"/>
+    </row>
+    <row r="2" spans="1:39" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="384" t="s">
+      <c r="B2" s="374" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="390" t="s">
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="376"/>
+      <c r="I2" s="380" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="391"/>
-      <c r="K2" s="391"/>
-      <c r="L2" s="391"/>
-      <c r="M2" s="391"/>
-      <c r="N2" s="391"/>
-      <c r="O2" s="391"/>
-      <c r="P2" s="392"/>
-      <c r="Q2" s="384" t="s">
+      <c r="J2" s="381"/>
+      <c r="K2" s="381"/>
+      <c r="L2" s="381"/>
+      <c r="M2" s="381"/>
+      <c r="N2" s="381"/>
+      <c r="O2" s="381"/>
+      <c r="P2" s="382"/>
+      <c r="Q2" s="374" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="385"/>
-      <c r="S2" s="385"/>
-      <c r="T2" s="385"/>
-      <c r="U2" s="385"/>
-      <c r="V2" s="385"/>
-      <c r="W2" s="386"/>
-      <c r="X2" s="390" t="s">
+      <c r="R2" s="375"/>
+      <c r="S2" s="375"/>
+      <c r="T2" s="375"/>
+      <c r="U2" s="375"/>
+      <c r="V2" s="375"/>
+      <c r="W2" s="376"/>
+      <c r="X2" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="391"/>
-      <c r="Z2" s="391"/>
-      <c r="AA2" s="391"/>
-      <c r="AB2" s="391"/>
-      <c r="AC2" s="391"/>
-      <c r="AD2" s="391"/>
-      <c r="AE2" s="392"/>
-      <c r="AF2" s="387" t="s">
+      <c r="Y2" s="381"/>
+      <c r="Z2" s="381"/>
+      <c r="AA2" s="381"/>
+      <c r="AB2" s="381"/>
+      <c r="AC2" s="381"/>
+      <c r="AD2" s="381"/>
+      <c r="AE2" s="382"/>
+      <c r="AF2" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="388"/>
-      <c r="AH2" s="388"/>
-      <c r="AI2" s="388"/>
-      <c r="AJ2" s="388"/>
-      <c r="AK2" s="388"/>
-      <c r="AL2" s="389"/>
-    </row>
-    <row r="3" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG2" s="378"/>
+      <c r="AH2" s="378"/>
+      <c r="AI2" s="378"/>
+      <c r="AJ2" s="378"/>
+      <c r="AK2" s="378"/>
+      <c r="AL2" s="379"/>
+    </row>
+    <row r="3" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4085,7 @@
       <c r="O3" s="4">
         <v>7</v>
       </c>
-      <c r="P3" s="336">
+      <c r="P3" s="351">
         <v>8</v>
       </c>
       <c r="Q3" s="5">
@@ -4078,9 +4130,7 @@
       <c r="AD3" s="4">
         <v>7</v>
       </c>
-      <c r="AE3" s="336">
-        <v>8</v>
-      </c>
+      <c r="AE3" s="351"/>
       <c r="AF3" s="5">
         <v>1</v>
       </c>
@@ -4103,3935 +4153,3991 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="146" t="s">
+      <c r="G4" s="117"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="137" t="s">
+      <c r="J4" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="119" t="s">
+      <c r="L4" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="119" t="s">
+      <c r="M4" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="119"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="329"/>
-      <c r="Q4" s="146" t="s">
+      <c r="N4" s="124"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="341"/>
+      <c r="Q4" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="R4" s="137" t="s">
+      <c r="R4" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119" t="s">
+      <c r="S4" s="124"/>
+      <c r="T4" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="119" t="s">
+      <c r="U4" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="V4" s="119"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="137"/>
-      <c r="Z4" s="119" t="s">
+      <c r="V4" s="124"/>
+      <c r="W4" s="172"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="142"/>
+      <c r="Z4" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="119" t="s">
+      <c r="AA4" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="329"/>
-      <c r="AF4" s="146" t="s">
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="172"/>
+      <c r="AE4" s="341"/>
+      <c r="AF4" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="AG4" s="137" t="s">
+      <c r="AG4" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="AH4" s="119" t="s">
+      <c r="AH4" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="AI4" s="119" t="s">
+      <c r="AI4" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="AJ4" s="119" t="s">
+      <c r="AJ4" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="137"/>
-    </row>
-    <row r="5" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="142"/>
+    </row>
+    <row r="5" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="138" t="s">
+      <c r="I5" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="132" t="s">
+      <c r="J5" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="120" t="s">
+      <c r="K5" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="120" t="s">
+      <c r="M5" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="120"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="330"/>
-      <c r="Q5" s="147" t="s">
+      <c r="N5" s="125"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="342"/>
+      <c r="Q5" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="R5" s="142" t="s">
+      <c r="R5" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="125" t="s">
+      <c r="S5" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="94" t="s">
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="142" t="s">
+      <c r="Y5" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="Z5" s="125" t="s">
+      <c r="Z5" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="125" t="s">
+      <c r="AA5" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="AB5" s="125" t="s">
+      <c r="AB5" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="AC5" s="125" t="s">
+      <c r="AC5" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="AD5" s="116" t="s">
+      <c r="AD5" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="AE5" s="330"/>
-      <c r="AF5" s="147" t="s">
+      <c r="AE5" s="342"/>
+      <c r="AF5" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="AG5" s="142" t="s">
+      <c r="AG5" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="AH5" s="125"/>
-      <c r="AI5" s="125"/>
-      <c r="AJ5" s="125"/>
-      <c r="AK5" s="125"/>
-      <c r="AL5" s="142"/>
-    </row>
-    <row r="6" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="AH5" s="130"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
+      <c r="AK5" s="130"/>
+      <c r="AL5" s="147"/>
+    </row>
+    <row r="6" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="105" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="139"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="331"/>
-      <c r="Q6" s="139" t="s">
+      <c r="I6" s="144"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="343"/>
+      <c r="Q6" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="68" t="s">
+      <c r="R6" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="S6" s="82"/>
-      <c r="T6" s="313" t="s">
+      <c r="S6" s="87"/>
+      <c r="T6" s="321" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="82">
+      <c r="U6" s="87">
         <v>22</v>
       </c>
-      <c r="V6" s="82"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="177"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="114" t="s">
+      <c r="V6" s="87"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="AE6" s="331"/>
-      <c r="AF6" s="139"/>
-      <c r="AG6" s="68">
+      <c r="AE6" s="343"/>
+      <c r="AF6" s="144"/>
+      <c r="AG6" s="73">
         <v>22</v>
       </c>
-      <c r="AH6" s="313" t="s">
+      <c r="AH6" s="321" t="s">
         <v>72</v>
       </c>
-      <c r="AI6" s="82" t="s">
+      <c r="AI6" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="AJ6" s="82" t="s">
+      <c r="AJ6" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="AK6" s="82" t="s">
+      <c r="AK6" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AL6" s="68" t="s">
+      <c r="AL6" s="73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="282" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="288" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="282" t="s">
+      <c r="N7" s="288" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="113" t="s">
+      <c r="O7" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="340" t="s">
+      <c r="P7" s="362" t="s">
         <v>75</v>
       </c>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="132" t="s">
+      <c r="Q7" s="143"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="132" t="s">
+      <c r="Y7" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="Z7" s="120" t="s">
+      <c r="Z7" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="120" t="s">
+      <c r="AA7" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="AB7" s="120" t="s">
+      <c r="AB7" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="AC7" s="120" t="s">
+      <c r="AC7" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" s="113" t="s">
+      <c r="AD7" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="340" t="s">
+      <c r="AE7" s="362" t="s">
         <v>69</v>
       </c>
-      <c r="AF7" s="138"/>
-      <c r="AG7" s="132"/>
-      <c r="AH7" s="282" t="s">
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="137"/>
+      <c r="AH7" s="288" t="s">
         <v>75</v>
       </c>
-      <c r="AI7" s="314" t="s">
+      <c r="AI7" s="322" t="s">
         <v>72</v>
       </c>
-      <c r="AJ7" s="120">
+      <c r="AJ7" s="125">
         <v>22</v>
       </c>
-      <c r="AK7" s="120" t="s">
+      <c r="AK7" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="AL7" s="132" t="s">
+      <c r="AL7" s="137" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="138" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="132" t="s">
+      <c r="J8" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="120" t="s">
+      <c r="K8" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="120" t="s">
+      <c r="L8" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="120" t="s">
+      <c r="M8" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="113" t="s">
+      <c r="O8" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="340"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="120"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="132"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="120" t="s">
+      <c r="P8" s="362"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="137"/>
+      <c r="Z8" s="125"/>
+      <c r="AA8" s="125"/>
+      <c r="AB8" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="AC8" s="120" t="s">
+      <c r="AC8" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="AD8" s="113" t="s">
+      <c r="AD8" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="AE8" s="340"/>
-      <c r="AF8" s="138" t="s">
+      <c r="AE8" s="362"/>
+      <c r="AF8" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="132"/>
-      <c r="AH8" s="120" t="s">
+      <c r="AG8" s="137"/>
+      <c r="AH8" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="AI8" s="120" t="s">
+      <c r="AI8" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="AJ8" s="120" t="s">
+      <c r="AJ8" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="AK8" s="120" t="s">
+      <c r="AK8" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="AL8" s="132" t="s">
+      <c r="AL8" s="137" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="272" t="s">
+      <c r="B9" s="278" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="273" t="s">
+      <c r="C9" s="279" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="274" t="s">
+      <c r="D9" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="274" t="s">
+      <c r="E9" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="275" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="281" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="276" t="s">
+      <c r="L9" s="282" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="121"/>
-      <c r="N9" s="109" t="s">
+      <c r="M9" s="126"/>
+      <c r="N9" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="277" t="s">
+      <c r="O9" s="283" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="344" t="s">
+      <c r="P9" s="363" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="140"/>
-      <c r="Y9" s="278" t="s">
+      <c r="Q9" s="153"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="284" t="s">
         <v>70</v>
       </c>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="279" t="s">
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="AB9" s="279" t="s">
+      <c r="AB9" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="AC9" s="279" t="s">
+      <c r="AC9" s="285" t="s">
         <v>82</v>
       </c>
-      <c r="AD9" s="280" t="s">
+      <c r="AD9" s="286" t="s">
         <v>82</v>
       </c>
-      <c r="AE9" s="344" t="s">
+      <c r="AE9" s="363" t="s">
         <v>71</v>
       </c>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="140"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="279" t="s">
+      <c r="AF9" s="153"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="285" t="s">
         <v>69</v>
       </c>
-      <c r="AJ9" s="279" t="s">
+      <c r="AJ9" s="285" t="s">
         <v>69</v>
       </c>
-      <c r="AK9" s="279" t="s">
+      <c r="AK9" s="285" t="s">
         <v>83</v>
       </c>
-      <c r="AL9" s="278" t="s">
+      <c r="AL9" s="284" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="331"/>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="331"/>
-      <c r="AF10" s="200" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="350"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="350"/>
+      <c r="AF10" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="AG10" s="295" t="s">
+      <c r="AG10" s="303" t="s">
         <v>68</v>
       </c>
-      <c r="AH10" s="296" t="s">
+      <c r="AH10" s="304" t="s">
         <v>68</v>
       </c>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="68"/>
-    </row>
-    <row r="11" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="73"/>
+    </row>
+    <row r="11" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="168" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="138" t="s">
+      <c r="P11" s="349"/>
+      <c r="Q11" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="132" t="s">
+      <c r="R11" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="120" t="s">
+      <c r="S11" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120" t="s">
+      <c r="T11" s="125"/>
+      <c r="U11" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="V11" s="120" t="s">
+      <c r="V11" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="113"/>
-      <c r="X11" s="317" t="s">
+      <c r="W11" s="118"/>
+      <c r="X11" s="325" t="s">
         <v>109</v>
       </c>
-      <c r="Y11" s="317" t="s">
+      <c r="Y11" s="325" t="s">
         <v>109</v>
       </c>
-      <c r="Z11" s="320" t="s">
+      <c r="Z11" s="328" t="s">
         <v>109</v>
       </c>
-      <c r="AA11" s="120" t="s">
+      <c r="AA11" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="AB11" s="120" t="s">
+      <c r="AB11" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="AC11" s="120" t="s">
+      <c r="AC11" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="AD11" s="113" t="s">
+      <c r="AD11" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="AE11" s="134"/>
-      <c r="AF11" s="138"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="120"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="120"/>
-      <c r="AK11" s="120"/>
-      <c r="AL11" s="132"/>
-    </row>
-    <row r="12" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="AE11" s="349"/>
+      <c r="AF11" s="143"/>
+      <c r="AG11" s="137"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="125"/>
+      <c r="AJ11" s="125"/>
+      <c r="AK11" s="125"/>
+      <c r="AL11" s="137"/>
+    </row>
+    <row r="12" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="90" t="s">
+      <c r="H12" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="147"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="138"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="120"/>
-      <c r="AJ12" s="120"/>
-      <c r="AK12" s="132"/>
-      <c r="AL12" s="132"/>
-    </row>
-    <row r="13" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="I12" s="152"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="349"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="125"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="125"/>
+      <c r="AC12" s="125"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="349"/>
+      <c r="AF12" s="143"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="125"/>
+      <c r="AJ12" s="125"/>
+      <c r="AK12" s="137"/>
+      <c r="AL12" s="137"/>
+    </row>
+    <row r="13" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="283" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="289" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="284" t="s">
+      <c r="F13" s="290" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="284" t="s">
+      <c r="G13" s="290" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="285" t="s">
+      <c r="H13" s="291" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="148"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="286" t="s">
+      <c r="I13" s="153"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="292" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="281" t="s">
+      <c r="P13" s="349"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="287" t="s">
         <v>76</v>
       </c>
-      <c r="T13" s="281" t="s">
+      <c r="T13" s="287" t="s">
         <v>71</v>
       </c>
-      <c r="U13" s="281" t="s">
+      <c r="U13" s="287" t="s">
         <v>69</v>
       </c>
-      <c r="V13" s="281" t="s">
+      <c r="V13" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="W13" s="277" t="s">
+      <c r="W13" s="283" t="s">
         <v>78</v>
       </c>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="120"/>
-      <c r="AC13" s="287" t="s">
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="293" t="s">
         <v>77</v>
       </c>
-      <c r="AD13" s="286" t="s">
+      <c r="AD13" s="292" t="s">
         <v>70</v>
       </c>
-      <c r="AE13" s="134"/>
-      <c r="AF13" s="138"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="120"/>
-      <c r="AI13" s="120"/>
-      <c r="AJ13" s="120"/>
-      <c r="AK13" s="132"/>
-      <c r="AL13" s="121"/>
-    </row>
-    <row r="14" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="AE13" s="349"/>
+      <c r="AF13" s="143"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="125"/>
+      <c r="AJ13" s="125"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="25"/>
+    </row>
+    <row r="14" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="90" t="s">
+      <c r="H14" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="120" t="s">
+      <c r="I14" s="71"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="T14" s="120" t="s">
+      <c r="T14" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="U14" s="120" t="s">
+      <c r="U14" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="V14" s="120" t="s">
+      <c r="V14" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="W14" s="115" t="s">
+      <c r="W14" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120" t="s">
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="AD14" s="113" t="s">
+      <c r="AD14" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="AE14" s="134"/>
-      <c r="AF14" s="138"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="120"/>
-      <c r="AK14" s="132"/>
-      <c r="AL14" s="132"/>
-    </row>
-    <row r="15" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="AE14" s="349"/>
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="137"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="125"/>
+      <c r="AK14" s="137"/>
+      <c r="AL14" s="137"/>
+      <c r="AM14" s="25"/>
+    </row>
+    <row r="15" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="90" t="s">
+      <c r="H15" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="113" t="s">
+      <c r="I15" s="71"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="115"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="109"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="134"/>
-      <c r="AF15" s="138"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="120"/>
-      <c r="AI15" s="120"/>
-      <c r="AJ15" s="120"/>
-      <c r="AK15" s="132"/>
-      <c r="AL15" s="132"/>
-    </row>
-    <row r="16" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+      <c r="P15" s="139"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="349"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="125"/>
+      <c r="AI15" s="125"/>
+      <c r="AJ15" s="125"/>
+      <c r="AK15" s="137"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="25"/>
+    </row>
+    <row r="16" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="113" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="314" t="s">
+      <c r="P16" s="139"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="322" t="s">
         <v>72</v>
       </c>
-      <c r="T16" s="120" t="s">
+      <c r="T16" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="U16" s="120" t="s">
+      <c r="U16" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="V16" s="120" t="s">
+      <c r="V16" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="W16" s="115" t="s">
+      <c r="W16" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="X16" s="132" t="s">
+      <c r="X16" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="Y16" s="132" t="s">
+      <c r="Y16" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="120" t="s">
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" s="120" t="s">
+      <c r="AB16" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="AC16" s="318" t="s">
+      <c r="AC16" s="326" t="s">
         <v>109</v>
       </c>
-      <c r="AD16" s="319" t="s">
+      <c r="AD16" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="AE16" s="339"/>
-      <c r="AF16" s="138"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="120"/>
-      <c r="AI16" s="120"/>
-      <c r="AJ16" s="314" t="s">
+      <c r="AE16" s="354"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="137"/>
+      <c r="AH16" s="125"/>
+      <c r="AI16" s="125"/>
+      <c r="AJ16" s="322" t="s">
         <v>72</v>
       </c>
-      <c r="AK16" s="132" t="s">
+      <c r="AK16" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="AL16" s="132" t="s">
+      <c r="AL16" s="137" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="AM16" s="25"/>
+    </row>
+    <row r="17" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109" t="s">
+      <c r="I17" s="71"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="115"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="316" t="s">
+      <c r="O17" s="120"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="324" t="s">
         <v>68</v>
       </c>
-      <c r="Y17" s="316" t="s">
+      <c r="Y17" s="324" t="s">
         <v>68</v>
       </c>
-      <c r="Z17" s="109" t="s">
+      <c r="Z17" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="109" t="s">
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="AC17" s="109" t="s">
+      <c r="AC17" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="AD17" s="115"/>
-      <c r="AE17" s="135"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="109"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="109">
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="114"/>
+      <c r="AJ17" s="114">
         <v>22</v>
       </c>
-      <c r="AK17" s="121"/>
-      <c r="AL17" s="121"/>
-    </row>
-    <row r="18" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK17" s="126"/>
+      <c r="AL17" s="126"/>
+      <c r="AM17" s="25"/>
+    </row>
+    <row r="18" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82" t="s">
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="O18" s="114"/>
-      <c r="P18" s="331"/>
-      <c r="Q18" s="311" t="s">
+      <c r="O18" s="119"/>
+      <c r="P18" s="343"/>
+      <c r="Q18" s="319" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="312" t="s">
+      <c r="R18" s="320" t="s">
         <v>72</v>
       </c>
-      <c r="S18" s="82">
+      <c r="S18" s="87">
         <v>22</v>
       </c>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="114" t="s">
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="AE18" s="331"/>
-      <c r="AF18" s="311" t="s">
+      <c r="AE18" s="343"/>
+      <c r="AF18" s="319" t="s">
         <v>72</v>
       </c>
-      <c r="AG18" s="312" t="s">
+      <c r="AG18" s="320" t="s">
         <v>72</v>
       </c>
-      <c r="AH18" s="82">
+      <c r="AH18" s="87">
         <v>22</v>
       </c>
-      <c r="AI18" s="82"/>
-      <c r="AJ18" s="82"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="68"/>
-    </row>
-    <row r="19" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+    </row>
+    <row r="19" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="309" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="317" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="186" t="s">
+      <c r="J19" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="310" t="s">
+      <c r="K19" s="318" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="80">
+      <c r="L19" s="85">
         <v>22</v>
       </c>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="332"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="140"/>
-      <c r="Y19" s="140"/>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="183"/>
-      <c r="AE19" s="337"/>
-      <c r="AF19" s="148"/>
-      <c r="AG19" s="140"/>
-      <c r="AH19" s="80"/>
-      <c r="AI19" s="80"/>
-      <c r="AJ19" s="80"/>
-      <c r="AK19" s="80"/>
-      <c r="AL19" s="140"/>
-    </row>
-    <row r="20" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="344"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="122"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="188"/>
+      <c r="AE19" s="352"/>
+      <c r="AF19" s="153"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="85"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="145"/>
+      <c r="AO19" s="25"/>
+    </row>
+    <row r="20" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="332"/>
-      <c r="Q20" s="148" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="344"/>
+      <c r="Q20" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="140" t="s">
+      <c r="R20" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="S20" s="294" t="s">
+      <c r="S20" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="T20" s="294" t="s">
+      <c r="T20" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="U20" s="80" t="s">
+      <c r="U20" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="80"/>
-      <c r="W20" s="117" t="s">
+      <c r="V20" s="85"/>
+      <c r="W20" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="X20" s="140" t="s">
+      <c r="X20" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="Y20" s="140" t="s">
+      <c r="Y20" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="332"/>
-      <c r="AF20" s="148" t="s">
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="344"/>
+      <c r="AF20" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="AG20" s="140" t="s">
+      <c r="AG20" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="AH20" s="80" t="s">
+      <c r="AH20" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="AI20" s="80" t="s">
+      <c r="AI20" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="AJ20" s="80" t="s">
+      <c r="AJ20" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="AK20" s="80" t="s">
+      <c r="AK20" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AL20" s="140" t="s">
+      <c r="AL20" s="145" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="104"/>
-      <c r="I21" s="148" t="s">
+      <c r="H21" s="109"/>
+      <c r="I21" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="140" t="s">
+      <c r="J21" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="80" t="s">
+      <c r="K21" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="80" t="s">
+      <c r="L21" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="M21" s="80" t="s">
+      <c r="M21" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="80"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="332"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="140"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80" t="s">
+      <c r="N21" s="85"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="344"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="W21" s="117" t="s">
+      <c r="W21" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="X21" s="121" t="s">
+      <c r="X21" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="Y21" s="140" t="s">
+      <c r="Y21" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="80" t="s">
+      <c r="Z21" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="AA21" s="80" t="s">
+      <c r="AA21" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="332"/>
-      <c r="AF21" s="148"/>
-      <c r="AG21" s="140" t="s">
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="344"/>
+      <c r="AF21" s="153"/>
+      <c r="AG21" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="AH21" s="80" t="s">
+      <c r="AH21" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AI21" s="80"/>
-      <c r="AJ21" s="80"/>
-      <c r="AK21" s="80"/>
-      <c r="AL21" s="140"/>
-      <c r="AM21" s="194" t="s">
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="145"/>
+      <c r="AM21" s="199" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="AN21" s="25"/>
+    </row>
+    <row r="22" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="331"/>
-      <c r="Q22" s="139" t="s">
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="343"/>
+      <c r="Q22" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="R22" s="68" t="s">
+      <c r="R22" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="S22" s="82" t="s">
+      <c r="S22" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="T22" s="249" t="s">
+      <c r="T22" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="U22" s="249" t="s">
+      <c r="U22" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="V22" s="249" t="s">
+      <c r="V22" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="W22" s="250" t="s">
+      <c r="W22" s="256" t="s">
         <v>75</v>
       </c>
-      <c r="X22" s="251" t="s">
+      <c r="X22" s="257" t="s">
         <v>76</v>
       </c>
-      <c r="Y22" s="252" t="s">
+      <c r="Y22" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="Z22" s="249" t="s">
+      <c r="Z22" s="255" t="s">
         <v>76</v>
       </c>
-      <c r="AA22" s="249" t="s">
+      <c r="AA22" s="255" t="s">
         <v>76</v>
       </c>
-      <c r="AB22" s="82" t="s">
+      <c r="AB22" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="114"/>
-      <c r="AE22" s="331"/>
-      <c r="AF22" s="139"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="82" t="s">
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="343"/>
+      <c r="AF22" s="144"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AK22" s="82" t="s">
+      <c r="AK22" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AL22" s="68" t="s">
+      <c r="AL22" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="AM22" s="56" t="s">
+      <c r="AM22" s="60" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="203" t="s">
+      <c r="B23" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="204" t="s">
+      <c r="C23" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="132" t="s">
+      <c r="E23" s="76"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="Y23" s="131" t="s">
+      <c r="Y23" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="122"/>
-      <c r="AB23" s="122"/>
-      <c r="AC23" s="122"/>
-      <c r="AD23" s="118"/>
-      <c r="AE23" s="133"/>
-      <c r="AF23" s="207" t="s">
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="123"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="AG23" s="208" t="s">
+      <c r="AG23" s="213" t="s">
         <v>73</v>
       </c>
-      <c r="AH23" s="162" t="s">
+      <c r="AH23" s="214" t="s">
         <v>73</v>
       </c>
-      <c r="AI23" s="321" t="s">
+      <c r="AI23" s="329" t="s">
         <v>73</v>
       </c>
-      <c r="AJ23" s="321" t="s">
+      <c r="AJ23" s="329" t="s">
         <v>73</v>
       </c>
-      <c r="AK23" s="321" t="s">
+      <c r="AK23" s="329" t="s">
         <v>73</v>
       </c>
-      <c r="AL23" s="322" t="s">
+      <c r="AL23" s="330" t="s">
         <v>73</v>
       </c>
-      <c r="AM23" s="191" t="s">
+      <c r="AM23" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="AN23" s="37"/>
-    </row>
-    <row r="24" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="AN23" s="39"/>
+    </row>
+    <row r="24" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="71" t="s">
+      <c r="G24" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="111" t="s">
+      <c r="H24" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="138"/>
-      <c r="J24" s="173" t="s">
+      <c r="I24" s="143"/>
+      <c r="J24" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="120" t="s">
+      <c r="K24" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="165" t="s">
+      <c r="L24" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="173" t="s">
+      <c r="M24" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="N24" s="173" t="s">
+      <c r="N24" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="O24" s="113"/>
-      <c r="P24" s="134"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="182" t="s">
+      <c r="O24" s="118"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="W24" s="189" t="s">
+      <c r="W24" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="X24" s="165" t="s">
+      <c r="X24" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="Y24" s="165" t="s">
+      <c r="Y24" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="Z24" s="165" t="s">
+      <c r="Z24" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="120"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="134"/>
-      <c r="AF24" s="138"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="120"/>
-      <c r="AI24" s="188"/>
-      <c r="AJ24" s="201"/>
-      <c r="AK24" s="173"/>
-      <c r="AL24" s="202" t="s">
+      <c r="AA24" s="125"/>
+      <c r="AB24" s="125"/>
+      <c r="AC24" s="125"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="143"/>
+      <c r="AG24" s="137"/>
+      <c r="AH24" s="125"/>
+      <c r="AI24" s="193"/>
+      <c r="AJ24" s="206"/>
+      <c r="AK24" s="178"/>
+      <c r="AL24" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="AM24" s="192" t="s">
+      <c r="AM24" s="197" t="s">
         <v>95</v>
       </c>
-      <c r="AN24" s="28"/>
-    </row>
-    <row r="25" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+      <c r="AN24" s="40"/>
+    </row>
+    <row r="25" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="66" t="s">
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="198" t="s">
+      <c r="J25" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="205" t="s">
+      <c r="K25" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="206" t="s">
+      <c r="L25" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="M25" s="198" t="s">
+      <c r="M25" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="N25" s="198" t="s">
+      <c r="N25" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="115" t="s">
+      <c r="O25" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="66" t="s">
+      <c r="P25" s="140"/>
+      <c r="Q25" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="R25" s="121" t="s">
+      <c r="R25" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="S25" s="109" t="s">
+      <c r="S25" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="109"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="199" t="s">
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="114"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="Y25" s="199" t="s">
+      <c r="Y25" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="Z25" s="199" t="s">
+      <c r="Z25" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="AA25" s="109"/>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="109"/>
-      <c r="AD25" s="115"/>
-      <c r="AE25" s="135"/>
-      <c r="AF25" s="66" t="s">
+      <c r="AA25" s="114"/>
+      <c r="AB25" s="114"/>
+      <c r="AC25" s="114"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="AG25" s="121" t="s">
+      <c r="AG25" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="AH25" s="109"/>
-      <c r="AI25" s="209" t="s">
+      <c r="AH25" s="114"/>
+      <c r="AI25" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="AJ25" s="209" t="s">
+      <c r="AJ25" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="AK25" s="209" t="s">
+      <c r="AK25" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="AL25" s="323" t="s">
+      <c r="AL25" s="331" t="s">
         <v>73</v>
       </c>
-      <c r="AM25" s="193" t="s">
+      <c r="AM25" s="198" t="s">
         <v>96</v>
       </c>
-      <c r="AN25" s="28"/>
-    </row>
-    <row r="26" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="AN25" s="40"/>
+    </row>
+    <row r="26" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="79" t="s">
+      <c r="G26" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="91"/>
-      <c r="I26" s="141" t="s">
+      <c r="H26" s="96"/>
+      <c r="I26" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="151"/>
-      <c r="K26" s="197" t="s">
+      <c r="J26" s="156"/>
+      <c r="K26" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="197" t="s">
+      <c r="L26" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="333"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="152"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="152"/>
-      <c r="AE26" s="333"/>
-      <c r="AF26" s="185"/>
-      <c r="AG26" s="184"/>
-      <c r="AH26" s="181" t="s">
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="345"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="157"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="156"/>
+      <c r="Z26" s="156"/>
+      <c r="AA26" s="133"/>
+      <c r="AB26" s="133"/>
+      <c r="AC26" s="133"/>
+      <c r="AD26" s="157"/>
+      <c r="AE26" s="345"/>
+      <c r="AF26" s="190"/>
+      <c r="AG26" s="189"/>
+      <c r="AH26" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="AI26" s="128" t="s">
+      <c r="AI26" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="AJ26" s="128" t="s">
+      <c r="AJ26" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="AK26" s="82" t="s">
+      <c r="AK26" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="AL26" s="151" t="s">
+      <c r="AL26" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="AM26" s="29" t="s">
+      <c r="AM26" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="324" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="332" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="325" t="s">
+      <c r="H27" s="333" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="138"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="210" t="s">
+      <c r="I27" s="143"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="216" t="s">
         <v>78</v>
       </c>
-      <c r="R27" s="211" t="s">
+      <c r="R27" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="S27" s="212" t="s">
+      <c r="S27" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="T27" s="212" t="s">
+      <c r="T27" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="113"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="120"/>
-      <c r="AC27" s="213" t="s">
+      <c r="U27" s="125"/>
+      <c r="V27" s="125"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="125"/>
+      <c r="AB27" s="125"/>
+      <c r="AC27" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="AD27" s="214" t="s">
+      <c r="AD27" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="AE27" s="340"/>
-      <c r="AF27" s="138" t="s">
+      <c r="AE27" s="355"/>
+      <c r="AF27" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="AG27" s="132" t="s">
+      <c r="AG27" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="AH27" s="125" t="s">
+      <c r="AH27" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="AI27" s="215" t="s">
+      <c r="AI27" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="AJ27" s="216" t="s">
+      <c r="AJ27" s="222" t="s">
         <v>78</v>
       </c>
-      <c r="AK27" s="213" t="s">
+      <c r="AK27" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="AL27" s="217" t="s">
+      <c r="AL27" s="223" t="s">
         <v>78</v>
       </c>
-      <c r="AM27" s="26" t="s">
+      <c r="AM27" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="230" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="236" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="229" t="s">
+      <c r="G28" s="235" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="104" t="s">
+      <c r="H28" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109" t="s">
+      <c r="I28" s="71"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="N28" s="109" t="s">
+      <c r="N28" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="115"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="235" t="s">
+      <c r="O28" s="120"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="241" t="s">
         <v>71</v>
       </c>
-      <c r="W28" s="248" t="s">
+      <c r="W28" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="X28" s="246" t="s">
+      <c r="X28" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="Y28" s="246" t="s">
+      <c r="Y28" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="Z28" s="247" t="s">
+      <c r="Z28" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="AA28" s="247" t="s">
+      <c r="AA28" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="159" t="s">
+      <c r="AB28" s="114"/>
+      <c r="AC28" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="AD28" s="155" t="s">
+      <c r="AD28" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="AE28" s="341"/>
-      <c r="AF28" s="66" t="s">
+      <c r="AE28" s="356"/>
+      <c r="AF28" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="AG28" s="121" t="s">
+      <c r="AG28" s="339" t="s">
         <v>69</v>
       </c>
-      <c r="AH28" s="109" t="s">
+      <c r="AH28" s="340" t="s">
         <v>69</v>
       </c>
-      <c r="AI28" s="159" t="s">
+      <c r="AI28" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="AJ28" s="159" t="s">
+      <c r="AJ28" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="AK28" s="130" t="s">
+      <c r="AK28" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="AL28" s="124" t="s">
+      <c r="AL28" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="AM28" s="27" t="s">
+      <c r="AM28" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
+    <row r="29" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="268" t="s">
+      <c r="F29" s="274" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="268" t="s">
+      <c r="G29" s="274" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="90"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="269" t="s">
+      <c r="H29" s="95"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="275" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="269" t="s">
+      <c r="L29" s="275" t="s">
         <v>76</v>
       </c>
-      <c r="M29" s="269" t="s">
+      <c r="M29" s="275" t="s">
         <v>76</v>
       </c>
-      <c r="N29" s="269" t="s">
+      <c r="N29" s="275" t="s">
         <v>76</v>
       </c>
-      <c r="O29" s="117"/>
-      <c r="P29" s="332"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="140"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="267" t="s">
+      <c r="O29" s="122"/>
+      <c r="P29" s="344"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="273" t="s">
         <v>71</v>
       </c>
-      <c r="W29" s="270" t="s">
+      <c r="W29" s="276" t="s">
         <v>71</v>
       </c>
-      <c r="X29" s="140"/>
-      <c r="Y29" s="140"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="117"/>
-      <c r="AE29" s="332"/>
-      <c r="AF29" s="148"/>
-      <c r="AG29" s="121"/>
-      <c r="AH29" s="140"/>
-      <c r="AI29" s="80"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="140" t="s">
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="122"/>
+      <c r="AE29" s="348"/>
+      <c r="AF29" s="153"/>
+      <c r="AG29" s="126"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="85"/>
+      <c r="AJ29" s="85"/>
+      <c r="AK29" s="85"/>
+      <c r="AL29" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="AM29" s="28"/>
-    </row>
-    <row r="30" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
+      <c r="AM29" s="30"/>
+    </row>
+    <row r="30" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="332"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="140"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="271" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="344"/>
+      <c r="Q30" s="153"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="277" t="s">
         <v>69</v>
       </c>
-      <c r="Y30" s="271" t="s">
+      <c r="Y30" s="277" t="s">
         <v>69</v>
       </c>
-      <c r="Z30" s="267" t="s">
+      <c r="Z30" s="273" t="s">
         <v>69</v>
       </c>
-      <c r="AA30" s="267" t="s">
+      <c r="AA30" s="273" t="s">
         <v>69</v>
       </c>
-      <c r="AB30" s="80"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="332"/>
-      <c r="AF30" s="148"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="140"/>
-      <c r="AI30" s="80"/>
-      <c r="AJ30" s="80"/>
-      <c r="AK30" s="80"/>
-      <c r="AL30" s="140"/>
-      <c r="AM30" s="35" t="s">
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="348"/>
+      <c r="AF30" s="153"/>
+      <c r="AG30" s="126"/>
+      <c r="AH30" s="145"/>
+      <c r="AI30" s="85"/>
+      <c r="AJ30" s="85"/>
+      <c r="AK30" s="85"/>
+      <c r="AL30" s="145"/>
+      <c r="AM30" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="332"/>
-      <c r="Q31" s="149" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="344"/>
+      <c r="Q31" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="R31" s="171" t="s">
+      <c r="R31" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="S31" s="156" t="s">
+      <c r="S31" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="T31" s="156" t="s">
+      <c r="T31" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="140"/>
-      <c r="Y31" s="140"/>
-      <c r="Z31" s="80"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="80"/>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="332"/>
-      <c r="AF31" s="148"/>
-      <c r="AG31" s="140"/>
-      <c r="AH31" s="80"/>
-      <c r="AI31" s="80"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="80"/>
-      <c r="AL31" s="140"/>
-      <c r="AM31" s="26" t="s">
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="145"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="85"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="348"/>
+      <c r="AF31" s="153"/>
+      <c r="AG31" s="145"/>
+      <c r="AH31" s="85"/>
+      <c r="AI31" s="85"/>
+      <c r="AJ31" s="85"/>
+      <c r="AK31" s="85"/>
+      <c r="AL31" s="145"/>
+      <c r="AM31" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="351" t="s">
+      <c r="B32" s="386" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="352" t="s">
+      <c r="C32" s="387" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="353" t="s">
+      <c r="D32" s="388" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="353" t="s">
+      <c r="E32" s="388" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="353" t="s">
+      <c r="F32" s="388" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="353" t="s">
+      <c r="G32" s="388" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="354" t="s">
+      <c r="H32" s="389" t="s">
         <v>70</v>
       </c>
-      <c r="I32" s="355" t="s">
+      <c r="I32" s="390" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="356" t="s">
+      <c r="J32" s="391" t="s">
         <v>70</v>
       </c>
-      <c r="K32" s="356" t="s">
+      <c r="K32" s="391" t="s">
         <v>70</v>
       </c>
-      <c r="L32" s="226" t="s">
+      <c r="L32" s="232" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="332"/>
-      <c r="Q32" s="355" t="s">
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="344"/>
+      <c r="Q32" s="390" t="s">
         <v>70</v>
       </c>
-      <c r="R32" s="357" t="s">
+      <c r="R32" s="392" t="s">
         <v>70</v>
       </c>
-      <c r="S32" s="358" t="s">
+      <c r="S32" s="393" t="s">
         <v>70</v>
       </c>
-      <c r="T32" s="358" t="s">
+      <c r="T32" s="393" t="s">
         <v>70</v>
       </c>
-      <c r="U32" s="358" t="s">
+      <c r="U32" s="393" t="s">
         <v>70</v>
       </c>
-      <c r="V32" s="358" t="s">
+      <c r="V32" s="393" t="s">
         <v>70</v>
       </c>
-      <c r="W32" s="359" t="s">
+      <c r="W32" s="394" t="s">
         <v>70</v>
       </c>
-      <c r="X32" s="140"/>
-      <c r="Y32" s="140"/>
-      <c r="Z32" s="140"/>
-      <c r="AA32" s="140"/>
-      <c r="AB32" s="140"/>
-      <c r="AC32" s="80"/>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="332"/>
-      <c r="AF32" s="148"/>
-      <c r="AG32" s="140"/>
-      <c r="AH32" s="80"/>
-      <c r="AI32" s="80" t="s">
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="85"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="348"/>
+      <c r="AF32" s="153"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="85"/>
+      <c r="AI32" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="AJ32" s="80" t="s">
+      <c r="AJ32" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="AK32" s="80" t="s">
+      <c r="AK32" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="AL32" s="360" t="s">
+      <c r="AL32" s="395" t="s">
         <v>70</v>
       </c>
-      <c r="AM32" s="28" t="s">
+      <c r="AM32" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="227" t="s">
+      <c r="B33" s="233" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="228" t="s">
+      <c r="C33" s="234" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="229" t="s">
+      <c r="D33" s="235" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="230" t="s">
+      <c r="E33" s="236" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="326" t="s">
+      <c r="F33" s="334" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="77"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="239" t="s">
+      <c r="G33" s="82"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="245" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="240" t="s">
+      <c r="J33" s="246" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="241" t="s">
+      <c r="K33" s="247" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="234" t="s">
+      <c r="L33" s="240" t="s">
         <v>69</v>
       </c>
-      <c r="M33" s="235" t="s">
+      <c r="M33" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="N33" s="235" t="s">
+      <c r="N33" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="O33" s="236" t="s">
+      <c r="O33" s="242" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="332"/>
-      <c r="Q33" s="239" t="s">
+      <c r="P33" s="348"/>
+      <c r="Q33" s="245" t="s">
         <v>70</v>
       </c>
-      <c r="R33" s="240" t="s">
+      <c r="R33" s="246" t="s">
         <v>70</v>
       </c>
-      <c r="S33" s="241" t="s">
+      <c r="S33" s="247" t="s">
         <v>70</v>
       </c>
-      <c r="T33" s="241" t="s">
+      <c r="T33" s="247" t="s">
         <v>70</v>
       </c>
-      <c r="U33" s="241" t="s">
+      <c r="U33" s="247" t="s">
         <v>70</v>
       </c>
-      <c r="V33" s="156"/>
-      <c r="W33" s="350"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="140"/>
-      <c r="Z33" s="140"/>
-      <c r="AA33" s="140"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="241" t="s">
+      <c r="V33" s="384"/>
+      <c r="W33" s="385"/>
+      <c r="X33" s="126"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="126"/>
+      <c r="AC33" s="247" t="s">
         <v>78</v>
       </c>
-      <c r="AD33" s="242" t="s">
+      <c r="AD33" s="248" t="s">
         <v>78</v>
       </c>
-      <c r="AE33" s="342"/>
-      <c r="AF33" s="148"/>
-      <c r="AG33" s="140"/>
-      <c r="AH33" s="140"/>
-      <c r="AI33" s="140"/>
-      <c r="AJ33" s="121"/>
-      <c r="AK33" s="130"/>
-      <c r="AL33" s="124"/>
-      <c r="AM33" s="27" t="s">
+      <c r="AE33" s="357"/>
+      <c r="AF33" s="153"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="126"/>
+      <c r="AK33" s="135"/>
+      <c r="AL33" s="129"/>
+      <c r="AM33" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+    <row r="34" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="231" t="s">
+      <c r="B34" s="237" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="232" t="s">
+      <c r="C34" s="238" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="233" t="s">
+      <c r="D34" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="233" t="s">
+      <c r="E34" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="237" t="s">
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="M34" s="237" t="s">
+      <c r="M34" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="N34" s="237" t="s">
+      <c r="N34" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="O34" s="238" t="s">
+      <c r="O34" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="P34" s="331"/>
-      <c r="Q34" s="172" t="s">
+      <c r="P34" s="350"/>
+      <c r="Q34" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="R34" s="153" t="s">
+      <c r="R34" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="S34" s="157" t="s">
+      <c r="S34" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="T34" s="157" t="s">
+      <c r="T34" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68" t="s">
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="119"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="164"/>
-      <c r="AD34" s="178"/>
-      <c r="AE34" s="343"/>
-      <c r="AF34" s="139"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="243" t="s">
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="169"/>
+      <c r="AD34" s="183"/>
+      <c r="AE34" s="358"/>
+      <c r="AF34" s="144"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="249" t="s">
         <v>78</v>
       </c>
-      <c r="AJ34" s="243" t="s">
+      <c r="AJ34" s="249" t="s">
         <v>78</v>
       </c>
-      <c r="AK34" s="244" t="s">
+      <c r="AK34" s="250" t="s">
         <v>78</v>
       </c>
-      <c r="AL34" s="245" t="s">
+      <c r="AL34" s="251" t="s">
         <v>78</v>
       </c>
-      <c r="AM34" s="35" t="s">
+      <c r="AM34" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+    <row r="35" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="253" t="s">
+      <c r="B35" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="254" t="s">
+      <c r="C35" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="255" t="s">
+      <c r="D35" s="261" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="255" t="s">
+      <c r="E35" s="261" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="255" t="s">
+      <c r="F35" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="255" t="s">
+      <c r="G35" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="106" t="s">
+      <c r="H35" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="144" t="s">
+      <c r="I35" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="131" t="s">
+      <c r="J35" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="133"/>
-      <c r="Q35" s="144" t="s">
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="138"/>
+      <c r="Q35" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="R35" s="131" t="s">
+      <c r="R35" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="S35" s="256" t="s">
+      <c r="S35" s="262" t="s">
         <v>75</v>
       </c>
-      <c r="T35" s="122" t="s">
+      <c r="T35" s="335" t="s">
         <v>76</v>
       </c>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="118"/>
-      <c r="X35" s="131"/>
-      <c r="Y35" s="131"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="122"/>
-      <c r="AC35" s="122"/>
-      <c r="AD35" s="118"/>
-      <c r="AE35" s="133"/>
-      <c r="AF35" s="144"/>
-      <c r="AG35" s="131" t="s">
+      <c r="U35" s="127"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="123"/>
+      <c r="X35" s="136"/>
+      <c r="Y35" s="136"/>
+      <c r="Z35" s="127"/>
+      <c r="AA35" s="127"/>
+      <c r="AB35" s="127"/>
+      <c r="AC35" s="127"/>
+      <c r="AD35" s="123"/>
+      <c r="AE35" s="359"/>
+      <c r="AF35" s="149"/>
+      <c r="AG35" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="AH35" s="122"/>
-      <c r="AI35" s="122" t="s">
+      <c r="AH35" s="127"/>
+      <c r="AI35" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="AJ35" s="122"/>
-      <c r="AK35" s="122"/>
-      <c r="AL35" s="131"/>
-      <c r="AM35" s="26" t="s">
+      <c r="AJ35" s="127"/>
+      <c r="AK35" s="127"/>
+      <c r="AL35" s="136"/>
+      <c r="AM35" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
+    <row r="36" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="257" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="263" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="257" t="s">
+      <c r="G36" s="263" t="s">
         <v>75</v>
       </c>
-      <c r="H36" s="89" t="s">
+      <c r="H36" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="147"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="330"/>
-      <c r="Q36" s="138"/>
-      <c r="R36" s="132"/>
-      <c r="S36" s="142"/>
-      <c r="T36" s="125"/>
-      <c r="U36" s="125"/>
-      <c r="V36" s="125"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="132"/>
-      <c r="Y36" s="132"/>
-      <c r="Z36" s="125"/>
-      <c r="AA36" s="120"/>
-      <c r="AB36" s="120"/>
-      <c r="AC36" s="120"/>
-      <c r="AD36" s="113"/>
-      <c r="AE36" s="330"/>
-      <c r="AF36" s="147"/>
-      <c r="AG36" s="142"/>
-      <c r="AH36" s="142"/>
-      <c r="AI36" s="142"/>
-      <c r="AJ36" s="125"/>
-      <c r="AK36" s="142"/>
-      <c r="AL36" s="142"/>
-      <c r="AM36" s="28" t="s">
+      <c r="I36" s="152"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="342"/>
+      <c r="Q36" s="143"/>
+      <c r="R36" s="137"/>
+      <c r="S36" s="147"/>
+      <c r="T36" s="130"/>
+      <c r="U36" s="130"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
+      <c r="Z36" s="130"/>
+      <c r="AA36" s="125"/>
+      <c r="AB36" s="125"/>
+      <c r="AC36" s="125"/>
+      <c r="AD36" s="118"/>
+      <c r="AE36" s="360"/>
+      <c r="AF36" s="152"/>
+      <c r="AG36" s="147"/>
+      <c r="AH36" s="147"/>
+      <c r="AI36" s="147"/>
+      <c r="AJ36" s="130"/>
+      <c r="AK36" s="147"/>
+      <c r="AL36" s="147"/>
+      <c r="AM36" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="140" t="s">
+      <c r="B37" s="65"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="K37" s="258" t="s">
+      <c r="K37" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="L37" s="258" t="s">
+      <c r="L37" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="M37" s="258" t="s">
+      <c r="M37" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="N37" s="258" t="s">
+      <c r="N37" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="O37" s="117"/>
-      <c r="P37" s="332"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="262" t="s">
+      <c r="O37" s="122"/>
+      <c r="P37" s="344"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="268" t="s">
         <v>75</v>
       </c>
-      <c r="T37" s="258" t="s">
+      <c r="T37" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="U37" s="258" t="s">
+      <c r="U37" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="V37" s="258" t="s">
+      <c r="V37" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="W37" s="259" t="s">
+      <c r="W37" s="265" t="s">
         <v>75</v>
       </c>
-      <c r="X37" s="260" t="s">
+      <c r="X37" s="266" t="s">
         <v>76</v>
       </c>
-      <c r="Y37" s="260" t="s">
+      <c r="Y37" s="266" t="s">
         <v>76</v>
       </c>
-      <c r="Z37" s="261" t="s">
+      <c r="Z37" s="267" t="s">
         <v>76</v>
       </c>
-      <c r="AA37" s="261" t="s">
+      <c r="AA37" s="267" t="s">
         <v>76</v>
       </c>
-      <c r="AB37" s="120" t="s">
+      <c r="AB37" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="AC37" s="327" t="s">
+      <c r="AC37" s="336" t="s">
         <v>75</v>
       </c>
-      <c r="AD37" s="328" t="s">
+      <c r="AD37" s="337" t="s">
         <v>75</v>
       </c>
-      <c r="AE37" s="332"/>
-      <c r="AF37" s="148"/>
-      <c r="AG37" s="140"/>
-      <c r="AH37" s="140"/>
-      <c r="AI37" s="140"/>
-      <c r="AJ37" s="80"/>
-      <c r="AK37" s="140"/>
-      <c r="AL37" s="140"/>
-      <c r="AM37" s="27" t="s">
+      <c r="AE37" s="348"/>
+      <c r="AF37" s="153"/>
+      <c r="AG37" s="145"/>
+      <c r="AH37" s="145"/>
+      <c r="AI37" s="145"/>
+      <c r="AJ37" s="85"/>
+      <c r="AK37" s="145"/>
+      <c r="AL37" s="145"/>
+      <c r="AM37" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
+    <row r="38" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="347" t="s">
+      <c r="B38" s="366" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="348" t="s">
+      <c r="C38" s="367" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="263" t="s">
+      <c r="D38" s="269" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="263" t="s">
+      <c r="E38" s="269" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="263" t="s">
+      <c r="F38" s="269" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="263" t="s">
+      <c r="G38" s="269" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="293"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="332"/>
-      <c r="Q38" s="148"/>
-      <c r="R38" s="140"/>
-      <c r="S38" s="140"/>
-      <c r="T38" s="140"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="80"/>
-      <c r="W38" s="117"/>
-      <c r="X38" s="140"/>
-      <c r="Y38" s="140"/>
-      <c r="Z38" s="140"/>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="80"/>
-      <c r="AD38" s="115"/>
-      <c r="AE38" s="332"/>
-      <c r="AF38" s="148"/>
-      <c r="AG38" s="140"/>
-      <c r="AH38" s="140"/>
-      <c r="AI38" s="140"/>
-      <c r="AJ38" s="80"/>
-      <c r="AK38" s="140"/>
-      <c r="AL38" s="186"/>
-      <c r="AM38" s="56" t="s">
+      <c r="H38" s="301"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="344"/>
+      <c r="Q38" s="153"/>
+      <c r="R38" s="145"/>
+      <c r="S38" s="145"/>
+      <c r="T38" s="145"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="122"/>
+      <c r="X38" s="145"/>
+      <c r="Y38" s="145"/>
+      <c r="Z38" s="145"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="114"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="120"/>
+      <c r="AE38" s="344"/>
+      <c r="AF38" s="153"/>
+      <c r="AG38" s="145"/>
+      <c r="AH38" s="145"/>
+      <c r="AI38" s="145"/>
+      <c r="AJ38" s="85"/>
+      <c r="AK38" s="145"/>
+      <c r="AL38" s="191"/>
+      <c r="AM38" s="60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+    <row r="39" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="349" t="s">
+      <c r="B39" s="68"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="368" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="349" t="s">
+      <c r="E39" s="368" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="332"/>
-      <c r="Q39" s="148"/>
-      <c r="R39" s="140"/>
-      <c r="S39" s="140"/>
-      <c r="T39" s="140"/>
-      <c r="U39" s="80"/>
-      <c r="V39" s="80"/>
-      <c r="W39" s="117"/>
-      <c r="X39" s="140"/>
-      <c r="Y39" s="140"/>
-      <c r="Z39" s="140"/>
-      <c r="AA39" s="80"/>
-      <c r="AB39" s="109"/>
-      <c r="AC39" s="80"/>
-      <c r="AD39" s="115"/>
-      <c r="AE39" s="332"/>
-      <c r="AF39" s="148"/>
-      <c r="AG39" s="140"/>
-      <c r="AH39" s="140"/>
-      <c r="AI39" s="140"/>
-      <c r="AJ39" s="80"/>
-      <c r="AK39" s="140"/>
-      <c r="AL39" s="186"/>
-    </row>
-    <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="344"/>
+      <c r="Q39" s="153"/>
+      <c r="R39" s="145"/>
+      <c r="S39" s="145"/>
+      <c r="T39" s="145"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="122"/>
+      <c r="X39" s="145"/>
+      <c r="Y39" s="145"/>
+      <c r="Z39" s="145"/>
+      <c r="AA39" s="85"/>
+      <c r="AB39" s="114"/>
+      <c r="AC39" s="85"/>
+      <c r="AD39" s="120"/>
+      <c r="AE39" s="344"/>
+      <c r="AF39" s="153"/>
+      <c r="AG39" s="145"/>
+      <c r="AH39" s="145"/>
+      <c r="AI39" s="145"/>
+      <c r="AJ39" s="85"/>
+      <c r="AK39" s="145"/>
+      <c r="AL39" s="191"/>
+    </row>
+    <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="98"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="345"/>
-      <c r="G40" s="346"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="332"/>
-      <c r="Q40" s="148"/>
-      <c r="R40" s="140"/>
-      <c r="S40" s="140"/>
-      <c r="T40" s="140"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="80"/>
-      <c r="W40" s="117"/>
-      <c r="X40" s="140"/>
-      <c r="Y40" s="140"/>
-      <c r="Z40" s="140"/>
-      <c r="AA40" s="80"/>
-      <c r="AB40" s="125"/>
-      <c r="AC40" s="80"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="332"/>
-      <c r="AF40" s="148"/>
-      <c r="AG40" s="140"/>
-      <c r="AH40" s="140"/>
-      <c r="AI40" s="140"/>
-      <c r="AJ40" s="80"/>
-      <c r="AK40" s="140"/>
-      <c r="AL40" s="140"/>
-    </row>
-    <row r="41" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="B40" s="103"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="364"/>
+      <c r="G40" s="365"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="344"/>
+      <c r="Q40" s="153"/>
+      <c r="R40" s="145"/>
+      <c r="S40" s="145"/>
+      <c r="T40" s="145"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="122"/>
+      <c r="X40" s="145"/>
+      <c r="Y40" s="145"/>
+      <c r="Z40" s="145"/>
+      <c r="AA40" s="85"/>
+      <c r="AB40" s="130"/>
+      <c r="AC40" s="298"/>
+      <c r="AD40" s="299"/>
+      <c r="AE40" s="348"/>
+      <c r="AF40" s="153"/>
+      <c r="AG40" s="145"/>
+      <c r="AH40" s="145"/>
+      <c r="AI40" s="145"/>
+      <c r="AJ40" s="85"/>
+      <c r="AK40" s="145"/>
+      <c r="AL40" s="145"/>
+    </row>
+    <row r="41" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="169" t="s">
+      <c r="B41" s="69"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="P41" s="334"/>
-      <c r="Q41" s="139"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="160"/>
-      <c r="U41" s="164"/>
-      <c r="V41" s="164"/>
-      <c r="W41" s="178"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="264" t="s">
+      <c r="P41" s="346"/>
+      <c r="Q41" s="144"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="165"/>
+      <c r="U41" s="169"/>
+      <c r="V41" s="169"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="270" t="s">
         <v>75</v>
       </c>
-      <c r="AA41" s="265" t="s">
+      <c r="AA41" s="271" t="s">
         <v>75</v>
       </c>
-      <c r="AB41" s="82"/>
-      <c r="AC41" s="265" t="s">
+      <c r="AB41" s="87"/>
+      <c r="AC41" s="271" t="s">
         <v>75</v>
       </c>
-      <c r="AD41" s="266" t="s">
+      <c r="AD41" s="272" t="s">
         <v>75</v>
       </c>
-      <c r="AE41" s="333"/>
-      <c r="AF41" s="139"/>
-      <c r="AG41" s="68"/>
-      <c r="AH41" s="82"/>
-      <c r="AI41" s="68"/>
-      <c r="AJ41" s="82"/>
-      <c r="AK41" s="82"/>
-      <c r="AL41" s="68"/>
-    </row>
-    <row r="42" spans="1:39" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="49" t="s">
+      <c r="AE41" s="361"/>
+      <c r="AF41" s="144"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="87"/>
+      <c r="AI41" s="73"/>
+      <c r="AJ41" s="87"/>
+      <c r="AK41" s="87"/>
+      <c r="AL41" s="73"/>
+    </row>
+    <row r="42" spans="1:39" ht="22.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="115"/>
-      <c r="P42" s="135"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="121"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="109"/>
-      <c r="U42" s="300" t="s">
+      <c r="B42" s="68"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="140"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="V42" s="301" t="s">
+      <c r="V42" s="309" t="s">
         <v>72</v>
       </c>
-      <c r="W42" s="302" t="s">
+      <c r="W42" s="310" t="s">
         <v>72</v>
       </c>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="121"/>
-      <c r="Z42" s="315" t="s">
+      <c r="X42" s="126"/>
+      <c r="Y42" s="126"/>
+      <c r="Z42" s="323" t="s">
         <v>68</v>
       </c>
-      <c r="AA42" s="315" t="s">
+      <c r="AA42" s="323" t="s">
         <v>68</v>
       </c>
-      <c r="AB42" s="315" t="s">
+      <c r="AB42" s="323" t="s">
         <v>68</v>
       </c>
-      <c r="AC42" s="109"/>
-      <c r="AD42" s="115"/>
-      <c r="AE42" s="135"/>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="121"/>
-      <c r="AH42" s="109"/>
-      <c r="AI42" s="109"/>
-      <c r="AJ42" s="315" t="s">
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="120"/>
+      <c r="AE42" s="140"/>
+      <c r="AF42" s="71"/>
+      <c r="AG42" s="126"/>
+      <c r="AH42" s="114"/>
+      <c r="AI42" s="114"/>
+      <c r="AJ42" s="323" t="s">
         <v>77</v>
       </c>
-      <c r="AK42" s="315" t="s">
+      <c r="AK42" s="323" t="s">
         <v>77</v>
       </c>
-      <c r="AL42" s="316" t="s">
+      <c r="AL42" s="324" t="s">
         <v>77</v>
       </c>
       <c r="AM42" s="24"/>
     </row>
-    <row r="43" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="297" t="s">
+      <c r="B43" s="104"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="297" t="s">
+      <c r="E43" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="297" t="s">
+      <c r="F43" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="297" t="s">
+      <c r="G43" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="104"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="298" t="s">
+      <c r="H43" s="109"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="306" t="s">
         <v>68</v>
       </c>
-      <c r="O43" s="299" t="s">
+      <c r="O43" s="307" t="s">
         <v>68</v>
       </c>
-      <c r="P43" s="332"/>
-      <c r="Q43" s="148"/>
-      <c r="R43" s="140"/>
-      <c r="S43" s="80"/>
-      <c r="T43" s="161"/>
-      <c r="U43" s="80"/>
-      <c r="V43" s="109"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="140"/>
-      <c r="Y43" s="140"/>
-      <c r="Z43" s="80"/>
-      <c r="AA43" s="80"/>
-      <c r="AB43" s="80"/>
-      <c r="AC43" s="80"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="332"/>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="121"/>
-      <c r="AH43" s="109"/>
-      <c r="AI43" s="80"/>
-      <c r="AJ43" s="80"/>
-      <c r="AK43" s="80"/>
-      <c r="AL43" s="140"/>
+      <c r="P43" s="348"/>
+      <c r="Q43" s="153"/>
+      <c r="R43" s="145"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="166"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="122"/>
+      <c r="X43" s="145"/>
+      <c r="Y43" s="145"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="85"/>
+      <c r="AC43" s="85"/>
+      <c r="AD43" s="122"/>
+      <c r="AE43" s="344"/>
+      <c r="AF43" s="71"/>
+      <c r="AG43" s="126"/>
+      <c r="AH43" s="114"/>
+      <c r="AI43" s="85"/>
+      <c r="AJ43" s="85"/>
+      <c r="AK43" s="85"/>
+      <c r="AL43" s="145"/>
       <c r="AM43" s="24"/>
     </row>
-    <row r="44" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="46" t="s">
+    <row r="44" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="99" t="s">
+      <c r="B44" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="77" t="s">
+      <c r="E44" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="77" t="s">
+      <c r="F44" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="77" t="s">
+      <c r="G44" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="104"/>
-      <c r="I44" s="148" t="s">
+      <c r="H44" s="109"/>
+      <c r="I44" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="140" t="s">
+      <c r="J44" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="K44" s="80" t="s">
+      <c r="K44" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="L44" s="80" t="s">
+      <c r="L44" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="M44" s="80" t="s">
+      <c r="M44" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="N44" s="80" t="s">
+      <c r="N44" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="O44" s="117" t="s">
+      <c r="O44" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="P44" s="332"/>
-      <c r="Q44" s="148"/>
-      <c r="R44" s="140"/>
-      <c r="S44" s="80" t="s">
+      <c r="P44" s="344"/>
+      <c r="Q44" s="153"/>
+      <c r="R44" s="145"/>
+      <c r="S44" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="T44" s="80" t="s">
+      <c r="T44" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="U44" s="298" t="s">
+      <c r="U44" s="306" t="s">
         <v>72</v>
       </c>
-      <c r="V44" s="303" t="s">
+      <c r="V44" s="311" t="s">
         <v>72</v>
       </c>
-      <c r="W44" s="299" t="s">
+      <c r="W44" s="307" t="s">
         <v>72</v>
       </c>
-      <c r="X44" s="140" t="s">
+      <c r="X44" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="Y44" s="140" t="s">
+      <c r="Y44" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="Z44" s="80" t="s">
+      <c r="Z44" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AA44" s="80" t="s">
+      <c r="AA44" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AB44" s="80" t="s">
+      <c r="AB44" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AC44" s="80"/>
-      <c r="AD44" s="117"/>
-      <c r="AE44" s="332"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="121"/>
-      <c r="AH44" s="109"/>
-      <c r="AI44" s="80"/>
-      <c r="AJ44" s="80"/>
-      <c r="AK44" s="80"/>
-      <c r="AL44" s="140"/>
+      <c r="AC44" s="85"/>
+      <c r="AD44" s="122"/>
+      <c r="AE44" s="344"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="126"/>
+      <c r="AH44" s="114"/>
+      <c r="AI44" s="85"/>
+      <c r="AJ44" s="85"/>
+      <c r="AK44" s="85"/>
+      <c r="AL44" s="145"/>
       <c r="AM44" s="24"/>
     </row>
-    <row r="45" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+    <row r="45" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="307" t="s">
+      <c r="B45" s="69"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="315" t="s">
         <v>77</v>
       </c>
-      <c r="J45" s="308" t="s">
+      <c r="J45" s="316" t="s">
         <v>77</v>
       </c>
-      <c r="K45" s="298" t="s">
+      <c r="K45" s="306" t="s">
         <v>77</v>
       </c>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="332"/>
-      <c r="Q45" s="148"/>
-      <c r="R45" s="140"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="161"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="125"/>
-      <c r="W45" s="117"/>
-      <c r="X45" s="140"/>
-      <c r="Y45" s="140"/>
-      <c r="Z45" s="80"/>
-      <c r="AA45" s="80"/>
-      <c r="AB45" s="161"/>
-      <c r="AC45" s="80"/>
-      <c r="AD45" s="117"/>
-      <c r="AE45" s="330"/>
-      <c r="AF45" s="147"/>
-      <c r="AG45" s="142"/>
-      <c r="AH45" s="125"/>
-      <c r="AI45" s="80"/>
-      <c r="AJ45" s="80"/>
-      <c r="AK45" s="80"/>
-      <c r="AL45" s="140"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="344"/>
+      <c r="Q45" s="153"/>
+      <c r="R45" s="145"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="166"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="130"/>
+      <c r="W45" s="122"/>
+      <c r="X45" s="145"/>
+      <c r="Y45" s="145"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="166"/>
+      <c r="AC45" s="85"/>
+      <c r="AD45" s="122"/>
+      <c r="AE45" s="342"/>
+      <c r="AF45" s="152"/>
+      <c r="AG45" s="147"/>
+      <c r="AH45" s="130"/>
+      <c r="AI45" s="85"/>
+      <c r="AJ45" s="85"/>
+      <c r="AK45" s="85"/>
+      <c r="AL45" s="145"/>
       <c r="AM45" s="24"/>
     </row>
-    <row r="46" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="71" t="s">
+      <c r="B46" s="65"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="71" t="s">
+      <c r="E46" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="71" t="s">
+      <c r="F46" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="71"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="131"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="122" t="s">
+      <c r="G46" s="76"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="149"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="M46" s="122" t="s">
+      <c r="M46" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="N46" s="122" t="s">
+      <c r="N46" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="O46" s="118" t="s">
+      <c r="O46" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="P46" s="133"/>
-      <c r="Q46" s="144"/>
-      <c r="R46" s="131"/>
-      <c r="S46" s="122"/>
-      <c r="T46" s="122" t="s">
+      <c r="P46" s="138"/>
+      <c r="Q46" s="149"/>
+      <c r="R46" s="136"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="U46" s="122" t="s">
+      <c r="U46" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="V46" s="122" t="s">
+      <c r="V46" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="W46" s="118" t="s">
+      <c r="W46" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="X46" s="131"/>
-      <c r="Y46" s="176"/>
-      <c r="Z46" s="122" t="s">
+      <c r="X46" s="136"/>
+      <c r="Y46" s="181"/>
+      <c r="Z46" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="AA46" s="122" t="s">
+      <c r="AA46" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="AB46" s="122" t="s">
+      <c r="AB46" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="AC46" s="122" t="s">
+      <c r="AC46" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="AD46" s="118" t="s">
+      <c r="AD46" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="AE46" s="133"/>
-      <c r="AF46" s="144"/>
-      <c r="AG46" s="131"/>
-      <c r="AH46" s="122" t="s">
+      <c r="AE46" s="138"/>
+      <c r="AF46" s="149"/>
+      <c r="AG46" s="136"/>
+      <c r="AH46" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="AI46" s="122" t="s">
+      <c r="AI46" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="AJ46" s="122" t="s">
+      <c r="AJ46" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="AK46" s="122" t="s">
+      <c r="AK46" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="AL46" s="131"/>
-    </row>
-    <row r="47" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
+      <c r="AL46" s="136"/>
+    </row>
+    <row r="47" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="109"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="109"/>
-      <c r="N47" s="109"/>
-      <c r="O47" s="115"/>
-      <c r="P47" s="135"/>
-      <c r="Q47" s="66"/>
-      <c r="R47" s="121"/>
-      <c r="S47" s="109"/>
-      <c r="T47" s="109"/>
-      <c r="U47" s="109"/>
-      <c r="V47" s="109" t="s">
+      <c r="B47" s="68"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="140"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="126"/>
+      <c r="S47" s="114"/>
+      <c r="T47" s="114"/>
+      <c r="U47" s="114"/>
+      <c r="V47" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="W47" s="115" t="s">
+      <c r="W47" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="X47" s="121"/>
-      <c r="Y47" s="121"/>
-      <c r="Z47" s="109"/>
-      <c r="AA47" s="109"/>
-      <c r="AB47" s="109"/>
-      <c r="AC47" s="109"/>
-      <c r="AD47" s="115"/>
-      <c r="AE47" s="135"/>
-      <c r="AF47" s="66"/>
-      <c r="AG47" s="121"/>
-      <c r="AH47" s="109"/>
-      <c r="AI47" s="109"/>
-      <c r="AJ47" s="109"/>
-      <c r="AK47" s="109"/>
-      <c r="AL47" s="121"/>
-    </row>
-    <row r="48" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X47" s="126"/>
+      <c r="Y47" s="126"/>
+      <c r="Z47" s="114"/>
+      <c r="AA47" s="114"/>
+      <c r="AB47" s="114"/>
+      <c r="AC47" s="114"/>
+      <c r="AD47" s="120"/>
+      <c r="AE47" s="140"/>
+      <c r="AF47" s="71"/>
+      <c r="AG47" s="126"/>
+      <c r="AH47" s="114"/>
+      <c r="AI47" s="114"/>
+      <c r="AJ47" s="114"/>
+      <c r="AK47" s="114"/>
+      <c r="AL47" s="126"/>
+    </row>
+    <row r="48" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="9"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="85" t="s">
+      <c r="B48" s="104"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="82" t="s">
+      <c r="E48" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="82" t="s">
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="L48" s="82" t="s">
+      <c r="L48" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="M48" s="82" t="s">
+      <c r="M48" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="N48" s="82" t="s">
+      <c r="N48" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="O48" s="114" t="s">
+      <c r="O48" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="P48" s="331"/>
-      <c r="Q48" s="139"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82" t="s">
+      <c r="P48" s="343"/>
+      <c r="Q48" s="144"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="V48" s="82" t="s">
+      <c r="V48" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="W48" s="114" t="s">
+      <c r="W48" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="X48" s="68"/>
-      <c r="Y48" s="68"/>
-      <c r="Z48" s="82"/>
-      <c r="AA48" s="82"/>
-      <c r="AB48" s="82"/>
-      <c r="AC48" s="82"/>
-      <c r="AD48" s="114"/>
-      <c r="AE48" s="331"/>
-      <c r="AF48" s="139"/>
-      <c r="AG48" s="68"/>
-      <c r="AH48" s="82"/>
-      <c r="AI48" s="82"/>
-      <c r="AJ48" s="82"/>
-      <c r="AK48" s="82"/>
-      <c r="AL48" s="68"/>
-    </row>
-    <row r="49" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="87"/>
+      <c r="AB48" s="87"/>
+      <c r="AC48" s="87"/>
+      <c r="AD48" s="119"/>
+      <c r="AE48" s="343"/>
+      <c r="AF48" s="144"/>
+      <c r="AG48" s="73"/>
+      <c r="AH48" s="87"/>
+      <c r="AI48" s="87"/>
+      <c r="AJ48" s="87"/>
+      <c r="AK48" s="87"/>
+      <c r="AL48" s="73"/>
+    </row>
+    <row r="49" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="96" t="s">
+      <c r="C49" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="86" t="s">
+      <c r="D49" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="86" t="s">
+      <c r="F49" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="71" t="s">
+      <c r="G49" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="89"/>
-      <c r="I49" s="144" t="s">
+      <c r="H49" s="94"/>
+      <c r="I49" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="J49" s="133" t="s">
+      <c r="J49" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="K49" s="122" t="s">
+      <c r="K49" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="L49" s="133" t="s">
+      <c r="L49" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="M49" s="122" t="s">
+      <c r="M49" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="N49" s="122" t="s">
+      <c r="N49" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="O49" s="118" t="s">
+      <c r="O49" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="P49" s="134"/>
-      <c r="Q49" s="288" t="s">
+      <c r="P49" s="139"/>
+      <c r="Q49" s="294" t="s">
         <v>109</v>
       </c>
-      <c r="R49" s="187" t="s">
+      <c r="R49" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="S49" s="289" t="s">
+      <c r="S49" s="295" t="s">
         <v>109</v>
       </c>
-      <c r="T49" s="290" t="s">
+      <c r="T49" s="296" t="s">
         <v>109</v>
       </c>
-      <c r="U49" s="289" t="s">
+      <c r="U49" s="295" t="s">
         <v>109</v>
       </c>
-      <c r="V49" s="290" t="s">
+      <c r="V49" s="296" t="s">
         <v>109</v>
       </c>
-      <c r="W49" s="291" t="s">
+      <c r="W49" s="297" t="s">
         <v>109</v>
       </c>
-      <c r="X49" s="129"/>
-      <c r="Y49" s="129"/>
-      <c r="Z49" s="162"/>
-      <c r="AA49" s="290" t="s">
+      <c r="X49" s="134"/>
+      <c r="Y49" s="134"/>
+      <c r="Z49" s="167"/>
+      <c r="AA49" s="296" t="s">
         <v>109</v>
       </c>
-      <c r="AB49" s="290" t="s">
+      <c r="AB49" s="296" t="s">
         <v>109</v>
       </c>
-      <c r="AC49" s="162" t="s">
+      <c r="AC49" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="AD49" s="179" t="s">
+      <c r="AD49" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="AE49" s="158"/>
-      <c r="AF49" s="288" t="s">
+      <c r="AE49" s="163"/>
+      <c r="AF49" s="294" t="s">
         <v>109</v>
       </c>
-      <c r="AG49" s="187" t="s">
+      <c r="AG49" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="AH49" s="290" t="s">
+      <c r="AH49" s="296" t="s">
         <v>109</v>
       </c>
-      <c r="AI49" s="290" t="s">
+      <c r="AI49" s="296" t="s">
         <v>109</v>
       </c>
-      <c r="AJ49" s="290" t="s">
+      <c r="AJ49" s="296" t="s">
         <v>109</v>
       </c>
-      <c r="AK49" s="290" t="s">
+      <c r="AK49" s="296" t="s">
         <v>109</v>
       </c>
-      <c r="AL49" s="292" t="s">
+      <c r="AL49" s="300" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
+      <c r="AM49" s="25"/>
+    </row>
+    <row r="50" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="101" t="s">
+      <c r="B50" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="87"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="138" t="s">
+      <c r="D50" s="92"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="J50" s="134" t="s">
+      <c r="J50" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="K50" s="120" t="s">
+      <c r="K50" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="L50" s="134" t="s">
+      <c r="L50" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="M50" s="120" t="s">
+      <c r="M50" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="N50" s="120"/>
-      <c r="O50" s="113"/>
-      <c r="P50" s="134"/>
-      <c r="Q50" s="150"/>
-      <c r="R50" s="129"/>
-      <c r="S50" s="166" t="s">
+      <c r="N50" s="125"/>
+      <c r="O50" s="118"/>
+      <c r="P50" s="139"/>
+      <c r="Q50" s="155"/>
+      <c r="R50" s="134"/>
+      <c r="S50" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="T50" s="163" t="s">
+      <c r="T50" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="U50" s="123"/>
-      <c r="V50" s="166"/>
-      <c r="W50" s="180"/>
-      <c r="X50" s="129" t="s">
+      <c r="U50" s="128"/>
+      <c r="V50" s="171"/>
+      <c r="W50" s="185"/>
+      <c r="X50" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="Y50" s="129" t="s">
+      <c r="Y50" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="Z50" s="166" t="s">
+      <c r="Z50" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="AA50" s="166" t="s">
+      <c r="AA50" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="AB50" s="166" t="s">
+      <c r="AB50" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="AC50" s="166"/>
-      <c r="AD50" s="180"/>
-      <c r="AE50" s="158"/>
-      <c r="AF50" s="150"/>
-      <c r="AG50" s="129"/>
-      <c r="AH50" s="158"/>
-      <c r="AI50" s="166"/>
-      <c r="AJ50" s="166"/>
-      <c r="AK50" s="166"/>
-      <c r="AL50" s="163"/>
-      <c r="AM50" s="37"/>
-    </row>
-    <row r="51" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="AC50" s="171"/>
+      <c r="AD50" s="185"/>
+      <c r="AE50" s="163"/>
+      <c r="AF50" s="155"/>
+      <c r="AG50" s="134"/>
+      <c r="AH50" s="163"/>
+      <c r="AI50" s="171"/>
+      <c r="AJ50" s="171"/>
+      <c r="AK50" s="171"/>
+      <c r="AL50" s="168"/>
+      <c r="AM50" s="45"/>
+    </row>
+    <row r="51" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="120"/>
-      <c r="O51" s="113"/>
-      <c r="P51" s="134"/>
-      <c r="Q51" s="150"/>
-      <c r="R51" s="129"/>
-      <c r="S51" s="166"/>
-      <c r="T51" s="163">
+      <c r="B51" s="106"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="139"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="139"/>
+      <c r="M51" s="125"/>
+      <c r="N51" s="125"/>
+      <c r="O51" s="118"/>
+      <c r="P51" s="139"/>
+      <c r="Q51" s="155"/>
+      <c r="R51" s="134"/>
+      <c r="S51" s="171"/>
+      <c r="T51" s="168">
         <v>22</v>
       </c>
-      <c r="U51" s="304" t="s">
+      <c r="U51" s="312" t="s">
         <v>72</v>
       </c>
-      <c r="V51" s="305" t="s">
+      <c r="V51" s="313" t="s">
         <v>72</v>
       </c>
-      <c r="W51" s="306" t="s">
+      <c r="W51" s="314" t="s">
         <v>72</v>
       </c>
-      <c r="X51" s="129"/>
-      <c r="Y51" s="129"/>
-      <c r="Z51" s="166"/>
-      <c r="AA51" s="166"/>
-      <c r="AB51" s="166"/>
-      <c r="AC51" s="166"/>
-      <c r="AD51" s="180"/>
-      <c r="AE51" s="158"/>
-      <c r="AF51" s="150"/>
-      <c r="AG51" s="129"/>
-      <c r="AH51" s="158"/>
-      <c r="AI51" s="166"/>
-      <c r="AJ51" s="166" t="s">
+      <c r="X51" s="134"/>
+      <c r="Y51" s="134"/>
+      <c r="Z51" s="171"/>
+      <c r="AA51" s="171"/>
+      <c r="AB51" s="171"/>
+      <c r="AC51" s="171"/>
+      <c r="AD51" s="185"/>
+      <c r="AE51" s="163"/>
+      <c r="AF51" s="155"/>
+      <c r="AG51" s="134"/>
+      <c r="AH51" s="163"/>
+      <c r="AI51" s="171"/>
+      <c r="AJ51" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="AK51" s="166" t="s">
+      <c r="AK51" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="AL51" s="163" t="s">
+      <c r="AL51" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="AM51" s="37"/>
-    </row>
-    <row r="52" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
+      <c r="AM51" s="45"/>
+    </row>
+    <row r="52" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="101" t="s">
+      <c r="B52" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="87" t="s">
+      <c r="D52" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="71" t="s">
+      <c r="E52" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="71" t="s">
+      <c r="G52" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="89" t="s">
+      <c r="H52" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="138" t="s">
+      <c r="I52" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="J52" s="134" t="s">
+      <c r="J52" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="K52" s="120" t="s">
+      <c r="K52" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="L52" s="134" t="s">
+      <c r="L52" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="M52" s="120"/>
-      <c r="N52" s="120"/>
-      <c r="O52" s="113"/>
-      <c r="P52" s="134"/>
-      <c r="Q52" s="150" t="s">
+      <c r="M52" s="125"/>
+      <c r="N52" s="125"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="139"/>
+      <c r="Q52" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="R52" s="129" t="s">
+      <c r="R52" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="S52" s="166" t="s">
+      <c r="S52" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="T52" s="163" t="s">
+      <c r="T52" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="U52" s="123" t="s">
+      <c r="U52" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="V52" s="166" t="s">
+      <c r="V52" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="W52" s="180" t="s">
+      <c r="W52" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="X52" s="129" t="s">
+      <c r="X52" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="Y52" s="129" t="s">
+      <c r="Y52" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="Z52" s="166" t="s">
+      <c r="Z52" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="AA52" s="166" t="s">
+      <c r="AA52" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="AB52" s="166" t="s">
+      <c r="AB52" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="AC52" s="166" t="s">
+      <c r="AC52" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="AD52" s="180" t="s">
+      <c r="AD52" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="AE52" s="158"/>
-      <c r="AF52" s="150" t="s">
+      <c r="AE52" s="163"/>
+      <c r="AF52" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="AG52" s="129" t="s">
+      <c r="AG52" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="AH52" s="158" t="s">
+      <c r="AH52" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="AI52" s="166" t="s">
+      <c r="AI52" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="AJ52" s="166"/>
-      <c r="AK52" s="166"/>
-      <c r="AL52" s="163"/>
-      <c r="AM52" s="42"/>
-    </row>
-    <row r="53" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ52" s="171"/>
+      <c r="AK52" s="171"/>
+      <c r="AL52" s="168"/>
+      <c r="AM52" s="46"/>
+    </row>
+    <row r="53" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="76" t="s">
+      <c r="E53" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="76" t="s">
+      <c r="F53" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="G53" s="76" t="s">
+      <c r="G53" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="90" t="s">
+      <c r="H53" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="I53" s="66"/>
-      <c r="J53" s="135"/>
-      <c r="K53" s="109"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="109"/>
-      <c r="O53" s="115"/>
-      <c r="P53" s="135"/>
-      <c r="Q53" s="150"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="123"/>
-      <c r="T53" s="129"/>
-      <c r="U53" s="123"/>
-      <c r="V53" s="123"/>
-      <c r="W53" s="174"/>
-      <c r="X53" s="129" t="s">
+      <c r="I53" s="71"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="140"/>
+      <c r="Q53" s="155"/>
+      <c r="R53" s="134"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="134"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="128"/>
+      <c r="W53" s="179"/>
+      <c r="X53" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="Y53" s="129" t="s">
+      <c r="Y53" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="Z53" s="123" t="s">
+      <c r="Z53" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="AA53" s="123" t="s">
+      <c r="AA53" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="AB53" s="123" t="s">
+      <c r="AB53" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="AC53" s="123" t="s">
+      <c r="AC53" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="AD53" s="174" t="s">
+      <c r="AD53" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="AE53" s="154"/>
-      <c r="AF53" s="66"/>
-      <c r="AG53" s="121"/>
-      <c r="AH53" s="154"/>
-      <c r="AI53" s="123"/>
-      <c r="AJ53" s="123"/>
-      <c r="AK53" s="123"/>
-      <c r="AL53" s="129"/>
-      <c r="AM53" s="42"/>
-    </row>
-    <row r="54" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE53" s="159"/>
+      <c r="AF53" s="71"/>
+      <c r="AG53" s="126"/>
+      <c r="AH53" s="159"/>
+      <c r="AI53" s="128"/>
+      <c r="AJ53" s="128"/>
+      <c r="AK53" s="128"/>
+      <c r="AL53" s="134"/>
+      <c r="AM53" s="46"/>
+      <c r="AN53" s="25"/>
+    </row>
+    <row r="54" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="70" t="s">
+      <c r="D54" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="76" t="s">
+      <c r="E54" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="76" t="s">
+      <c r="F54" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="G54" s="76" t="s">
+      <c r="G54" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="H54" s="90" t="s">
+      <c r="H54" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="I54" s="66" t="s">
+      <c r="I54" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="121" t="s">
+      <c r="J54" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="109" t="s">
+      <c r="K54" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="L54" s="109"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="109"/>
-      <c r="O54" s="115"/>
-      <c r="P54" s="135"/>
-      <c r="Q54" s="150" t="s">
+      <c r="L54" s="114"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="114"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="140"/>
+      <c r="Q54" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="R54" s="121" t="s">
+      <c r="R54" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="S54" s="129" t="s">
+      <c r="S54" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="T54" s="129" t="s">
+      <c r="T54" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="U54" s="129" t="s">
+      <c r="U54" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="V54" s="123" t="s">
+      <c r="V54" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="W54" s="174" t="s">
+      <c r="W54" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="X54" s="129" t="s">
+      <c r="X54" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="Y54" s="129" t="s">
+      <c r="Y54" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="Z54" s="129" t="s">
+      <c r="Z54" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="AA54" s="123" t="s">
+      <c r="AA54" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="AB54" s="123" t="s">
+      <c r="AB54" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="AC54" s="123" t="s">
+      <c r="AC54" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="AD54" s="174" t="s">
+      <c r="AD54" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="AE54" s="154"/>
-      <c r="AF54" s="150" t="s">
+      <c r="AE54" s="159"/>
+      <c r="AF54" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="AG54" s="129" t="s">
+      <c r="AG54" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="AH54" s="154" t="s">
+      <c r="AH54" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="AI54" s="123" t="s">
+      <c r="AI54" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="AJ54" s="123"/>
-      <c r="AK54" s="129"/>
-      <c r="AL54" s="129"/>
-      <c r="AM54" s="43"/>
-    </row>
-    <row r="55" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="53" t="s">
+      <c r="AJ54" s="128"/>
+      <c r="AK54" s="134"/>
+      <c r="AL54" s="134"/>
+      <c r="AM54" s="47"/>
+    </row>
+    <row r="55" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="123"/>
-      <c r="L55" s="129"/>
-      <c r="M55" s="129"/>
-      <c r="N55" s="123"/>
-      <c r="O55" s="170"/>
-      <c r="P55" s="335"/>
-      <c r="Q55" s="150"/>
-      <c r="R55" s="129"/>
-      <c r="S55" s="129"/>
-      <c r="T55" s="123"/>
-      <c r="U55" s="129" t="s">
+      <c r="B55" s="68"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="134"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="175"/>
+      <c r="P55" s="347"/>
+      <c r="Q55" s="155"/>
+      <c r="R55" s="134"/>
+      <c r="S55" s="134"/>
+      <c r="T55" s="128"/>
+      <c r="U55" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="V55" s="123" t="s">
+      <c r="V55" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="W55" s="174" t="s">
+      <c r="W55" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="X55" s="129" t="s">
+      <c r="X55" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="Y55" s="129" t="s">
+      <c r="Y55" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="Z55" s="129" t="s">
+      <c r="Z55" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="AA55" s="129" t="s">
+      <c r="AA55" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="AB55" s="76" t="s">
+      <c r="AB55" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="AC55" s="76" t="s">
+      <c r="AC55" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="AD55" s="88"/>
-      <c r="AE55" s="69"/>
-      <c r="AF55" s="150" t="s">
+      <c r="AD55" s="93"/>
+      <c r="AE55" s="74"/>
+      <c r="AF55" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="AG55" s="129" t="s">
+      <c r="AG55" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="AH55" s="123" t="s">
+      <c r="AH55" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="AI55" s="123" t="s">
+      <c r="AI55" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="AJ55" s="123" t="s">
+      <c r="AJ55" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="AK55" s="123"/>
-      <c r="AL55" s="129"/>
-    </row>
-    <row r="56" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK55" s="128"/>
+      <c r="AL55" s="134"/>
+      <c r="AM55" s="25"/>
+    </row>
+    <row r="56" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="150" t="s">
+      <c r="B56" s="68"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="J56" s="129" t="s">
+      <c r="J56" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="K56" s="195" t="s">
+      <c r="K56" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="L56" s="196" t="s">
+      <c r="L56" s="201" t="s">
         <v>74</v>
       </c>
-      <c r="M56" s="123" t="s">
+      <c r="M56" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="N56" s="123" t="s">
+      <c r="N56" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="O56" s="170" t="s">
+      <c r="O56" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="P56" s="335"/>
-      <c r="Q56" s="150"/>
-      <c r="R56" s="129"/>
-      <c r="S56" s="129" t="s">
+      <c r="P56" s="347"/>
+      <c r="Q56" s="155"/>
+      <c r="R56" s="134"/>
+      <c r="S56" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="T56" s="123" t="s">
+      <c r="T56" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="U56" s="129" t="s">
+      <c r="U56" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="V56" s="123" t="s">
+      <c r="V56" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="W56" s="174" t="s">
+      <c r="W56" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="X56" s="129" t="s">
+      <c r="X56" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="Y56" s="129" t="s">
+      <c r="Y56" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="Z56" s="129" t="s">
+      <c r="Z56" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="AA56" s="129" t="s">
+      <c r="AA56" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="AB56" s="76" t="s">
+      <c r="AB56" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="AC56" s="76" t="s">
+      <c r="AC56" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="AD56" s="88"/>
-      <c r="AE56" s="338"/>
-      <c r="AF56" s="175" t="s">
+      <c r="AD56" s="93"/>
+      <c r="AE56" s="353"/>
+      <c r="AF56" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="AG56" s="129" t="s">
+      <c r="AG56" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="AH56" s="129" t="s">
+      <c r="AH56" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="AI56" s="163" t="s">
+      <c r="AI56" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="AJ56" s="163" t="s">
+      <c r="AJ56" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="AK56" s="163" t="s">
+      <c r="AK56" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="AL56" s="163"/>
-    </row>
-    <row r="57" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL56" s="168"/>
+      <c r="AM56" s="25"/>
+    </row>
+    <row r="57" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="129"/>
-      <c r="K57" s="123"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="136"/>
-      <c r="N57" s="123"/>
-      <c r="O57" s="170"/>
-      <c r="P57" s="335"/>
-      <c r="Q57" s="150" t="s">
+      <c r="B57" s="68"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="141"/>
+      <c r="N57" s="128"/>
+      <c r="O57" s="175"/>
+      <c r="P57" s="347"/>
+      <c r="Q57" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="R57" s="129" t="s">
+      <c r="R57" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="S57" s="129" t="s">
+      <c r="S57" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="T57" s="123" t="s">
+      <c r="T57" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="U57" s="129" t="s">
+      <c r="U57" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="V57" s="123" t="s">
+      <c r="V57" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="W57" s="174" t="s">
+      <c r="W57" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="X57" s="129"/>
-      <c r="Y57" s="129"/>
-      <c r="Z57" s="129"/>
-      <c r="AA57" s="129"/>
-      <c r="AB57" s="76"/>
-      <c r="AC57" s="76"/>
-      <c r="AD57" s="88"/>
-      <c r="AE57" s="338"/>
-      <c r="AF57" s="175" t="s">
+      <c r="X57" s="134"/>
+      <c r="Y57" s="134"/>
+      <c r="Z57" s="134"/>
+      <c r="AA57" s="134"/>
+      <c r="AB57" s="81"/>
+      <c r="AC57" s="81"/>
+      <c r="AD57" s="93"/>
+      <c r="AE57" s="353"/>
+      <c r="AF57" s="180" t="s">
         <v>77</v>
       </c>
-      <c r="AG57" s="129" t="s">
+      <c r="AG57" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="AH57" s="129" t="s">
+      <c r="AH57" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="AI57" s="163" t="s">
+      <c r="AI57" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="AJ57" s="163" t="s">
+      <c r="AJ57" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="AK57" s="163" t="s">
+      <c r="AK57" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="AL57" s="163" t="s">
+      <c r="AL57" s="168" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="1:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM57" s="25"/>
+    </row>
+    <row r="58" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="374" t="s">
+      <c r="B58" s="409" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="375" t="s">
+      <c r="C58" s="410" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="376" t="s">
+      <c r="D58" s="411" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="377" t="s">
+      <c r="E58" s="412" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="378" t="s">
+      <c r="F58" s="413" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="377" t="s">
+      <c r="G58" s="412" t="s">
         <v>70</v>
       </c>
-      <c r="H58" s="379"/>
-      <c r="I58" s="380" t="s">
+      <c r="H58" s="414"/>
+      <c r="I58" s="415" t="s">
         <v>70</v>
       </c>
-      <c r="J58" s="381" t="s">
+      <c r="J58" s="416" t="s">
         <v>70</v>
       </c>
-      <c r="K58" s="377" t="s">
+      <c r="K58" s="412" t="s">
         <v>70</v>
       </c>
-      <c r="L58" s="382" t="s">
+      <c r="L58" s="417" t="s">
         <v>70</v>
       </c>
-      <c r="M58" s="136"/>
-      <c r="N58" s="123"/>
-      <c r="O58" s="115"/>
-      <c r="P58" s="135"/>
-      <c r="Q58" s="361" t="s">
+      <c r="M58" s="141"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="120"/>
+      <c r="P58" s="140"/>
+      <c r="Q58" s="396" t="s">
         <v>70</v>
       </c>
-      <c r="R58" s="362" t="s">
+      <c r="R58" s="397" t="s">
         <v>70</v>
       </c>
-      <c r="S58" s="363" t="s">
+      <c r="S58" s="398" t="s">
         <v>70</v>
       </c>
-      <c r="T58" s="363" t="s">
+      <c r="T58" s="398" t="s">
         <v>70</v>
       </c>
-      <c r="U58" s="363" t="s">
+      <c r="U58" s="398" t="s">
         <v>70</v>
       </c>
-      <c r="V58" s="363" t="s">
+      <c r="V58" s="398" t="s">
         <v>70</v>
       </c>
-      <c r="W58" s="364" t="s">
+      <c r="W58" s="399" t="s">
         <v>70</v>
       </c>
-      <c r="X58" s="365" t="s">
+      <c r="X58" s="400" t="s">
         <v>85</v>
       </c>
-      <c r="Y58" s="365" t="s">
+      <c r="Y58" s="400" t="s">
         <v>85</v>
       </c>
-      <c r="Z58" s="366" t="s">
+      <c r="Z58" s="401" t="s">
         <v>85</v>
       </c>
-      <c r="AA58" s="366" t="s">
+      <c r="AA58" s="401" t="s">
         <v>85</v>
       </c>
-      <c r="AB58" s="366" t="s">
+      <c r="AB58" s="401" t="s">
         <v>85</v>
       </c>
-      <c r="AC58" s="366" t="s">
+      <c r="AC58" s="401" t="s">
         <v>85</v>
       </c>
-      <c r="AD58" s="367" t="s">
+      <c r="AD58" s="402" t="s">
         <v>85</v>
       </c>
-      <c r="AE58" s="368"/>
-      <c r="AF58" s="369" t="s">
+      <c r="AE58" s="403"/>
+      <c r="AF58" s="404" t="s">
         <v>85</v>
       </c>
-      <c r="AG58" s="370" t="s">
+      <c r="AG58" s="405" t="s">
         <v>85</v>
       </c>
-      <c r="AH58" s="371" t="s">
+      <c r="AH58" s="406" t="s">
         <v>85</v>
       </c>
-      <c r="AI58" s="372" t="s">
+      <c r="AI58" s="407" t="s">
         <v>85</v>
       </c>
-      <c r="AJ58" s="372" t="s">
+      <c r="AJ58" s="407" t="s">
         <v>85</v>
       </c>
-      <c r="AK58" s="372" t="s">
+      <c r="AK58" s="407" t="s">
         <v>85</v>
       </c>
-      <c r="AL58" s="373" t="s">
+      <c r="AL58" s="408" t="s">
         <v>85</v>
       </c>
-      <c r="AM58" s="25"/>
-    </row>
-    <row r="59" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:39" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM58" s="26"/>
+    </row>
+    <row r="59" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="61"/>
+      <c r="W59" s="61"/>
+      <c r="X59" s="61"/>
+      <c r="Y59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="61"/>
+      <c r="AB59" s="61"/>
+      <c r="AC59" s="61"/>
+      <c r="AD59" s="61"/>
+      <c r="AE59" s="61"/>
+      <c r="AF59" s="61"/>
+      <c r="AG59" s="61"/>
+      <c r="AH59" s="61"/>
+      <c r="AI59" s="61"/>
+      <c r="AJ59" s="61"/>
+      <c r="AK59" s="61"/>
+      <c r="AL59" s="61"/>
+    </row>
+    <row r="60" spans="1:40" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="393" t="s">
+      <c r="B60" s="369" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="394"/>
-      <c r="D60" s="394"/>
-      <c r="E60" s="394"/>
-      <c r="F60" s="394"/>
-      <c r="G60" s="394"/>
-      <c r="H60" s="396"/>
-      <c r="I60" s="393" t="s">
+      <c r="C60" s="370"/>
+      <c r="D60" s="370"/>
+      <c r="E60" s="370"/>
+      <c r="F60" s="370"/>
+      <c r="G60" s="370"/>
+      <c r="H60" s="372"/>
+      <c r="I60" s="369" t="s">
         <v>90</v>
       </c>
-      <c r="J60" s="394"/>
-      <c r="K60" s="394"/>
-      <c r="L60" s="394"/>
-      <c r="M60" s="394"/>
-      <c r="N60" s="394"/>
-      <c r="O60" s="396"/>
-      <c r="P60" s="190"/>
-      <c r="Q60" s="393" t="s">
+      <c r="J60" s="370"/>
+      <c r="K60" s="370"/>
+      <c r="L60" s="370"/>
+      <c r="M60" s="370"/>
+      <c r="N60" s="370"/>
+      <c r="O60" s="372"/>
+      <c r="P60" s="195"/>
+      <c r="Q60" s="369" t="s">
         <v>91</v>
       </c>
-      <c r="R60" s="394"/>
-      <c r="S60" s="394"/>
-      <c r="T60" s="394"/>
-      <c r="U60" s="394"/>
-      <c r="V60" s="394"/>
-      <c r="W60" s="396"/>
-      <c r="X60" s="393" t="s">
+      <c r="R60" s="370"/>
+      <c r="S60" s="370"/>
+      <c r="T60" s="370"/>
+      <c r="U60" s="370"/>
+      <c r="V60" s="370"/>
+      <c r="W60" s="372"/>
+      <c r="X60" s="369" t="s">
         <v>92</v>
       </c>
-      <c r="Y60" s="394"/>
-      <c r="Z60" s="394"/>
-      <c r="AA60" s="394"/>
-      <c r="AB60" s="394"/>
-      <c r="AC60" s="394"/>
-      <c r="AD60" s="396"/>
-      <c r="AE60" s="190"/>
-      <c r="AF60" s="393" t="s">
+      <c r="Y60" s="370"/>
+      <c r="Z60" s="370"/>
+      <c r="AA60" s="370"/>
+      <c r="AB60" s="370"/>
+      <c r="AC60" s="370"/>
+      <c r="AD60" s="372"/>
+      <c r="AE60" s="195"/>
+      <c r="AF60" s="369" t="s">
         <v>93</v>
       </c>
-      <c r="AG60" s="394"/>
-      <c r="AH60" s="394"/>
-      <c r="AI60" s="394"/>
-      <c r="AJ60" s="394"/>
-      <c r="AK60" s="394"/>
-      <c r="AL60" s="395"/>
+      <c r="AG60" s="370"/>
+      <c r="AH60" s="370"/>
+      <c r="AI60" s="370"/>
+      <c r="AJ60" s="370"/>
+      <c r="AK60" s="370"/>
+      <c r="AL60" s="371"/>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AF60:AL60"/>
-    <mergeCell ref="X60:AD60"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I60:O60"/>
-    <mergeCell ref="Q60:W60"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="Q2:W2"/>
     <mergeCell ref="AF2:AL2"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="AF60:AL60"/>
+    <mergeCell ref="X60:AD60"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I60:O60"/>
+    <mergeCell ref="Q60:W60"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8050,29 +8156,29 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="50"/>
-    <col min="2" max="2" width="16.5" style="50" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="50" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="50"/>
+    <col min="1" max="1" width="8.7265625" style="54"/>
+    <col min="2" max="2" width="16.453125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="54" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1" s="397" t="s">
+    <row r="1" spans="2:4" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="383" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-    </row>
-    <row r="2" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="218"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+    </row>
+    <row r="2" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="224"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
+    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="42"/>
       <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
@@ -8080,13 +8186,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="220"/>
+    <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="226"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="221"/>
+    <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="227"/>
       <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
@@ -8094,13 +8200,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="218"/>
+    <row r="6" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="224"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
+    <row r="7" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="32"/>
       <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
@@ -8108,26 +8214,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="218"/>
+    <row r="8" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="224"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="222" t="s">
+    <row r="9" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="33"/>
+      <c r="C9" s="228" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="218"/>
+    <row r="10" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="224"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
         <v>19</v>
@@ -8136,13 +8242,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="223"/>
-      <c r="C12" s="224"/>
+    <row r="12" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="229"/>
+      <c r="C12" s="230"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="51"/>
+    <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="55"/>
       <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
@@ -8150,13 +8256,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="219"/>
+    <row r="14" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="225"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
+    <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="34"/>
       <c r="C15" s="16" t="s">
         <v>19</v>
       </c>
@@ -8164,13 +8270,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="218"/>
+    <row r="16" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="224"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="43"/>
       <c r="C17" s="16" t="s">
         <v>19</v>
       </c>
@@ -8178,12 +8284,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="218"/>
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="224"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="19"/>
       <c r="C19" s="16" t="s">
         <v>19</v>
@@ -8192,13 +8298,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="218"/>
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="224"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="38"/>
       <c r="C21" s="16" t="s">
         <v>19</v>
       </c>
@@ -8206,12 +8312,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="218"/>
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="224"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="20"/>
       <c r="C23" s="16" t="s">
         <v>19</v>
@@ -8220,12 +8326,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="218"/>
+    <row r="24" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="224"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="21"/>
       <c r="C25" s="16" t="s">
         <v>19</v>
@@ -8234,12 +8340,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="218"/>
-      <c r="C26" s="218"/>
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="224"/>
+      <c r="C26" s="224"/>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="22"/>
       <c r="C27" s="16" t="s">
         <v>19</v>
@@ -8248,13 +8354,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="218"/>
-      <c r="C28" s="218"/>
-      <c r="D28" s="218"/>
-    </row>
-    <row r="29" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
+    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="224"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="224"/>
+    </row>
+    <row r="29" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="35"/>
       <c r="C29" s="16" t="s">
         <v>19</v>
       </c>
@@ -8262,12 +8368,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="218"/>
-      <c r="C30" s="218"/>
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="23"/>
       <c r="C31" s="16" t="s">
         <v>19</v>
@@ -8276,13 +8382,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="218"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-    </row>
-    <row r="33" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="224"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224"/>
+    </row>
+    <row r="33" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="36"/>
       <c r="C33" s="16" t="s">
         <v>19</v>
       </c>
@@ -8290,13 +8396,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="218"/>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-    </row>
-    <row r="35" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="225"/>
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+    </row>
+    <row r="35" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="231"/>
       <c r="C35" s="16" t="s">
         <v>19</v>
       </c>
